--- a/gd/副本内容设计/第五、六章美术需求.xlsx
+++ b/gd/副本内容设计/第五、六章美术需求.xlsx
@@ -9,17 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24075" windowHeight="12450" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24075" windowHeight="12450" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="规范" sheetId="1" r:id="rId1"/>
-    <sheet name="xgDatiangou3——换色" sheetId="2" r:id="rId2"/>
-    <sheet name="xgMengyan5——补充大招" sheetId="3" r:id="rId3"/>
-    <sheet name="xgIfrit5——换色" sheetId="4" r:id="rId4"/>
-    <sheet name="xgDujiaoshou5——换色" sheetId="5" r:id="rId5"/>
-    <sheet name="xgWeitianshi5——换色" sheetId="6" r:id="rId6"/>
-    <sheet name="xgChange5——换色" sheetId="7" r:id="rId7"/>
-    <sheet name="xgHapi5——换色" sheetId="8" r:id="rId8"/>
+    <sheet name="xgWeitianshi5——新增（换色）" sheetId="6" r:id="rId2"/>
+    <sheet name="xgBingyan3——补充大招" sheetId="9" r:id="rId3"/>
+    <sheet name="xgMengyan5——补充大招" sheetId="3" r:id="rId4"/>
+    <sheet name="xgDatiangou3——补充大招" sheetId="2" r:id="rId5"/>
+    <sheet name="xgChange5——换色" sheetId="7" r:id="rId6"/>
+    <sheet name="xgIfrit5——换色" sheetId="4" r:id="rId7"/>
+    <sheet name="xgDujiaoshou5——换色" sheetId="5" r:id="rId8"/>
+    <sheet name="xgHapi5——换色" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="125">
   <si>
     <t>id</t>
   </si>
@@ -587,10 +588,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>3秒20次水法术伤害，如果目标有debuff时（有debuff标签的都算加成），伤害翻倍</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>dazhaoxuanyao</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -607,14 +604,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>群体物理暗属性伤害附加一定几率驱散敌方增益buff（自动）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>驱散敌方增益buff</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>xgMengyan5</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -642,7 +631,260 @@
     <t>3秒20次暗法术伤害</t>
   </si>
   <si>
-    <t>群体暗属性bomb，XX%法术伤害，3回合炸</t>
+    <t>xgBingyan3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>命名:e_shifa</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>群体嘲讽附加自身防御力上升</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>复用火系大天狗动作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>法攻</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5秒，亮相动作，不是跳入。 总长2s</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>用于战斗待机及村落待机，2秒循环，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>动作幅度要小。总长2s</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>单击，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1秒时击中</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，需要先往前跳50cm. 总长2s</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>蓄力1秒 1.5秒时放出</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，先往前跳50cm.总长2s</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.5秒倒地，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1.5秒一定要踏实的死在地上</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">。2秒做完动作 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>总长2s</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2秒循环动作 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>总长2s</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>跑步速度</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10m/s循环 总长15帧</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2秒循环，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>非常明显的防护动作。总长2s</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2秒循环 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>弱点露出，动作幅度非常小 总长2s</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>boss受击晃动不要大，要小</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">，不要使弱点位移范围超过20cm </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>总长15帧</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>复用火系伊芙利特动作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>复用光系独角兽动作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增大招</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>复用光系大招动作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3秒20次水法术伤害，如果目标有debuff时（有debuff标签的都算加成），伤害翻倍</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -650,7 +892,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -731,8 +973,30 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -773,6 +1037,11 @@
       <patternFill patternType="solid">
         <fgColor indexed="10"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -855,12 +1124,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -994,30 +1266,52 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1037,19 +1331,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1514475</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>1341036</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="图片 16"/>
+        <xdr:cNvPr id="3" name="图片 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1062,8 +1356,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1419225" y="171450"/>
-          <a:ext cx="1466850" cy="1466850"/>
+          <a:off x="1590675" y="285751"/>
+          <a:ext cx="1121961" cy="1638300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1076,6 +1370,49 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>66676</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>442830</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="752476" y="361951"/>
+          <a:ext cx="1061954" cy="781050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1118,7 +1455,93 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1514475</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="图片 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1419225" y="171450"/>
+          <a:ext cx="1466850" cy="1466850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1666875</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>63397</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1428750" y="180975"/>
+          <a:ext cx="1609725" cy="1749322"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1161,7 +1584,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1204,93 +1627,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1341036</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>57151</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1590675" y="285751"/>
-          <a:ext cx="1121961" cy="1638300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1666875</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>63397</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1428750" y="180975"/>
-          <a:ext cx="1609725" cy="1749322"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1599,7 +1936,7 @@
   <dimension ref="A1:Q38"/>
   <sheetViews>
     <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="L45" sqref="L45"/>
+      <selection activeCell="L42" sqref="L42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1671,20 +2008,20 @@
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A2" s="48"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="49"/>
+      <c r="A2" s="52"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="7" t="s">
         <v>15</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="46" t="s">
+      <c r="J2" s="53" t="s">
         <v>17</v>
       </c>
       <c r="K2" s="9" t="s">
@@ -1704,20 +2041,20 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A3" s="48"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="49"/>
+      <c r="A3" s="52"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="54"/>
       <c r="H3" s="7" t="s">
         <v>23</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="46"/>
+      <c r="J3" s="53"/>
       <c r="K3" s="9" t="s">
         <v>25</v>
       </c>
@@ -1738,20 +2075,20 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A4" s="48"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="49"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="54"/>
       <c r="H4" s="7" t="s">
         <v>31</v>
       </c>
       <c r="I4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="46"/>
+      <c r="J4" s="53"/>
       <c r="K4" s="9" t="s">
         <v>33</v>
       </c>
@@ -1772,20 +2109,20 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A5" s="48"/>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="46" t="s">
+      <c r="A5" s="52"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="I5" s="47" t="s">
+      <c r="I5" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="J5" s="46"/>
+      <c r="J5" s="53"/>
       <c r="K5" s="9" t="s">
         <v>39</v>
       </c>
@@ -1803,16 +2140,16 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A6" s="48"/>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="46"/>
+      <c r="A6" s="52"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="53"/>
       <c r="K6" s="9" t="s">
         <v>43</v>
       </c>
@@ -1830,16 +2167,16 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A7" s="48"/>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="46"/>
+      <c r="A7" s="52"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="9" t="s">
         <v>47</v>
       </c>
@@ -1857,16 +2194,16 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A8" s="48"/>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="49"/>
+      <c r="A8" s="52"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="54"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
-      <c r="J8" s="46"/>
+      <c r="J8" s="53"/>
       <c r="K8" s="9" t="s">
         <v>51</v>
       </c>
@@ -1884,20 +2221,20 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A9" s="48"/>
-      <c r="B9" s="46"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="46" t="s">
+      <c r="A9" s="52"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="I9" s="47" t="s">
+      <c r="I9" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="J9" s="46"/>
+      <c r="J9" s="53"/>
       <c r="K9" s="9" t="s">
         <v>57</v>
       </c>
@@ -1915,16 +2252,16 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A10" s="48"/>
-      <c r="B10" s="46"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="46"/>
+      <c r="A10" s="52"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="53"/>
       <c r="K10" s="9" t="s">
         <v>60</v>
       </c>
@@ -1942,16 +2279,16 @@
       </c>
     </row>
     <row r="11" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="48"/>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="49"/>
+      <c r="A11" s="52"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="54"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
-      <c r="J11" s="46"/>
+      <c r="J11" s="53"/>
       <c r="K11" s="9" t="s">
         <v>64</v>
       </c>
@@ -1969,16 +2306,16 @@
       </c>
     </row>
     <row r="12" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="48"/>
-      <c r="B12" s="46"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="49"/>
+      <c r="A12" s="52"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="54"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
-      <c r="J12" s="46"/>
+      <c r="J12" s="53"/>
       <c r="K12" s="12" t="s">
         <v>68</v>
       </c>
@@ -1996,13 +2333,13 @@
       </c>
     </row>
     <row r="13" spans="1:17" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="48"/>
-      <c r="B13" s="46"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="49"/>
+      <c r="A13" s="52"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="54"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
@@ -2054,13 +2391,13 @@
     </row>
     <row r="19" spans="1:16" s="21" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="20" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="48"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="45" t="s">
+      <c r="A20" s="52"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="56" t="s">
         <v>80</v>
       </c>
       <c r="H20" s="7" t="s">
@@ -2069,7 +2406,7 @@
       <c r="I20" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J20" s="46" t="s">
+      <c r="J20" s="53" t="s">
         <v>17</v>
       </c>
       <c r="K20" s="9" t="s">
@@ -2089,20 +2426,20 @@
       </c>
     </row>
     <row r="21" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="48"/>
-      <c r="B21" s="46"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="45"/>
+      <c r="A21" s="52"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="56"/>
       <c r="H21" s="7" t="s">
         <v>23</v>
       </c>
       <c r="I21" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J21" s="46"/>
+      <c r="J21" s="53"/>
       <c r="K21" s="9" t="s">
         <v>25</v>
       </c>
@@ -2123,20 +2460,20 @@
       </c>
     </row>
     <row r="22" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="48"/>
-      <c r="B22" s="46"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="45"/>
+      <c r="A22" s="52"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="56"/>
       <c r="H22" s="7" t="s">
         <v>31</v>
       </c>
       <c r="I22" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="J22" s="46"/>
+      <c r="J22" s="53"/>
       <c r="K22" s="9" t="s">
         <v>33</v>
       </c>
@@ -2157,20 +2494,20 @@
       </c>
     </row>
     <row r="23" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="48"/>
-      <c r="B23" s="46"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="46" t="s">
+      <c r="A23" s="52"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="I23" s="47" t="s">
+      <c r="I23" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="J23" s="46"/>
+      <c r="J23" s="53"/>
       <c r="K23" s="9" t="s">
         <v>39</v>
       </c>
@@ -2188,16 +2525,16 @@
       </c>
     </row>
     <row r="24" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="48"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="46"/>
+      <c r="A24" s="52"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="53"/>
       <c r="K24" s="9" t="s">
         <v>43</v>
       </c>
@@ -2215,16 +2552,16 @@
       </c>
     </row>
     <row r="25" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="48"/>
-      <c r="B25" s="46"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="46"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="46"/>
+      <c r="A25" s="52"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="56"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="53"/>
       <c r="K25" s="9" t="s">
         <v>47</v>
       </c>
@@ -2242,16 +2579,16 @@
       </c>
     </row>
     <row r="26" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="48"/>
-      <c r="B26" s="46"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="45"/>
+      <c r="A26" s="52"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="56"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
-      <c r="J26" s="46"/>
+      <c r="J26" s="53"/>
       <c r="K26" s="9" t="s">
         <v>51</v>
       </c>
@@ -2269,20 +2606,20 @@
       </c>
     </row>
     <row r="27" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="48"/>
-      <c r="B27" s="46"/>
-      <c r="C27" s="46"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="46" t="s">
+      <c r="A27" s="52"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="I27" s="47" t="s">
+      <c r="I27" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="J27" s="46"/>
+      <c r="J27" s="53"/>
       <c r="K27" s="9" t="s">
         <v>57</v>
       </c>
@@ -2300,16 +2637,16 @@
       </c>
     </row>
     <row r="28" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="48"/>
-      <c r="B28" s="46"/>
-      <c r="C28" s="46"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="46"/>
-      <c r="I28" s="47"/>
-      <c r="J28" s="46"/>
+      <c r="A28" s="52"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="53"/>
       <c r="K28" s="9" t="s">
         <v>60</v>
       </c>
@@ -2327,16 +2664,16 @@
       </c>
     </row>
     <row r="29" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="48"/>
-      <c r="B29" s="46"/>
-      <c r="C29" s="46"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="45"/>
+      <c r="A29" s="52"/>
+      <c r="B29" s="53"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="56"/>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
-      <c r="J29" s="46"/>
+      <c r="J29" s="53"/>
       <c r="K29" s="9" t="s">
         <v>64</v>
       </c>
@@ -2354,16 +2691,16 @@
       </c>
     </row>
     <row r="30" spans="1:16" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="48"/>
-      <c r="B30" s="46"/>
-      <c r="C30" s="46"/>
-      <c r="D30" s="46"/>
-      <c r="E30" s="46"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="45"/>
+      <c r="A30" s="52"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="56"/>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
-      <c r="J30" s="46"/>
+      <c r="J30" s="53"/>
       <c r="K30" s="22" t="s">
         <v>83</v>
       </c>
@@ -2384,13 +2721,13 @@
       </c>
     </row>
     <row r="31" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="48"/>
-      <c r="B31" s="46"/>
-      <c r="C31" s="46"/>
-      <c r="D31" s="46"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="48"/>
-      <c r="G31" s="45"/>
+      <c r="A31" s="52"/>
+      <c r="B31" s="53"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="56"/>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
       <c r="J31" s="7" t="s">
@@ -2434,11 +2771,11 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A2:A13"/>
-    <mergeCell ref="B2:B13"/>
-    <mergeCell ref="C2:C13"/>
-    <mergeCell ref="D2:D13"/>
-    <mergeCell ref="E2:E13"/>
+    <mergeCell ref="A20:A31"/>
+    <mergeCell ref="B20:B31"/>
+    <mergeCell ref="C20:C31"/>
+    <mergeCell ref="D20:D31"/>
+    <mergeCell ref="E20:E31"/>
     <mergeCell ref="F20:F31"/>
     <mergeCell ref="G2:G13"/>
     <mergeCell ref="J2:J12"/>
@@ -2447,17 +2784,17 @@
     <mergeCell ref="H9:H10"/>
     <mergeCell ref="I9:I10"/>
     <mergeCell ref="F2:F13"/>
-    <mergeCell ref="A20:A31"/>
-    <mergeCell ref="B20:B31"/>
-    <mergeCell ref="C20:C31"/>
-    <mergeCell ref="D20:D31"/>
-    <mergeCell ref="E20:E31"/>
     <mergeCell ref="G20:G31"/>
     <mergeCell ref="J20:J30"/>
     <mergeCell ref="H23:H25"/>
     <mergeCell ref="I23:I25"/>
     <mergeCell ref="H27:H28"/>
     <mergeCell ref="I27:I28"/>
+    <mergeCell ref="A2:A13"/>
+    <mergeCell ref="B2:B13"/>
+    <mergeCell ref="C2:C13"/>
+    <mergeCell ref="D2:D13"/>
+    <mergeCell ref="E2:E13"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2466,10 +2803,646 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="49" customWidth="1"/>
+    <col min="2" max="2" width="9" style="49"/>
+    <col min="3" max="3" width="22.375" style="49" customWidth="1"/>
+    <col min="4" max="4" width="31.125" style="49" customWidth="1"/>
+    <col min="5" max="5" width="37.25" style="49" customWidth="1"/>
+    <col min="6" max="6" width="12.875" style="49" customWidth="1"/>
+    <col min="7" max="7" width="15.375" style="49" customWidth="1"/>
+    <col min="8" max="8" width="56.875" style="49" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.25" style="49" customWidth="1"/>
+    <col min="10" max="10" width="29.875" style="49" customWidth="1"/>
+    <col min="11" max="11" width="27.875" style="49" customWidth="1"/>
+    <col min="12" max="12" width="9" style="49"/>
+    <col min="13" max="13" width="25" style="49" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="49"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="K1" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="26"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A2" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A3" s="57"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="55"/>
+      <c r="G3" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" s="11"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A4" s="57"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="55"/>
+      <c r="G4" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="H4" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" s="11"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A5" s="43"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A6" s="43"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A7" s="43"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A8" s="43"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A9" s="43"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+    </row>
+    <row r="10" spans="1:14" ht="30" x14ac:dyDescent="0.15">
+      <c r="A10" s="43"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A11" s="43"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A12" s="43"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12" s="51" t="s">
+        <v>92</v>
+      </c>
+      <c r="H12" s="44" t="s">
+        <v>102</v>
+      </c>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="L12" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A13" s="43"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="15"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="D14" s="39"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="41"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="D15" s="39"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="52"/>
+      <c r="H15" s="42"/>
+    </row>
+    <row r="20" spans="9:13" x14ac:dyDescent="0.15">
+      <c r="M20" s="11"/>
+    </row>
+    <row r="21" spans="9:13" x14ac:dyDescent="0.15">
+      <c r="M21" s="11"/>
+    </row>
+    <row r="27" spans="9:13" x14ac:dyDescent="0.15">
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+    </row>
+    <row r="28" spans="9:13" x14ac:dyDescent="0.15">
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F2:F11"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="4" max="4" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="29" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="K1" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="26"/>
+    </row>
+    <row r="2" spans="1:14" s="34" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="A2" s="57" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="F2" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="H2" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+    </row>
+    <row r="3" spans="1:14" s="34" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="57"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="58"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+    </row>
+    <row r="4" spans="1:14" s="34" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="57"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="11"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+    </row>
+    <row r="5" spans="1:14" s="34" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="43"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+    </row>
+    <row r="6" spans="1:14" s="34" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="43"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+    </row>
+    <row r="7" spans="1:14" s="34" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="43"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+    </row>
+    <row r="8" spans="1:14" s="34" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="43"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+    </row>
+    <row r="9" spans="1:14" s="34" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="43"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+    </row>
+    <row r="10" spans="1:14" s="34" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="43"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="F2:F3"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:K27"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2530,49 +3503,49 @@
       </c>
       <c r="N1" s="26"/>
     </row>
-    <row r="2" spans="1:14" ht="45" x14ac:dyDescent="0.15">
-      <c r="A2" s="51" t="s">
-        <v>93</v>
-      </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
+    <row r="2" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="57" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
       <c r="D2" s="30" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="50" t="s">
+      <c r="F2" s="58" t="s">
         <v>72</v>
       </c>
       <c r="G2" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="H2" s="33" t="s">
-        <v>94</v>
+      <c r="H2" s="44" t="s">
+        <v>97</v>
       </c>
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
       <c r="K2" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M2" s="11"/>
       <c r="N2" s="11"/>
     </row>
     <row r="3" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="51"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
+      <c r="A3" s="57"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
       <c r="D3" s="30" t="s">
         <v>23</v>
       </c>
       <c r="E3" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="50"/>
+      <c r="F3" s="58"/>
       <c r="G3" s="38" t="s">
         <v>72</v>
       </c>
@@ -2580,18 +3553,18 @@
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
       <c r="K3" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="L3" s="11" t="s">
         <v>96</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>97</v>
       </c>
       <c r="M3" s="11"/>
       <c r="N3" s="11"/>
     </row>
     <row r="4" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="51"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
+      <c r="A4" s="57"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
       <c r="D4" s="30" t="s">
         <v>31</v>
       </c>
@@ -2618,7 +3591,6 @@
       <c r="G5" s="32"/>
       <c r="H5" s="33"/>
       <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
       <c r="M5" s="11"/>
@@ -2746,14 +3718,14 @@
     <row r="14" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
       <c r="D14" s="36"/>
       <c r="E14" s="31"/>
-      <c r="F14" s="48"/>
+      <c r="F14" s="52"/>
       <c r="G14" s="40"/>
       <c r="H14" s="41"/>
     </row>
     <row r="15" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
       <c r="D15" s="36"/>
       <c r="E15" s="31"/>
-      <c r="F15" s="48"/>
+      <c r="F15" s="52"/>
       <c r="H15" s="42"/>
     </row>
   </sheetData>
@@ -2770,12 +3742,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:L3"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2787,7 +3759,7 @@
     <col min="5" max="5" width="37.25" style="34" customWidth="1"/>
     <col min="6" max="6" width="12.875" style="34" customWidth="1"/>
     <col min="7" max="7" width="15.375" style="34" customWidth="1"/>
-    <col min="8" max="8" width="32.75" style="34" customWidth="1"/>
+    <col min="8" max="8" width="78.25" style="34" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.25" style="34" customWidth="1"/>
     <col min="10" max="10" width="15.5" style="34" customWidth="1"/>
     <col min="11" max="11" width="27.875" style="34" customWidth="1"/>
@@ -2837,48 +3809,48 @@
       <c r="N1" s="26"/>
     </row>
     <row r="2" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="51" t="s">
-        <v>101</v>
-      </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
+      <c r="A2" s="57" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
       <c r="D2" s="30" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="50" t="s">
+      <c r="F2" s="58" t="s">
         <v>72</v>
       </c>
       <c r="G2" s="38" t="s">
         <v>92</v>
       </c>
       <c r="H2" s="44" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
       <c r="K2" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M2" s="11"/>
       <c r="N2" s="11"/>
     </row>
     <row r="3" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="51"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
+      <c r="A3" s="57"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
       <c r="D3" s="30" t="s">
         <v>23</v>
       </c>
       <c r="E3" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="50"/>
+      <c r="F3" s="58"/>
       <c r="G3" s="38" t="s">
         <v>72</v>
       </c>
@@ -2886,18 +3858,18 @@
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
       <c r="K3" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="L3" s="11" t="s">
         <v>96</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>97</v>
       </c>
       <c r="M3" s="11"/>
       <c r="N3" s="11"/>
     </row>
     <row r="4" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="51"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
+      <c r="A4" s="57"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
       <c r="D4" s="30" t="s">
         <v>31</v>
       </c>
@@ -2920,10 +3892,13 @@
       <c r="C5" s="11"/>
       <c r="D5" s="35"/>
       <c r="E5" s="31"/>
-      <c r="F5" s="11"/>
+      <c r="F5" s="58" t="s">
+        <v>108</v>
+      </c>
       <c r="G5" s="32"/>
       <c r="H5" s="33"/>
       <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
       <c r="M5" s="11"/>
@@ -2935,7 +3910,7 @@
       <c r="C6" s="11"/>
       <c r="D6" s="35"/>
       <c r="E6" s="31"/>
-      <c r="F6" s="11"/>
+      <c r="F6" s="58"/>
       <c r="G6" s="32"/>
       <c r="H6" s="33"/>
       <c r="I6" s="11"/>
@@ -3051,23 +4026,24 @@
     <row r="14" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
       <c r="D14" s="36"/>
       <c r="E14" s="31"/>
-      <c r="F14" s="48"/>
+      <c r="F14" s="52"/>
       <c r="G14" s="40"/>
       <c r="H14" s="41"/>
     </row>
     <row r="15" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
       <c r="D15" s="36"/>
       <c r="E15" s="31"/>
-      <c r="F15" s="48"/>
+      <c r="F15" s="52"/>
       <c r="H15" s="42"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="F2:F3"/>
+  <mergeCells count="6">
+    <mergeCell ref="F5:F6"/>
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:C4"/>
+    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3075,12 +4051,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16:M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3142,61 +4118,67 @@
       <c r="N1" s="26"/>
     </row>
     <row r="2" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
+      <c r="A2" s="57" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
       <c r="D2" s="30" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="50" t="s">
-        <v>72</v>
+      <c r="F2" s="58" t="s">
+        <v>122</v>
       </c>
       <c r="G2" s="38" t="s">
         <v>92</v>
       </c>
       <c r="H2" s="44" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
       <c r="K2" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M2" s="11"/>
       <c r="N2" s="11"/>
     </row>
     <row r="3" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="51"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
+      <c r="A3" s="57"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
       <c r="D3" s="30" t="s">
         <v>23</v>
       </c>
       <c r="E3" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="50"/>
-      <c r="G3" s="38"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="38" t="s">
+        <v>72</v>
+      </c>
       <c r="H3" s="33"/>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
+      <c r="K3" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>96</v>
+      </c>
       <c r="M3" s="11"/>
       <c r="N3" s="11"/>
     </row>
     <row r="4" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="51"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
+      <c r="A4" s="57"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
       <c r="D4" s="30" t="s">
         <v>31</v>
       </c>
@@ -3351,14 +4333,14 @@
     <row r="14" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
       <c r="D14" s="36"/>
       <c r="E14" s="31"/>
-      <c r="F14" s="48"/>
+      <c r="F14" s="52"/>
       <c r="G14" s="40"/>
       <c r="H14" s="41"/>
     </row>
     <row r="15" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
       <c r="D15" s="36"/>
       <c r="E15" s="31"/>
-      <c r="F15" s="48"/>
+      <c r="F15" s="52"/>
       <c r="H15" s="42"/>
     </row>
   </sheetData>
@@ -3375,12 +4357,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3442,48 +4424,40 @@
       <c r="N1" s="26"/>
     </row>
     <row r="2" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="51" t="s">
-        <v>103</v>
-      </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
+      <c r="A2" s="57" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
       <c r="D2" s="30" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="50" t="s">
-        <v>72</v>
-      </c>
-      <c r="G2" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="H2" s="44" t="s">
-        <v>100</v>
-      </c>
+      <c r="F2" s="58" t="s">
+        <v>120</v>
+      </c>
+      <c r="G2" s="38"/>
+      <c r="H2" s="44"/>
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
-      <c r="K2" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>97</v>
-      </c>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
       <c r="M2" s="11"/>
       <c r="N2" s="11"/>
     </row>
     <row r="3" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="51"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
+      <c r="A3" s="57"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
       <c r="D3" s="30" t="s">
         <v>23</v>
       </c>
       <c r="E3" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="50"/>
+      <c r="F3" s="58"/>
       <c r="G3" s="38"/>
       <c r="H3" s="33"/>
       <c r="I3" s="11"/>
@@ -3494,9 +4468,9 @@
       <c r="N3" s="11"/>
     </row>
     <row r="4" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="51"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
+      <c r="A4" s="57"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
       <c r="D4" s="30" t="s">
         <v>31</v>
       </c>
@@ -3651,14 +4625,14 @@
     <row r="14" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
       <c r="D14" s="36"/>
       <c r="E14" s="31"/>
-      <c r="F14" s="48"/>
+      <c r="F14" s="52"/>
       <c r="G14" s="40"/>
       <c r="H14" s="41"/>
     </row>
     <row r="15" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
       <c r="D15" s="36"/>
       <c r="E15" s="31"/>
-      <c r="F15" s="48"/>
+      <c r="F15" s="52"/>
       <c r="H15" s="42"/>
     </row>
   </sheetData>
@@ -3675,12 +4649,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="K10" sqref="C10:K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3742,48 +4716,40 @@
       <c r="N1" s="26"/>
     </row>
     <row r="2" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="51" t="s">
-        <v>104</v>
-      </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
+      <c r="A2" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
       <c r="D2" s="30" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="50" t="s">
-        <v>72</v>
-      </c>
-      <c r="G2" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="H2" s="44" t="s">
-        <v>105</v>
-      </c>
+      <c r="F2" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="G2" s="38"/>
+      <c r="H2" s="44"/>
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
-      <c r="K2" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>97</v>
-      </c>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
       <c r="M2" s="11"/>
       <c r="N2" s="11"/>
     </row>
     <row r="3" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="51"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
+      <c r="A3" s="57"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
       <c r="D3" s="30" t="s">
         <v>23</v>
       </c>
       <c r="E3" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="50"/>
+      <c r="F3" s="58"/>
       <c r="G3" s="38"/>
       <c r="H3" s="33"/>
       <c r="I3" s="11"/>
@@ -3794,9 +4760,9 @@
       <c r="N3" s="11"/>
     </row>
     <row r="4" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="51"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
+      <c r="A4" s="57"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
       <c r="D4" s="30" t="s">
         <v>31</v>
       </c>
@@ -3951,14 +4917,14 @@
     <row r="14" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
       <c r="D14" s="36"/>
       <c r="E14" s="31"/>
-      <c r="F14" s="48"/>
+      <c r="F14" s="52"/>
       <c r="G14" s="40"/>
       <c r="H14" s="41"/>
     </row>
     <row r="15" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
       <c r="D15" s="36"/>
       <c r="E15" s="31"/>
-      <c r="F15" s="48"/>
+      <c r="F15" s="52"/>
       <c r="H15" s="42"/>
     </row>
   </sheetData>
@@ -3975,12 +4941,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4042,67 +5008,53 @@
       <c r="N1" s="26"/>
     </row>
     <row r="2" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="51" t="s">
-        <v>106</v>
-      </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
+      <c r="A2" s="57" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
       <c r="D2" s="30" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="50" t="s">
-        <v>72</v>
-      </c>
-      <c r="G2" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="H2" s="44" t="s">
-        <v>107</v>
-      </c>
+      <c r="F2" s="58" t="s">
+        <v>123</v>
+      </c>
+      <c r="G2" s="38"/>
+      <c r="H2" s="44"/>
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
-      <c r="K2" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>97</v>
-      </c>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
       <c r="M2" s="11"/>
       <c r="N2" s="11"/>
     </row>
     <row r="3" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="51"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
+      <c r="A3" s="57"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
       <c r="D3" s="30" t="s">
         <v>23</v>
       </c>
       <c r="E3" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="50"/>
-      <c r="G3" s="38" t="s">
-        <v>72</v>
-      </c>
+      <c r="F3" s="58"/>
+      <c r="G3" s="38"/>
       <c r="H3" s="33"/>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
-      <c r="K3" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>97</v>
-      </c>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
       <c r="M3" s="11"/>
       <c r="N3" s="11"/>
     </row>
     <row r="4" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="51"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
+      <c r="A4" s="57"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
       <c r="D4" s="30" t="s">
         <v>31</v>
       </c>
@@ -4257,314 +5209,14 @@
     <row r="14" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
       <c r="D14" s="36"/>
       <c r="E14" s="31"/>
-      <c r="F14" s="48"/>
+      <c r="F14" s="52"/>
       <c r="G14" s="40"/>
       <c r="H14" s="41"/>
     </row>
     <row r="15" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
       <c r="D15" s="36"/>
       <c r="E15" s="31"/>
-      <c r="F15" s="48"/>
-      <c r="H15" s="42"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="F14:F15"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="9" style="34" customWidth="1"/>
-    <col min="2" max="2" width="9" style="34"/>
-    <col min="3" max="3" width="22.375" style="34" customWidth="1"/>
-    <col min="4" max="4" width="31.125" style="34" customWidth="1"/>
-    <col min="5" max="5" width="37.25" style="34" customWidth="1"/>
-    <col min="6" max="6" width="12.875" style="34" customWidth="1"/>
-    <col min="7" max="7" width="15.375" style="34" customWidth="1"/>
-    <col min="8" max="8" width="56.875" style="34" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.25" style="34" customWidth="1"/>
-    <col min="10" max="10" width="29.875" style="34" customWidth="1"/>
-    <col min="11" max="11" width="27.875" style="34" customWidth="1"/>
-    <col min="12" max="12" width="9" style="34"/>
-    <col min="13" max="13" width="25" style="34" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="34"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="K1" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" s="26"/>
-    </row>
-    <row r="2" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="51" t="s">
-        <v>106</v>
-      </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="50" t="s">
-        <v>72</v>
-      </c>
-      <c r="G2" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="H2" s="44" t="s">
-        <v>108</v>
-      </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-    </row>
-    <row r="3" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="51"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="50"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-    </row>
-    <row r="4" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="51"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-    </row>
-    <row r="5" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="43"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-    </row>
-    <row r="6" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="43"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-    </row>
-    <row r="7" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="43"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-    </row>
-    <row r="8" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="43"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-    </row>
-    <row r="9" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="43"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-    </row>
-    <row r="10" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="43"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-    </row>
-    <row r="11" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="43"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-    </row>
-    <row r="12" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="43"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="31"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-    </row>
-    <row r="13" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="43"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="31"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="15"/>
-    </row>
-    <row r="14" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="D14" s="36"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="41"/>
-    </row>
-    <row r="15" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="D15" s="36"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="48"/>
+      <c r="F15" s="52"/>
       <c r="H15" s="42"/>
     </row>
   </sheetData>

--- a/gd/副本内容设计/第五、六章美术需求.xlsx
+++ b/gd/副本内容设计/第五、六章美术需求.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24075" windowHeight="12450" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24075" windowHeight="12450" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="规范" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,8 @@
     <sheet name="xgChange5——换色" sheetId="7" r:id="rId6"/>
     <sheet name="xgIfrit5——换色" sheetId="4" r:id="rId7"/>
     <sheet name="xgDujiaoshou5——换色" sheetId="5" r:id="rId8"/>
-    <sheet name="xgHapi5——换色" sheetId="8" r:id="rId9"/>
+    <sheet name="bosschaoxue58Yimier4——新增" sheetId="10" r:id="rId9"/>
+    <sheet name="xgHapi5——换色" sheetId="8" r:id="rId10"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="154">
   <si>
     <t>id</t>
   </si>
@@ -887,12 +888,124 @@
     <t>3秒20次水法术伤害，如果目标有debuff时（有debuff标签的都算加成），伤害翻倍</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>动作类别</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>动作名称</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱点1（挂接点）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱点2（挂接点）+mesh</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱点3（挂接点）+mesh</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱点4（挂接点）+mesh</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱点5（挂接点）+mesh</t>
+  </si>
+  <si>
+    <t>bosschaoxue58Yimier4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>身体，挂接点名：wp_body，mesh名称：mesh_body</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>右翅膀，挂接点名：wp_rwing，mesh名称：mesh_rwing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>左翅膀，挂接点名：wp_lwing，mesh名称：mesh_lwing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>骨盘，挂接点名：wp_bone，mesh名称：mesh_bone</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>头骨，挂接点名：wp_skull，mesh名称：mesh_skull</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss技能1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击敌方单体，造成XX%法攻水属性伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss技能2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>吹雪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss技能3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>破冰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击敌方群体，造成XX%法攻水属性伤害；若目标存在吹雪技能添加的stun buff则造成大伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss技能4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击敌方群体，造成XX%法攻水属性伤害并概率附加效果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossYimier1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossYimier2</t>
+  </si>
+  <si>
+    <t>bossYimier3</t>
+  </si>
+  <si>
+    <t>bossYimier4</t>
+  </si>
+  <si>
+    <t>使敌方单体眩晕2回合（需要一个冰冻特效挂在眩晕buff上）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰晶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>吐息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -991,6 +1104,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -1132,7 +1253,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1290,6 +1411,36 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1307,6 +1458,18 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1628,6 +1791,691 @@
 </file>
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1152525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2028823</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>39407</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2" descr="C:\Users\snmad\Documents\Tencent Files\298113065\Image\C2C\NB{6F`4V}_TOX5B22@A3GLB.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1152525" y="1857375"/>
+          <a:ext cx="2562223" cy="3306482"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1448546</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>159026</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>33758</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>100088</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="4" name="组合 3"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1448546" y="4026176"/>
+          <a:ext cx="271137" cy="360162"/>
+          <a:chOff x="6433029" y="7907966"/>
+          <a:chExt cx="389951" cy="367782"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="椭圆 4"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6433029" y="7962900"/>
+            <a:ext cx="389951" cy="312848"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="文本框 5"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6451242" y="7907966"/>
+            <a:ext cx="295203" cy="332910"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>2</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1500975</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>16068</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1772112</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>178110</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="7" name="组合 6"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3186900" y="4092768"/>
+          <a:ext cx="271137" cy="371592"/>
+          <a:chOff x="6433029" y="7907966"/>
+          <a:chExt cx="389951" cy="367782"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="椭圆 7"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6433029" y="7962900"/>
+            <a:ext cx="389951" cy="312848"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="文本框 8"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6451242" y="7907966"/>
+            <a:ext cx="295203" cy="332910"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>3</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>601985</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>158115</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1009651</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="10" name="组合 9"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2287910" y="3606165"/>
+          <a:ext cx="407666" cy="384810"/>
+          <a:chOff x="4962525" y="4191000"/>
+          <a:chExt cx="480775" cy="435636"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="文本框 10"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4985371" y="4191000"/>
+            <a:ext cx="457929" cy="428600"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>1</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="12" name="椭圆 11"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4962525" y="4191000"/>
+            <a:ext cx="428625" cy="435636"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>624840</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>438150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>895977</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>17262</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="13" name="组合 12"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2310765" y="1962150"/>
+          <a:ext cx="271137" cy="455412"/>
+          <a:chOff x="6433029" y="7907966"/>
+          <a:chExt cx="389951" cy="367782"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="14" name="椭圆 13"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6433029" y="7962900"/>
+            <a:ext cx="389951" cy="312848"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="15" name="文本框 14"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6451242" y="7907966"/>
+            <a:ext cx="295203" cy="332910"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>4</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>569595</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>59055</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>909312</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>11547</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="16" name="组合 15"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2255520" y="2668905"/>
+          <a:ext cx="339717" cy="371592"/>
+          <a:chOff x="6433029" y="7907966"/>
+          <a:chExt cx="389951" cy="367782"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="17" name="椭圆 16"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6433029" y="7962900"/>
+            <a:ext cx="389951" cy="312848"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="18" name="文本框 17"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6451242" y="7907966"/>
+            <a:ext cx="295203" cy="332910"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>5</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2008,20 +2856,20 @@
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A2" s="52"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="54"/>
+      <c r="A2" s="62"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="64"/>
       <c r="H2" s="7" t="s">
         <v>15</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="53" t="s">
+      <c r="J2" s="63" t="s">
         <v>17</v>
       </c>
       <c r="K2" s="9" t="s">
@@ -2041,20 +2889,20 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A3" s="52"/>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="54"/>
+      <c r="A3" s="62"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="64"/>
       <c r="H3" s="7" t="s">
         <v>23</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="53"/>
+      <c r="J3" s="63"/>
       <c r="K3" s="9" t="s">
         <v>25</v>
       </c>
@@ -2075,20 +2923,20 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A4" s="52"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="54"/>
+      <c r="A4" s="62"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="64"/>
       <c r="H4" s="7" t="s">
         <v>31</v>
       </c>
       <c r="I4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="53"/>
+      <c r="J4" s="63"/>
       <c r="K4" s="9" t="s">
         <v>33</v>
       </c>
@@ -2109,20 +2957,20 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A5" s="52"/>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="53" t="s">
+      <c r="A5" s="62"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="I5" s="55" t="s">
+      <c r="I5" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="J5" s="53"/>
+      <c r="J5" s="63"/>
       <c r="K5" s="9" t="s">
         <v>39</v>
       </c>
@@ -2140,16 +2988,16 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A6" s="52"/>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="53"/>
+      <c r="A6" s="62"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="63"/>
       <c r="K6" s="9" t="s">
         <v>43</v>
       </c>
@@ -2167,16 +3015,16 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A7" s="52"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="53"/>
+      <c r="A7" s="62"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="63"/>
       <c r="K7" s="9" t="s">
         <v>47</v>
       </c>
@@ -2194,16 +3042,16 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A8" s="52"/>
-      <c r="B8" s="53"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="54"/>
+      <c r="A8" s="62"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="64"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
-      <c r="J8" s="53"/>
+      <c r="J8" s="63"/>
       <c r="K8" s="9" t="s">
         <v>51</v>
       </c>
@@ -2221,20 +3069,20 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A9" s="52"/>
-      <c r="B9" s="53"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="53" t="s">
+      <c r="A9" s="62"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="I9" s="55" t="s">
+      <c r="I9" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="J9" s="53"/>
+      <c r="J9" s="63"/>
       <c r="K9" s="9" t="s">
         <v>57</v>
       </c>
@@ -2252,16 +3100,16 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A10" s="52"/>
-      <c r="B10" s="53"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="53"/>
+      <c r="A10" s="62"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="63"/>
       <c r="K10" s="9" t="s">
         <v>60</v>
       </c>
@@ -2279,16 +3127,16 @@
       </c>
     </row>
     <row r="11" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="52"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="54"/>
+      <c r="A11" s="62"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="64"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
-      <c r="J11" s="53"/>
+      <c r="J11" s="63"/>
       <c r="K11" s="9" t="s">
         <v>64</v>
       </c>
@@ -2306,16 +3154,16 @@
       </c>
     </row>
     <row r="12" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="52"/>
-      <c r="B12" s="53"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="54"/>
+      <c r="A12" s="62"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="64"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
-      <c r="J12" s="53"/>
+      <c r="J12" s="63"/>
       <c r="K12" s="12" t="s">
         <v>68</v>
       </c>
@@ -2333,13 +3181,13 @@
       </c>
     </row>
     <row r="13" spans="1:17" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="52"/>
-      <c r="B13" s="53"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="54"/>
+      <c r="A13" s="62"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="64"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
@@ -2391,13 +3239,13 @@
     </row>
     <row r="19" spans="1:16" s="21" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="20" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="52"/>
-      <c r="B20" s="53"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="56" t="s">
+      <c r="A20" s="62"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="66" t="s">
         <v>80</v>
       </c>
       <c r="H20" s="7" t="s">
@@ -2406,7 +3254,7 @@
       <c r="I20" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J20" s="53" t="s">
+      <c r="J20" s="63" t="s">
         <v>17</v>
       </c>
       <c r="K20" s="9" t="s">
@@ -2426,20 +3274,20 @@
       </c>
     </row>
     <row r="21" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="52"/>
-      <c r="B21" s="53"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="56"/>
+      <c r="A21" s="62"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="66"/>
       <c r="H21" s="7" t="s">
         <v>23</v>
       </c>
       <c r="I21" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J21" s="53"/>
+      <c r="J21" s="63"/>
       <c r="K21" s="9" t="s">
         <v>25</v>
       </c>
@@ -2460,20 +3308,20 @@
       </c>
     </row>
     <row r="22" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="52"/>
-      <c r="B22" s="53"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="56"/>
+      <c r="A22" s="62"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="66"/>
       <c r="H22" s="7" t="s">
         <v>31</v>
       </c>
       <c r="I22" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="J22" s="53"/>
+      <c r="J22" s="63"/>
       <c r="K22" s="9" t="s">
         <v>33</v>
       </c>
@@ -2494,20 +3342,20 @@
       </c>
     </row>
     <row r="23" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="52"/>
-      <c r="B23" s="53"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="53" t="s">
+      <c r="A23" s="62"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="I23" s="55" t="s">
+      <c r="I23" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="J23" s="53"/>
+      <c r="J23" s="63"/>
       <c r="K23" s="9" t="s">
         <v>39</v>
       </c>
@@ -2525,16 +3373,16 @@
       </c>
     </row>
     <row r="24" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="52"/>
-      <c r="B24" s="53"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="55"/>
-      <c r="J24" s="53"/>
+      <c r="A24" s="62"/>
+      <c r="B24" s="63"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="63"/>
       <c r="K24" s="9" t="s">
         <v>43</v>
       </c>
@@ -2552,16 +3400,16 @@
       </c>
     </row>
     <row r="25" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="52"/>
-      <c r="B25" s="53"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="56"/>
-      <c r="H25" s="53"/>
-      <c r="I25" s="55"/>
-      <c r="J25" s="53"/>
+      <c r="A25" s="62"/>
+      <c r="B25" s="63"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="65"/>
+      <c r="J25" s="63"/>
       <c r="K25" s="9" t="s">
         <v>47</v>
       </c>
@@ -2579,16 +3427,16 @@
       </c>
     </row>
     <row r="26" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="52"/>
-      <c r="B26" s="53"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="56"/>
+      <c r="A26" s="62"/>
+      <c r="B26" s="63"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="66"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
-      <c r="J26" s="53"/>
+      <c r="J26" s="63"/>
       <c r="K26" s="9" t="s">
         <v>51</v>
       </c>
@@ -2606,20 +3454,20 @@
       </c>
     </row>
     <row r="27" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="52"/>
-      <c r="B27" s="53"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="52"/>
-      <c r="G27" s="56"/>
-      <c r="H27" s="53" t="s">
+      <c r="A27" s="62"/>
+      <c r="B27" s="63"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="66"/>
+      <c r="H27" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="I27" s="55" t="s">
+      <c r="I27" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="J27" s="53"/>
+      <c r="J27" s="63"/>
       <c r="K27" s="9" t="s">
         <v>57</v>
       </c>
@@ -2637,16 +3485,16 @@
       </c>
     </row>
     <row r="28" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="52"/>
-      <c r="B28" s="53"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="56"/>
-      <c r="H28" s="53"/>
-      <c r="I28" s="55"/>
-      <c r="J28" s="53"/>
+      <c r="A28" s="62"/>
+      <c r="B28" s="63"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="66"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="65"/>
+      <c r="J28" s="63"/>
       <c r="K28" s="9" t="s">
         <v>60</v>
       </c>
@@ -2664,16 +3512,16 @@
       </c>
     </row>
     <row r="29" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="52"/>
-      <c r="B29" s="53"/>
-      <c r="C29" s="53"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="52"/>
-      <c r="G29" s="56"/>
+      <c r="A29" s="62"/>
+      <c r="B29" s="63"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="66"/>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
-      <c r="J29" s="53"/>
+      <c r="J29" s="63"/>
       <c r="K29" s="9" t="s">
         <v>64</v>
       </c>
@@ -2691,16 +3539,16 @@
       </c>
     </row>
     <row r="30" spans="1:16" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="52"/>
-      <c r="B30" s="53"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="53"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="52"/>
-      <c r="G30" s="56"/>
+      <c r="A30" s="62"/>
+      <c r="B30" s="63"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="62"/>
+      <c r="G30" s="66"/>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
-      <c r="J30" s="53"/>
+      <c r="J30" s="63"/>
       <c r="K30" s="22" t="s">
         <v>83</v>
       </c>
@@ -2721,13 +3569,13 @@
       </c>
     </row>
     <row r="31" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="52"/>
-      <c r="B31" s="53"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="53"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="52"/>
-      <c r="G31" s="56"/>
+      <c r="A31" s="62"/>
+      <c r="B31" s="63"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="66"/>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
       <c r="J31" s="7" t="s">
@@ -2801,6 +3649,301 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="0" tint="-0.34998626667073579"/>
+  </sheetPr>
+  <dimension ref="A1:N15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="34" customWidth="1"/>
+    <col min="2" max="2" width="9" style="34"/>
+    <col min="3" max="3" width="22.375" style="34" customWidth="1"/>
+    <col min="4" max="4" width="31.125" style="34" customWidth="1"/>
+    <col min="5" max="5" width="37.25" style="34" customWidth="1"/>
+    <col min="6" max="6" width="12.875" style="34" customWidth="1"/>
+    <col min="7" max="7" width="15.375" style="34" customWidth="1"/>
+    <col min="8" max="8" width="56.875" style="34" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.25" style="34" customWidth="1"/>
+    <col min="10" max="10" width="29.875" style="34" customWidth="1"/>
+    <col min="11" max="11" width="27.875" style="34" customWidth="1"/>
+    <col min="12" max="12" width="9" style="34"/>
+    <col min="13" max="13" width="25" style="34" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="34"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="K1" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="26"/>
+    </row>
+    <row r="2" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="67" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="68" t="s">
+        <v>123</v>
+      </c>
+      <c r="G2" s="38"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+    </row>
+    <row r="3" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="67"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="68"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+    </row>
+    <row r="4" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="67"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="11"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+    </row>
+    <row r="5" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="43"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+    </row>
+    <row r="6" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="43"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+    </row>
+    <row r="7" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="43"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+    </row>
+    <row r="8" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="43"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+    </row>
+    <row r="9" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="43"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+    </row>
+    <row r="10" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="43"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+    </row>
+    <row r="11" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="43"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+    </row>
+    <row r="12" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="43"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="31"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+    </row>
+    <row r="13" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A13" s="43"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="31"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="15"/>
+    </row>
+    <row r="14" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="D14" s="36"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="41"/>
+    </row>
+    <row r="15" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="D15" s="36"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="62"/>
+      <c r="H15" s="42"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F14:F15"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N28"/>
@@ -2868,18 +4011,18 @@
       <c r="N1" s="26"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="67" t="s">
         <v>101</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
       <c r="D2" s="30" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="55" t="s">
+      <c r="F2" s="65" t="s">
         <v>17</v>
       </c>
       <c r="G2" s="50" t="s">
@@ -2898,16 +4041,16 @@
       <c r="N2" s="11"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A3" s="57"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
+      <c r="A3" s="67"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
       <c r="D3" s="30" t="s">
         <v>23</v>
       </c>
       <c r="E3" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="55"/>
+      <c r="F3" s="65"/>
       <c r="G3" s="50" t="s">
         <v>25</v>
       </c>
@@ -2926,16 +4069,16 @@
       <c r="N3" s="11"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A4" s="57"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
+      <c r="A4" s="67"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
       <c r="D4" s="30" t="s">
         <v>31</v>
       </c>
       <c r="E4" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="55"/>
+      <c r="F4" s="65"/>
       <c r="G4" s="50" t="s">
         <v>109</v>
       </c>
@@ -2961,7 +4104,7 @@
       <c r="C5" s="11"/>
       <c r="D5" s="47"/>
       <c r="E5" s="31"/>
-      <c r="F5" s="55"/>
+      <c r="F5" s="65"/>
       <c r="G5" s="50" t="s">
         <v>39</v>
       </c>
@@ -2985,7 +4128,7 @@
       <c r="C6" s="11"/>
       <c r="D6" s="47"/>
       <c r="E6" s="31"/>
-      <c r="F6" s="55"/>
+      <c r="F6" s="65"/>
       <c r="G6" s="50" t="s">
         <v>43</v>
       </c>
@@ -3009,7 +4152,7 @@
       <c r="C7" s="11"/>
       <c r="D7" s="47"/>
       <c r="E7" s="31"/>
-      <c r="F7" s="55"/>
+      <c r="F7" s="65"/>
       <c r="G7" s="50" t="s">
         <v>47</v>
       </c>
@@ -3031,7 +4174,7 @@
       <c r="C8" s="11"/>
       <c r="D8" s="47"/>
       <c r="E8" s="31"/>
-      <c r="F8" s="55"/>
+      <c r="F8" s="65"/>
       <c r="G8" s="50" t="s">
         <v>51</v>
       </c>
@@ -3053,7 +4196,7 @@
       <c r="C9" s="11"/>
       <c r="D9" s="47"/>
       <c r="E9" s="31"/>
-      <c r="F9" s="55"/>
+      <c r="F9" s="65"/>
       <c r="G9" s="50" t="s">
         <v>57</v>
       </c>
@@ -3077,7 +4220,7 @@
       <c r="C10" s="11"/>
       <c r="D10" s="47"/>
       <c r="E10" s="31"/>
-      <c r="F10" s="55"/>
+      <c r="F10" s="65"/>
       <c r="G10" s="50" t="s">
         <v>60</v>
       </c>
@@ -3101,7 +4244,7 @@
       <c r="C11" s="11"/>
       <c r="D11" s="39"/>
       <c r="E11" s="31"/>
-      <c r="F11" s="55"/>
+      <c r="F11" s="65"/>
       <c r="G11" s="50" t="s">
         <v>64</v>
       </c>
@@ -3125,7 +4268,7 @@
       <c r="C12" s="11"/>
       <c r="D12" s="39"/>
       <c r="E12" s="31"/>
-      <c r="F12" s="58" t="s">
+      <c r="F12" s="68" t="s">
         <v>72</v>
       </c>
       <c r="G12" s="51" t="s">
@@ -3151,7 +4294,7 @@
       <c r="C13" s="11"/>
       <c r="D13" s="39"/>
       <c r="E13" s="31"/>
-      <c r="F13" s="58"/>
+      <c r="F13" s="68"/>
       <c r="G13" s="38"/>
       <c r="H13" s="33"/>
       <c r="I13" s="15"/>
@@ -3159,14 +4302,14 @@
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="D14" s="39"/>
       <c r="E14" s="31"/>
-      <c r="F14" s="52"/>
+      <c r="F14" s="62"/>
       <c r="G14" s="40"/>
       <c r="H14" s="41"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="D15" s="39"/>
       <c r="E15" s="31"/>
-      <c r="F15" s="52"/>
+      <c r="F15" s="62"/>
       <c r="H15" s="42"/>
     </row>
     <row r="20" spans="9:13" x14ac:dyDescent="0.15">
@@ -3205,7 +4348,7 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3257,18 +4400,18 @@
       <c r="N1" s="26"/>
     </row>
     <row r="2" spans="1:14" s="34" customFormat="1" ht="30" x14ac:dyDescent="0.15">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="67" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
       <c r="D2" s="30" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="F2" s="58" t="s">
+      <c r="F2" s="68" t="s">
         <v>72</v>
       </c>
       <c r="G2" s="38" t="s">
@@ -3289,16 +4432,16 @@
       <c r="N2" s="11"/>
     </row>
     <row r="3" spans="1:14" s="34" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="57"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
+      <c r="A3" s="67"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
       <c r="D3" s="30" t="s">
         <v>23</v>
       </c>
       <c r="E3" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="58"/>
+      <c r="F3" s="68"/>
       <c r="G3" s="38"/>
       <c r="H3" s="33"/>
       <c r="I3" s="11"/>
@@ -3309,9 +4452,9 @@
       <c r="N3" s="11"/>
     </row>
     <row r="4" spans="1:14" s="34" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="57"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
+      <c r="A4" s="67"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
       <c r="D4" s="30" t="s">
         <v>31</v>
       </c>
@@ -3504,18 +4647,18 @@
       <c r="N1" s="26"/>
     </row>
     <row r="2" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="67" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
       <c r="D2" s="30" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="58" t="s">
+      <c r="F2" s="68" t="s">
         <v>72</v>
       </c>
       <c r="G2" s="38" t="s">
@@ -3536,16 +4679,16 @@
       <c r="N2" s="11"/>
     </row>
     <row r="3" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="57"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
+      <c r="A3" s="67"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
       <c r="D3" s="30" t="s">
         <v>23</v>
       </c>
       <c r="E3" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="58"/>
+      <c r="F3" s="68"/>
       <c r="G3" s="38" t="s">
         <v>72</v>
       </c>
@@ -3562,9 +4705,9 @@
       <c r="N3" s="11"/>
     </row>
     <row r="4" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="57"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
+      <c r="A4" s="67"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
       <c r="D4" s="30" t="s">
         <v>31</v>
       </c>
@@ -3718,14 +4861,14 @@
     <row r="14" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
       <c r="D14" s="36"/>
       <c r="E14" s="31"/>
-      <c r="F14" s="52"/>
+      <c r="F14" s="62"/>
       <c r="G14" s="40"/>
       <c r="H14" s="41"/>
     </row>
     <row r="15" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
       <c r="D15" s="36"/>
       <c r="E15" s="31"/>
-      <c r="F15" s="52"/>
+      <c r="F15" s="62"/>
       <c r="H15" s="42"/>
     </row>
   </sheetData>
@@ -3809,18 +4952,18 @@
       <c r="N1" s="26"/>
     </row>
     <row r="2" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="67" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
       <c r="D2" s="30" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="58" t="s">
+      <c r="F2" s="68" t="s">
         <v>72</v>
       </c>
       <c r="G2" s="38" t="s">
@@ -3841,16 +4984,16 @@
       <c r="N2" s="11"/>
     </row>
     <row r="3" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="57"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
+      <c r="A3" s="67"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
       <c r="D3" s="30" t="s">
         <v>23</v>
       </c>
       <c r="E3" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="58"/>
+      <c r="F3" s="68"/>
       <c r="G3" s="38" t="s">
         <v>72</v>
       </c>
@@ -3867,9 +5010,9 @@
       <c r="N3" s="11"/>
     </row>
     <row r="4" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="57"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
+      <c r="A4" s="67"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
       <c r="D4" s="30" t="s">
         <v>31</v>
       </c>
@@ -3892,7 +5035,7 @@
       <c r="C5" s="11"/>
       <c r="D5" s="35"/>
       <c r="E5" s="31"/>
-      <c r="F5" s="58" t="s">
+      <c r="F5" s="68" t="s">
         <v>108</v>
       </c>
       <c r="G5" s="32"/>
@@ -3910,7 +5053,7 @@
       <c r="C6" s="11"/>
       <c r="D6" s="35"/>
       <c r="E6" s="31"/>
-      <c r="F6" s="58"/>
+      <c r="F6" s="68"/>
       <c r="G6" s="32"/>
       <c r="H6" s="33"/>
       <c r="I6" s="11"/>
@@ -4026,14 +5169,14 @@
     <row r="14" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
       <c r="D14" s="36"/>
       <c r="E14" s="31"/>
-      <c r="F14" s="52"/>
+      <c r="F14" s="62"/>
       <c r="G14" s="40"/>
       <c r="H14" s="41"/>
     </row>
     <row r="15" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
       <c r="D15" s="36"/>
       <c r="E15" s="31"/>
-      <c r="F15" s="52"/>
+      <c r="F15" s="62"/>
       <c r="H15" s="42"/>
     </row>
   </sheetData>
@@ -4055,8 +5198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16:M20"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4118,18 +5261,18 @@
       <c r="N1" s="26"/>
     </row>
     <row r="2" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="67" t="s">
         <v>103</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
       <c r="D2" s="30" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="58" t="s">
+      <c r="F2" s="68" t="s">
         <v>122</v>
       </c>
       <c r="G2" s="38" t="s">
@@ -4150,16 +5293,16 @@
       <c r="N2" s="11"/>
     </row>
     <row r="3" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="57"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
+      <c r="A3" s="67"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
       <c r="D3" s="30" t="s">
         <v>23</v>
       </c>
       <c r="E3" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="58"/>
+      <c r="F3" s="68"/>
       <c r="G3" s="38" t="s">
         <v>72</v>
       </c>
@@ -4176,9 +5319,9 @@
       <c r="N3" s="11"/>
     </row>
     <row r="4" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="57"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
+      <c r="A4" s="67"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
       <c r="D4" s="30" t="s">
         <v>31</v>
       </c>
@@ -4333,14 +5476,14 @@
     <row r="14" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
       <c r="D14" s="36"/>
       <c r="E14" s="31"/>
-      <c r="F14" s="52"/>
+      <c r="F14" s="62"/>
       <c r="G14" s="40"/>
       <c r="H14" s="41"/>
     </row>
     <row r="15" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
       <c r="D15" s="36"/>
       <c r="E15" s="31"/>
-      <c r="F15" s="52"/>
+      <c r="F15" s="62"/>
       <c r="H15" s="42"/>
     </row>
   </sheetData>
@@ -4424,18 +5567,18 @@
       <c r="N1" s="26"/>
     </row>
     <row r="2" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="67" t="s">
         <v>99</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
       <c r="D2" s="30" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="58" t="s">
+      <c r="F2" s="68" t="s">
         <v>120</v>
       </c>
       <c r="G2" s="38"/>
@@ -4448,16 +5591,16 @@
       <c r="N2" s="11"/>
     </row>
     <row r="3" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="57"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
+      <c r="A3" s="67"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
       <c r="D3" s="30" t="s">
         <v>23</v>
       </c>
       <c r="E3" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="58"/>
+      <c r="F3" s="68"/>
       <c r="G3" s="38"/>
       <c r="H3" s="33"/>
       <c r="I3" s="11"/>
@@ -4468,9 +5611,9 @@
       <c r="N3" s="11"/>
     </row>
     <row r="4" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="57"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
+      <c r="A4" s="67"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
       <c r="D4" s="30" t="s">
         <v>31</v>
       </c>
@@ -4625,14 +5768,14 @@
     <row r="14" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
       <c r="D14" s="36"/>
       <c r="E14" s="31"/>
-      <c r="F14" s="52"/>
+      <c r="F14" s="62"/>
       <c r="G14" s="40"/>
       <c r="H14" s="41"/>
     </row>
     <row r="15" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
       <c r="D15" s="36"/>
       <c r="E15" s="31"/>
-      <c r="F15" s="52"/>
+      <c r="F15" s="62"/>
       <c r="H15" s="42"/>
     </row>
   </sheetData>
@@ -4716,18 +5859,18 @@
       <c r="N1" s="26"/>
     </row>
     <row r="2" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="67" t="s">
         <v>100</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
       <c r="D2" s="30" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="58" t="s">
+      <c r="F2" s="68" t="s">
         <v>121</v>
       </c>
       <c r="G2" s="38"/>
@@ -4740,16 +5883,16 @@
       <c r="N2" s="11"/>
     </row>
     <row r="3" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="57"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
+      <c r="A3" s="67"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
       <c r="D3" s="30" t="s">
         <v>23</v>
       </c>
       <c r="E3" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="58"/>
+      <c r="F3" s="68"/>
       <c r="G3" s="38"/>
       <c r="H3" s="33"/>
       <c r="I3" s="11"/>
@@ -4760,9 +5903,9 @@
       <c r="N3" s="11"/>
     </row>
     <row r="4" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="57"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
+      <c r="A4" s="67"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
       <c r="D4" s="30" t="s">
         <v>31</v>
       </c>
@@ -4917,14 +6060,14 @@
     <row r="14" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
       <c r="D14" s="36"/>
       <c r="E14" s="31"/>
-      <c r="F14" s="52"/>
+      <c r="F14" s="62"/>
       <c r="G14" s="40"/>
       <c r="H14" s="41"/>
     </row>
     <row r="15" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
       <c r="D15" s="36"/>
       <c r="E15" s="31"/>
-      <c r="F15" s="52"/>
+      <c r="F15" s="62"/>
       <c r="H15" s="42"/>
     </row>
   </sheetData>
@@ -4943,289 +6086,352 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="34" customWidth="1"/>
-    <col min="2" max="2" width="9" style="34"/>
-    <col min="3" max="3" width="22.375" style="34" customWidth="1"/>
-    <col min="4" max="4" width="31.125" style="34" customWidth="1"/>
-    <col min="5" max="5" width="37.25" style="34" customWidth="1"/>
-    <col min="6" max="6" width="12.875" style="34" customWidth="1"/>
-    <col min="7" max="7" width="15.375" style="34" customWidth="1"/>
-    <col min="8" max="8" width="56.875" style="34" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.25" style="34" customWidth="1"/>
-    <col min="10" max="10" width="29.875" style="34" customWidth="1"/>
-    <col min="11" max="11" width="27.875" style="34" customWidth="1"/>
-    <col min="12" max="12" width="9" style="34"/>
-    <col min="13" max="13" width="25" style="34" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="34"/>
+    <col min="1" max="1" width="22.125" style="53" customWidth="1"/>
+    <col min="2" max="2" width="27.125" style="53" customWidth="1"/>
+    <col min="3" max="3" width="15.75" style="53" customWidth="1"/>
+    <col min="4" max="4" width="29.375" style="53" customWidth="1"/>
+    <col min="5" max="5" width="13.875" style="53" customWidth="1"/>
+    <col min="6" max="6" width="11.625" style="53" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="70.375" style="53" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.125" style="53" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="53"/>
+    <col min="10" max="10" width="14.125" style="53" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="C1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28" t="s">
-        <v>8</v>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>126</v>
       </c>
       <c r="G1" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="27" t="s">
         <v>10</v>
       </c>
+      <c r="H1" s="26" t="s">
+        <v>11</v>
+      </c>
       <c r="I1" s="26" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="J1" s="26" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="K1" s="26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L1" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="26"/>
-    </row>
-    <row r="2" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="57" t="s">
-        <v>103</v>
-      </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="30" t="s">
+    </row>
+    <row r="2" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="71" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" s="72"/>
+      <c r="C2" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="D2" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="58" t="s">
-        <v>123</v>
-      </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-    </row>
-    <row r="3" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="57"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="30" t="s">
+      <c r="E2" s="55" t="s">
+        <v>138</v>
+      </c>
+      <c r="F2" s="56" t="s">
+        <v>152</v>
+      </c>
+      <c r="G2" s="44" t="s">
+        <v>139</v>
+      </c>
+      <c r="H2" s="61"/>
+      <c r="J2" s="44" t="s">
+        <v>147</v>
+      </c>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+    </row>
+    <row r="3" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="71"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="31" t="s">
+      <c r="D3" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="58"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-    </row>
-    <row r="4" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="57"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="30" t="s">
+      <c r="E3" s="55" t="s">
+        <v>140</v>
+      </c>
+      <c r="F3" s="56" t="s">
+        <v>141</v>
+      </c>
+      <c r="G3" s="44" t="s">
+        <v>151</v>
+      </c>
+      <c r="H3" s="61"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="44" t="s">
+        <v>148</v>
+      </c>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+    </row>
+    <row r="4" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="71"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="D4" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-    </row>
-    <row r="5" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="43"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-    </row>
-    <row r="6" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="43"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-    </row>
-    <row r="7" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="43"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-    </row>
-    <row r="8" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="43"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-    </row>
-    <row r="9" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="43"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-    </row>
-    <row r="10" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="43"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-    </row>
-    <row r="11" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="43"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-    </row>
-    <row r="12" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="43"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="31"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-    </row>
-    <row r="13" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="43"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="31"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="15"/>
-    </row>
-    <row r="14" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="D14" s="36"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="41"/>
-    </row>
-    <row r="15" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="D15" s="36"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="52"/>
-      <c r="H15" s="42"/>
+      <c r="E4" s="55" t="s">
+        <v>142</v>
+      </c>
+      <c r="F4" s="56" t="s">
+        <v>143</v>
+      </c>
+      <c r="G4" s="44" t="s">
+        <v>144</v>
+      </c>
+      <c r="H4" s="61"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="44" t="s">
+        <v>149</v>
+      </c>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+    </row>
+    <row r="5" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="72"/>
+      <c r="C5" s="69" t="s">
+        <v>127</v>
+      </c>
+      <c r="D5" s="70" t="s">
+        <v>133</v>
+      </c>
+      <c r="E5" s="55" t="s">
+        <v>145</v>
+      </c>
+      <c r="F5" s="56" t="s">
+        <v>153</v>
+      </c>
+      <c r="G5" s="44" t="s">
+        <v>146</v>
+      </c>
+      <c r="H5" s="61"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="44" t="s">
+        <v>150</v>
+      </c>
+      <c r="K5" s="57"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="57"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B6" s="72"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B7" s="72"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="57"/>
+    </row>
+    <row r="8" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="72"/>
+      <c r="C8" s="69" t="s">
+        <v>128</v>
+      </c>
+      <c r="D8" s="70" t="s">
+        <v>134</v>
+      </c>
+      <c r="E8" s="57"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B9" s="72"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="57"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B10" s="72"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="57"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B11" s="72"/>
+      <c r="C11" s="69" t="s">
+        <v>129</v>
+      </c>
+      <c r="D11" s="70" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B12" s="72"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="70"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B13" s="72"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="70"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B14" s="72"/>
+      <c r="C14" s="69" t="s">
+        <v>130</v>
+      </c>
+      <c r="D14" s="70" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A15" s="56"/>
+      <c r="B15" s="72"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="70"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B16" s="72"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="70"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B17" s="60"/>
+      <c r="C17" s="69" t="s">
+        <v>131</v>
+      </c>
+      <c r="D17" s="70" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B18" s="60"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="70"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B19" s="60"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="70"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B20" s="60"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="70"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B21" s="60"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="70"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B22" s="60"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="70"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B23" s="60"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B24" s="60"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B25" s="60"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B26" s="60"/>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B27" s="60"/>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B28" s="60"/>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B29" s="60"/>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B30" s="60"/>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B31" s="60"/>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B32" s="60"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B33" s="60"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B34" s="60"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B35" s="60"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B36" s="60"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B37" s="60"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="14">
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="D20:D22"/>
     <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="B2:B16"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/gd/副本内容设计/第五、六章美术需求.xlsx
+++ b/gd/副本内容设计/第五、六章美术需求.xlsx
@@ -9,21 +9,37 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24075" windowHeight="12450" firstSheet="4" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24075" windowHeight="12450" firstSheet="11" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="规范" sheetId="1" r:id="rId1"/>
     <sheet name="xgWeitianshi5——新增（换色）" sheetId="6" r:id="rId2"/>
     <sheet name="xgBingyan3——补充大招" sheetId="9" r:id="rId3"/>
     <sheet name="xgMengyan5——补充大招" sheetId="3" r:id="rId4"/>
-    <sheet name="xgDatiangou3——补充大招" sheetId="2" r:id="rId5"/>
-    <sheet name="xgChange5——换色" sheetId="7" r:id="rId6"/>
-    <sheet name="xgIfrit5——换色" sheetId="4" r:id="rId7"/>
-    <sheet name="xgDujiaoshou5——换色" sheetId="5" r:id="rId8"/>
-    <sheet name="bosschaoxue58Yimier4——新增" sheetId="10" r:id="rId9"/>
-    <sheet name="xgHapi5——换色" sheetId="8" r:id="rId10"/>
+    <sheet name="xgChange5——换色" sheetId="7" r:id="rId5"/>
+    <sheet name="xgIfrit5——换色" sheetId="4" r:id="rId6"/>
+    <sheet name="xgDujiaoshou5——换色" sheetId="5" r:id="rId7"/>
+    <sheet name="bosschaoxue51Langren5" sheetId="11" r:id="rId8"/>
+    <sheet name="bosschaoxue52Mengyan5" sheetId="12" r:id="rId9"/>
+    <sheet name="bosschaoxue53Xiaochou3" sheetId="13" r:id="rId10"/>
+    <sheet name="bosschaoxue54Bingyan3" sheetId="15" r:id="rId11"/>
+    <sheet name="bosschaoxue55Sheshou3" sheetId="16" r:id="rId12"/>
+    <sheet name="bosschaoxue56Huoniao3" sheetId="17" r:id="rId13"/>
+    <sheet name="bosschaoxue57Wendige3" sheetId="18" r:id="rId14"/>
+    <sheet name="bosschaoxue58Yimier4——新增" sheetId="10" r:id="rId15"/>
+    <sheet name="bossminghe61Dujiaoshou5" sheetId="19" r:id="rId16"/>
+    <sheet name="bossminghe62Anpusha5" sheetId="20" r:id="rId17"/>
+    <sheet name="bossminghe63Ifrit5" sheetId="21" r:id="rId18"/>
+    <sheet name="bossminghe64Nvyao5" sheetId="22" r:id="rId19"/>
+    <sheet name="bossminghe65Weitianshi5" sheetId="23" r:id="rId20"/>
+    <sheet name="bossminghe66Saibulesi5" sheetId="24" r:id="rId21"/>
+    <sheet name="bossminghe67Change5" sheetId="25" r:id="rId22"/>
+    <sheet name="bossminghe68Karong5" sheetId="26" r:id="rId23"/>
+    <sheet name="xgHapi5——换色" sheetId="8" r:id="rId24"/>
+    <sheet name="xgDatiangou3——补充大招" sheetId="2" r:id="rId25"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="246">
   <si>
     <t>id</t>
   </si>
@@ -1000,12 +1016,380 @@
     <t>吐息</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>bosschaoxue51Langren5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱点1（挂接点）+mesh</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>身体，挂接点名：wp_body，mesh名称：mesh_body</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱点2（挂接点）+mesh</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>左护腕，挂接点名：wp_lcuff，mesh名称：mesh_lcuff</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱点3（挂接点）+mesh</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>右护腕，挂接点名：wp_rcuff，mesh名称：mesh_rcuff</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>bosschaoxue52Mengyan5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱点1（挂接点）+mesh</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱点2（挂接点）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵魂之源，挂接点名：wp_soul</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>大招</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dazhaoxuanyao</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dazhao</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未找到</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不是很像物理点点点大招炫耀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bosschaoxue53Xiaochou3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱点1（挂接点）+mesh</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器，挂接点名：wp_weapon，mesh名称：mesh_weapon</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱点2（挂接点）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱点3（挂接点）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>bosschaoxue54Bingyan3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱点4（挂接点）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱点5（挂接点）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱点6（挂接点）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱点7（挂接点）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>头，挂接点名：wp_head1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>右臂，挂接点名：wp_rleg1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>左臂，挂接点名：wp_lleg1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>头，挂接点名：wp_head2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>右臂，挂接点名：wp_rleg2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>左臂，挂接点名：wp_lleg2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossbianxing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>变形</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>表示怪物在切换状态时，重塑身体</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss技能4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bosschaoxue55Sheshou3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bosschaoxue56Huoniao3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱点1（挂接点）+mesh</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>右羽毛，挂接点名：wp_rfeather，mesh名称：mesh_rfeather</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中羽毛，挂接点名：wp_mfeather，mesh名称：mesh_mfeather</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>左羽毛，挂接点名：wp_lfeather，mesh名称：mesh_lfeather</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bosschaoxue57Wendige3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>右角，挂接点名：wp_rhorn，mesh名称：mesh_rhorn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱点4（挂接点）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>左角，挂接点名：wp_lhorn，mesh名称：mesh_lhorn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>心脏，挂接点名：wp_heart</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossminghe61Dujiaoshou5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱点4（挂接点）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>角，挂接点名：wp_horn，mesh名称：mesh_horn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossminghe62Anpusha5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>心，挂接点名：wp_heart，mesh名称：mesh_heart</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossminghe63Ifrit5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器，挂接点名：wp_stone，mesh名称：mesh_stone</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>右裤脚，挂接点名：wp_rleg，mesh名称：mesh_rleg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>左裤脚，挂接点名：wp_lleg，mesh名称：mesh_lleg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossminghe64Nvyao5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>面具，挂接点名：wp_mask，mesh名称：mesh_mask</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱点3（挂接点）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>头，挂接点名：wp_head</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱点5（挂接点）+mesh</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>右魂器，挂接点名：wp_rhorcrux，mesh名称：mesh_rhorcrux</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>左魂器，挂接点名：wp_lhorcrux，mesh名称：mesh_lhorcrux</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossminghe65Weitianshi5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>光环，挂接点名：wp_aura，mesh名称：mesh_aura</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱点1（挂接点）+mesh</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>身体，挂接点名：wp_body，mesh名称：mesh_body</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱点2（挂接点）+mesh</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>中头，挂接点名：wp_mhead，mesh名称：mesh_mhead</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱点3（挂接点）+mesh</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>右头，挂接点名：wp_rhead，mesh名称：mesh_rhead</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱点4（挂接点）+mesh</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>左头，挂接点名：wp_lhead，mesh名称：mesh_lhead</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>兔子，挂接点名：wp_rabbit，mesh名称：mesh_rabbit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossminghe66Saibulesi5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossminghe68Karong5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱点1（挂接点）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>女孩，挂接点名：wp_girl，mesh名称：mesh_girl</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝石，挂接点名：wp_gem，mesh名称：mesh_gem</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱点4（挂接点）+mesh</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱点5（挂接点）+mesh</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>右爪，挂接点名：wp_rpaw，mesh名称：mesh_rpaw</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>左爪，挂接点名：wp_lpaw，mesh名称：mesh_lpaw</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>表现</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_shuijingqiusi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>改为和2_daiji一样，女孩不是倒下而是瘫坐在地上（用作状态机1,2之间的转换）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss技能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>愤怒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升自身XX%智力，持续999回合</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossfennu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossminghe67Change5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>吊坠，挂接点名：wp_pendant，mesh名称：mesh_pendant</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1114,6 +1498,13 @@
       <color theme="1"/>
       <name val="微软雅黑"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1245,15 +1636,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1441,6 +1835,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1471,9 +1877,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="2"/>
     <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1532,24 +1948,90 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2289</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>159038</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>27280</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>65951</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="文本框 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1069089" y="4026188"/>
+          <a:ext cx="24991" cy="326013"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000" b="1">
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>66676</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>171451</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>442830</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>142876</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3009421</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>56771</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPr id="12" name="图片 11"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1562,8 +2044,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="752476" y="361951"/>
-          <a:ext cx="1061954" cy="781050"/>
+          <a:off x="247650" y="1943100"/>
+          <a:ext cx="3828571" cy="3028571"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1575,67 +2057,90 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>495301</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>66676</xdr:rowOff>
+      <xdr:colOff>2289</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>159038</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1617381</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>27280</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>65951</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="图片 15"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="文本框 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1181101" y="257176"/>
-          <a:ext cx="1807880" cy="1447800"/>
+          <a:off x="1069089" y="4026188"/>
+          <a:ext cx="24991" cy="326013"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
       </xdr:spPr>
-    </xdr:pic>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000" b="1">
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>247650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1514475</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2895170</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>123364</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="图片 16"/>
+        <xdr:cNvPr id="4" name="图片 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1648,8 +2153,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1419225" y="171450"/>
-          <a:ext cx="1466850" cy="1466850"/>
+          <a:off x="523875" y="1771650"/>
+          <a:ext cx="3438095" cy="3685714"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1661,24 +2166,90 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2289</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>159038</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>27280</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>65951</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="文本框 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1069089" y="4026188"/>
+          <a:ext cx="24991" cy="326013"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000" b="1">
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>219076</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1666875</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>63397</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2428876</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>21432</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPr id="5" name="图片 4"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1691,8 +2262,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1428750" y="180975"/>
-          <a:ext cx="1609725" cy="1749322"/>
+          <a:off x="1285876" y="1609726"/>
+          <a:ext cx="2209800" cy="2278856"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1704,67 +2275,90 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>142876</xdr:rowOff>
+      <xdr:colOff>2289</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>159038</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>26476</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>85726</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>27280</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>65951</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="图片 14"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="文本框 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1085850" y="333376"/>
-          <a:ext cx="2017201" cy="1619250"/>
+          <a:off x="1069089" y="4026188"/>
+          <a:ext cx="24991" cy="326013"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
       </xdr:spPr>
-    </xdr:pic>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000" b="1">
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>400050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1533525</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>36459</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2809543</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>123495</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPr id="4" name="图片 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1777,8 +2371,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1600200" y="190500"/>
-          <a:ext cx="1304925" cy="1503309"/>
+          <a:off x="1219200" y="1352550"/>
+          <a:ext cx="2657143" cy="2638095"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1790,7 +2384,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2475,7 +3069,922 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2289</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>159038</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>27280</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>65951</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="文本框 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1069089" y="4026188"/>
+          <a:ext cx="24991" cy="326013"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000" b="1">
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2876202</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>18661</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1162050" y="1190625"/>
+          <a:ext cx="2780952" cy="3114286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2289</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>159038</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>27280</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>65951</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="文本框 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1069089" y="4026188"/>
+          <a:ext cx="24991" cy="326013"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000" b="1">
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>247650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>37664</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>66221</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="714375" y="1771650"/>
+          <a:ext cx="3485714" cy="3628571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2289</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>159038</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>27280</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>65951</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="文本框 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1011939" y="4026188"/>
+          <a:ext cx="24991" cy="326013"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000" b="1">
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>94721</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>28137</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28575" y="2200275"/>
+          <a:ext cx="4228571" cy="3504762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing18.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2289</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>159038</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>27280</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>65951</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="文本框 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1011939" y="4026188"/>
+          <a:ext cx="24991" cy="326013"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000" b="1">
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>381000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2704815</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>171164</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1438275" y="1333500"/>
+          <a:ext cx="2276190" cy="2285714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing19.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2289</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>159038</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>27280</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>65951</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="文本框 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1011939" y="4026188"/>
+          <a:ext cx="24991" cy="326013"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000" b="1">
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>28189</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>47001</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1104900" y="561975"/>
+          <a:ext cx="3085714" cy="4990476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>66676</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>442830</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="752476" y="361951"/>
+          <a:ext cx="1061954" cy="781050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing20.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2289</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>159038</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>27280</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>65951</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="文本框 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1011939" y="4026188"/>
+          <a:ext cx="24991" cy="326013"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000" b="1">
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2943225</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>145431</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1762125"/>
+          <a:ext cx="3952875" cy="3298206"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing21.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2289</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>159038</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>27280</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>65951</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="文本框 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1011939" y="4026188"/>
+          <a:ext cx="24991" cy="326013"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000" b="1">
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>504825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3057017</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>56601</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2028825"/>
+          <a:ext cx="4066667" cy="4390476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing22.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2289</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>159038</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>27280</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>65951</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="文本框 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1011939" y="4026188"/>
+          <a:ext cx="24991" cy="326013"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000" b="1">
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2809421</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1123950" y="1171575"/>
+          <a:ext cx="2695121" cy="3267075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing23.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2513,6 +4022,1018 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing24.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1514475</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="图片 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1419225" y="171450"/>
+          <a:ext cx="1466850" cy="1466850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>495301</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1617381</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="图片 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1181101" y="257176"/>
+          <a:ext cx="1807880" cy="1447800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1666875</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>63397</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1428750" y="180975"/>
+          <a:ext cx="1609725" cy="1749322"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>26476</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="图片 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1085850" y="333376"/>
+          <a:ext cx="2017201" cy="1619250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1533525</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>36459</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1600200" y="190500"/>
+          <a:ext cx="1304925" cy="1503309"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2289</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>159038</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>27280</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>65951</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="文本框 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="688089" y="4026188"/>
+          <a:ext cx="24991" cy="326013"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000" b="1">
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2695575</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>94540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="图片 24"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1247775" y="2295525"/>
+          <a:ext cx="2514600" cy="2294815"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2289</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>159038</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>27280</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>65951</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="文本框 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1069089" y="4026188"/>
+          <a:ext cx="24991" cy="326013"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000" b="1">
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2257425</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="4" name="组合 3"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="542925" y="1552575"/>
+          <a:ext cx="2781300" cy="2285999"/>
+          <a:chOff x="6324600" y="21008340"/>
+          <a:chExt cx="4008120" cy="3556211"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="5" name="图片 4"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6324600" y="21008340"/>
+            <a:ext cx="4008120" cy="3535680"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="6" name="Picture 3" descr="C:\Users\Administrator\Documents\Tencent Files\228659832\Image\C2C\46OMN6_AO`D1E5UALLKYBPO.jpg"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="7246620" y="21035010"/>
+            <a:ext cx="1984123" cy="3514725"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="椭圆 6"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7491137" y="22256115"/>
+            <a:ext cx="631627" cy="648872"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="22225">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent2"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" cap="none" spc="0">
+                <a:ln w="12700">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:prstDash val="solid"/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg2">
+                    <a:tint val="85000"/>
+                    <a:satMod val="155000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="41275" dist="20320" dir="1800000" algn="tl" rotWithShape="0">
+                    <a:srgbClr val="000000">
+                      <a:alpha val="40000"/>
+                    </a:srgbClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>1</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800" b="1" cap="none" spc="0">
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:tint val="85000"/>
+                  <a:satMod val="155000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="41275" dist="20320" dir="1800000" algn="tl" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="40000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="椭圆 7"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8163995" y="23920869"/>
+            <a:ext cx="521553" cy="643682"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="22225">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent2"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" cap="none" spc="0">
+                <a:ln w="12700">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:prstDash val="solid"/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg2">
+                    <a:tint val="85000"/>
+                    <a:satMod val="155000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="41275" dist="20320" dir="1800000" algn="tl" rotWithShape="0">
+                    <a:srgbClr val="000000">
+                      <a:alpha val="40000"/>
+                    </a:srgbClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>2</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800" b="1" cap="none" spc="0">
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:tint val="85000"/>
+                  <a:satMod val="155000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="41275" dist="20320" dir="1800000" algn="tl" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="40000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2289</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>159038</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>27280</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>65951</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="文本框 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1069089" y="4026188"/>
+          <a:ext cx="24991" cy="326013"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000" b="1">
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2781300</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="8" name="组合 7"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="266700" y="2209800"/>
+          <a:ext cx="3581400" cy="3228975"/>
+          <a:chOff x="857250" y="23307675"/>
+          <a:chExt cx="4324130" cy="3390476"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="9" name="图片 8"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="857250" y="23307675"/>
+            <a:ext cx="2133333" cy="3390476"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="10" name="图片 9"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3419475" y="23479125"/>
+            <a:ext cx="1761905" cy="2780952"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="11" name="组合 10"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="1543050" y="24850725"/>
+            <a:ext cx="381000" cy="390525"/>
+            <a:chOff x="7772400" y="6029325"/>
+            <a:chExt cx="381000" cy="390525"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="15" name="椭圆 14"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7772400" y="6038850"/>
+              <a:ext cx="381000" cy="381000"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="38100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="16" name="文本框 15"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7810500" y="6029325"/>
+              <a:ext cx="265510" cy="331033"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="1">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>1</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="12" name="组合 11"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="3995437" y="25567162"/>
+            <a:ext cx="384889" cy="405432"/>
+            <a:chOff x="7748287" y="7545862"/>
+            <a:chExt cx="384889" cy="405432"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="13" name="椭圆 12"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7748287" y="7547611"/>
+              <a:ext cx="381000" cy="381000"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="38100">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14" name="文本框 13"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7818538" y="7545862"/>
+              <a:ext cx="314638" cy="405432"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="1">
+                  <a:solidFill>
+                    <a:srgbClr val="00B0F0"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>2</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2856,20 +5377,20 @@
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A2" s="62"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="64"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="68"/>
       <c r="H2" s="7" t="s">
         <v>15</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="63" t="s">
+      <c r="J2" s="67" t="s">
         <v>17</v>
       </c>
       <c r="K2" s="9" t="s">
@@ -2889,20 +5410,20 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A3" s="62"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="64"/>
+      <c r="A3" s="66"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="68"/>
       <c r="H3" s="7" t="s">
         <v>23</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="63"/>
+      <c r="J3" s="67"/>
       <c r="K3" s="9" t="s">
         <v>25</v>
       </c>
@@ -2923,20 +5444,20 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A4" s="62"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="64"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="68"/>
       <c r="H4" s="7" t="s">
         <v>31</v>
       </c>
       <c r="I4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="63"/>
+      <c r="J4" s="67"/>
       <c r="K4" s="9" t="s">
         <v>33</v>
       </c>
@@ -2957,20 +5478,20 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A5" s="62"/>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="63" t="s">
+      <c r="A5" s="66"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="I5" s="65" t="s">
+      <c r="I5" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="J5" s="63"/>
+      <c r="J5" s="67"/>
       <c r="K5" s="9" t="s">
         <v>39</v>
       </c>
@@ -2988,16 +5509,16 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A6" s="62"/>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="65"/>
-      <c r="J6" s="63"/>
+      <c r="A6" s="66"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="67"/>
       <c r="K6" s="9" t="s">
         <v>43</v>
       </c>
@@ -3015,16 +5536,16 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A7" s="62"/>
-      <c r="B7" s="63"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="63"/>
+      <c r="A7" s="66"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="67"/>
       <c r="K7" s="9" t="s">
         <v>47</v>
       </c>
@@ -3042,16 +5563,16 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A8" s="62"/>
-      <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="64"/>
+      <c r="A8" s="66"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="68"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
-      <c r="J8" s="63"/>
+      <c r="J8" s="67"/>
       <c r="K8" s="9" t="s">
         <v>51</v>
       </c>
@@ -3069,20 +5590,20 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A9" s="62"/>
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="63" t="s">
+      <c r="A9" s="66"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="I9" s="65" t="s">
+      <c r="I9" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="J9" s="63"/>
+      <c r="J9" s="67"/>
       <c r="K9" s="9" t="s">
         <v>57</v>
       </c>
@@ -3100,16 +5621,16 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A10" s="62"/>
-      <c r="B10" s="63"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="63"/>
+      <c r="A10" s="66"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="67"/>
       <c r="K10" s="9" t="s">
         <v>60</v>
       </c>
@@ -3127,16 +5648,16 @@
       </c>
     </row>
     <row r="11" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="62"/>
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="64"/>
+      <c r="A11" s="66"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="68"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
-      <c r="J11" s="63"/>
+      <c r="J11" s="67"/>
       <c r="K11" s="9" t="s">
         <v>64</v>
       </c>
@@ -3154,16 +5675,16 @@
       </c>
     </row>
     <row r="12" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="62"/>
-      <c r="B12" s="63"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="64"/>
+      <c r="A12" s="66"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="68"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
-      <c r="J12" s="63"/>
+      <c r="J12" s="67"/>
       <c r="K12" s="12" t="s">
         <v>68</v>
       </c>
@@ -3181,13 +5702,13 @@
       </c>
     </row>
     <row r="13" spans="1:17" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="62"/>
-      <c r="B13" s="63"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="64"/>
+      <c r="A13" s="66"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="68"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
@@ -3239,13 +5760,13 @@
     </row>
     <row r="19" spans="1:16" s="21" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="20" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="62"/>
-      <c r="B20" s="63"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="66" t="s">
+      <c r="A20" s="66"/>
+      <c r="B20" s="67"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="70" t="s">
         <v>80</v>
       </c>
       <c r="H20" s="7" t="s">
@@ -3254,7 +5775,7 @@
       <c r="I20" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J20" s="63" t="s">
+      <c r="J20" s="67" t="s">
         <v>17</v>
       </c>
       <c r="K20" s="9" t="s">
@@ -3274,20 +5795,20 @@
       </c>
     </row>
     <row r="21" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="62"/>
-      <c r="B21" s="63"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="66"/>
+      <c r="A21" s="66"/>
+      <c r="B21" s="67"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="70"/>
       <c r="H21" s="7" t="s">
         <v>23</v>
       </c>
       <c r="I21" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J21" s="63"/>
+      <c r="J21" s="67"/>
       <c r="K21" s="9" t="s">
         <v>25</v>
       </c>
@@ -3308,20 +5829,20 @@
       </c>
     </row>
     <row r="22" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="62"/>
-      <c r="B22" s="63"/>
-      <c r="C22" s="63"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="66"/>
+      <c r="A22" s="66"/>
+      <c r="B22" s="67"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="70"/>
       <c r="H22" s="7" t="s">
         <v>31</v>
       </c>
       <c r="I22" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="J22" s="63"/>
+      <c r="J22" s="67"/>
       <c r="K22" s="9" t="s">
         <v>33</v>
       </c>
@@ -3342,20 +5863,20 @@
       </c>
     </row>
     <row r="23" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="62"/>
-      <c r="B23" s="63"/>
-      <c r="C23" s="63"/>
-      <c r="D23" s="63"/>
-      <c r="E23" s="63"/>
-      <c r="F23" s="62"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="63" t="s">
+      <c r="A23" s="66"/>
+      <c r="B23" s="67"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="67"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="I23" s="65" t="s">
+      <c r="I23" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="J23" s="63"/>
+      <c r="J23" s="67"/>
       <c r="K23" s="9" t="s">
         <v>39</v>
       </c>
@@ -3373,16 +5894,16 @@
       </c>
     </row>
     <row r="24" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="62"/>
-      <c r="B24" s="63"/>
-      <c r="C24" s="63"/>
-      <c r="D24" s="63"/>
-      <c r="E24" s="63"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="63"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="63"/>
+      <c r="A24" s="66"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="67"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="67"/>
       <c r="K24" s="9" t="s">
         <v>43</v>
       </c>
@@ -3400,16 +5921,16 @@
       </c>
     </row>
     <row r="25" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="62"/>
-      <c r="B25" s="63"/>
-      <c r="C25" s="63"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="63"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="66"/>
-      <c r="H25" s="63"/>
-      <c r="I25" s="65"/>
-      <c r="J25" s="63"/>
+      <c r="A25" s="66"/>
+      <c r="B25" s="67"/>
+      <c r="C25" s="67"/>
+      <c r="D25" s="67"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="67"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="67"/>
       <c r="K25" s="9" t="s">
         <v>47</v>
       </c>
@@ -3427,16 +5948,16 @@
       </c>
     </row>
     <row r="26" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="62"/>
-      <c r="B26" s="63"/>
-      <c r="C26" s="63"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="63"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="66"/>
+      <c r="A26" s="66"/>
+      <c r="B26" s="67"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="66"/>
+      <c r="G26" s="70"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
-      <c r="J26" s="63"/>
+      <c r="J26" s="67"/>
       <c r="K26" s="9" t="s">
         <v>51</v>
       </c>
@@ -3454,20 +5975,20 @@
       </c>
     </row>
     <row r="27" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="62"/>
-      <c r="B27" s="63"/>
-      <c r="C27" s="63"/>
-      <c r="D27" s="63"/>
-      <c r="E27" s="63"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="66"/>
-      <c r="H27" s="63" t="s">
+      <c r="A27" s="66"/>
+      <c r="B27" s="67"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="67"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="I27" s="65" t="s">
+      <c r="I27" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="J27" s="63"/>
+      <c r="J27" s="67"/>
       <c r="K27" s="9" t="s">
         <v>57</v>
       </c>
@@ -3485,16 +6006,16 @@
       </c>
     </row>
     <row r="28" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="62"/>
-      <c r="B28" s="63"/>
-      <c r="C28" s="63"/>
-      <c r="D28" s="63"/>
-      <c r="E28" s="63"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="66"/>
-      <c r="H28" s="63"/>
-      <c r="I28" s="65"/>
-      <c r="J28" s="63"/>
+      <c r="A28" s="66"/>
+      <c r="B28" s="67"/>
+      <c r="C28" s="67"/>
+      <c r="D28" s="67"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="66"/>
+      <c r="G28" s="70"/>
+      <c r="H28" s="67"/>
+      <c r="I28" s="69"/>
+      <c r="J28" s="67"/>
       <c r="K28" s="9" t="s">
         <v>60</v>
       </c>
@@ -3512,16 +6033,16 @@
       </c>
     </row>
     <row r="29" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="62"/>
-      <c r="B29" s="63"/>
-      <c r="C29" s="63"/>
-      <c r="D29" s="63"/>
-      <c r="E29" s="63"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="66"/>
+      <c r="A29" s="66"/>
+      <c r="B29" s="67"/>
+      <c r="C29" s="67"/>
+      <c r="D29" s="67"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="70"/>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
-      <c r="J29" s="63"/>
+      <c r="J29" s="67"/>
       <c r="K29" s="9" t="s">
         <v>64</v>
       </c>
@@ -3539,16 +6060,16 @@
       </c>
     </row>
     <row r="30" spans="1:16" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="62"/>
-      <c r="B30" s="63"/>
-      <c r="C30" s="63"/>
-      <c r="D30" s="63"/>
-      <c r="E30" s="63"/>
-      <c r="F30" s="62"/>
-      <c r="G30" s="66"/>
+      <c r="A30" s="66"/>
+      <c r="B30" s="67"/>
+      <c r="C30" s="67"/>
+      <c r="D30" s="67"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="66"/>
+      <c r="G30" s="70"/>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
-      <c r="J30" s="63"/>
+      <c r="J30" s="67"/>
       <c r="K30" s="22" t="s">
         <v>83</v>
       </c>
@@ -3569,13 +6090,13 @@
       </c>
     </row>
     <row r="31" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="62"/>
-      <c r="B31" s="63"/>
-      <c r="C31" s="63"/>
-      <c r="D31" s="63"/>
-      <c r="E31" s="63"/>
-      <c r="F31" s="62"/>
-      <c r="G31" s="66"/>
+      <c r="A31" s="66"/>
+      <c r="B31" s="67"/>
+      <c r="C31" s="67"/>
+      <c r="D31" s="67"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="66"/>
+      <c r="G31" s="70"/>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
       <c r="J31" s="7" t="s">
@@ -3651,292 +6172,2849 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="0" tint="-0.34998626667073579"/>
-  </sheetPr>
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="C5" sqref="C5:D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="34" customWidth="1"/>
-    <col min="2" max="2" width="9" style="34"/>
-    <col min="3" max="3" width="22.375" style="34" customWidth="1"/>
-    <col min="4" max="4" width="31.125" style="34" customWidth="1"/>
-    <col min="5" max="5" width="37.25" style="34" customWidth="1"/>
-    <col min="6" max="6" width="12.875" style="34" customWidth="1"/>
-    <col min="7" max="7" width="15.375" style="34" customWidth="1"/>
-    <col min="8" max="8" width="56.875" style="34" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.25" style="34" customWidth="1"/>
-    <col min="10" max="10" width="29.875" style="34" customWidth="1"/>
-    <col min="11" max="11" width="27.875" style="34" customWidth="1"/>
-    <col min="12" max="12" width="9" style="34"/>
-    <col min="13" max="13" width="25" style="34" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="34"/>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.375" customWidth="1"/>
+    <col min="3" max="3" width="17.625" customWidth="1"/>
+    <col min="4" max="4" width="28.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="53" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="C1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28" t="s">
-        <v>8</v>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>126</v>
       </c>
       <c r="G1" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="27" t="s">
         <v>10</v>
       </c>
+      <c r="H1" s="26" t="s">
+        <v>11</v>
+      </c>
       <c r="I1" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="J1" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="53" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="75" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" s="76"/>
+      <c r="C2" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="78"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="61"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+    </row>
+    <row r="3" spans="1:14" s="53" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="75"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="78"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+    </row>
+    <row r="4" spans="1:14" s="53" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="75"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="55"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+    </row>
+    <row r="5" spans="1:14" s="53" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="76"/>
+      <c r="C5" s="73" t="s">
+        <v>171</v>
+      </c>
+      <c r="D5" s="74" t="s">
+        <v>133</v>
+      </c>
+      <c r="E5" s="55"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="57"/>
+    </row>
+    <row r="6" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B6" s="76"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
+    </row>
+    <row r="7" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B7" s="76"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="57"/>
+    </row>
+    <row r="8" spans="1:14" s="53" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="76"/>
+      <c r="C8" s="73" t="s">
+        <v>128</v>
+      </c>
+      <c r="D8" s="74" t="s">
+        <v>172</v>
+      </c>
+      <c r="E8" s="57"/>
+    </row>
+    <row r="9" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B9" s="76"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="57"/>
+    </row>
+    <row r="10" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B10" s="76"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="57"/>
+    </row>
+    <row r="11" spans="1:14" s="53" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="76"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="74"/>
+    </row>
+    <row r="12" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B12" s="76"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="74"/>
+    </row>
+    <row r="13" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B13" s="76"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="74"/>
+    </row>
+    <row r="14" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B14" s="76"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="74"/>
+    </row>
+    <row r="15" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A15" s="56"/>
+      <c r="B15" s="76"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="74"/>
+    </row>
+    <row r="16" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B16" s="76"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="74"/>
+    </row>
+    <row r="17" spans="2:4" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B17" s="60"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="74"/>
+    </row>
+    <row r="18" spans="2:4" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B18" s="60"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="74"/>
+    </row>
+    <row r="19" spans="2:4" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B19" s="60"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="74"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B16"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="C14:C16"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.375" customWidth="1"/>
+    <col min="3" max="3" width="17.625" customWidth="1"/>
+    <col min="4" max="4" width="28.5" customWidth="1"/>
+    <col min="7" max="7" width="32" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="53" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="26" t="s">
         <v>11</v>
       </c>
+      <c r="I1" s="26" t="s">
+        <v>91</v>
+      </c>
       <c r="J1" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="53" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="75" t="s">
+        <v>175</v>
+      </c>
+      <c r="B2" s="76"/>
+      <c r="C2" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="78" t="s">
+        <v>189</v>
+      </c>
+      <c r="F2" s="56" t="s">
+        <v>187</v>
+      </c>
+      <c r="G2" s="44" t="s">
+        <v>188</v>
+      </c>
+      <c r="H2" s="61"/>
+      <c r="J2" s="56" t="s">
+        <v>186</v>
+      </c>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+    </row>
+    <row r="3" spans="1:14" s="53" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="75"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="78"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+    </row>
+    <row r="4" spans="1:14" s="53" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="75"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="55"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+    </row>
+    <row r="5" spans="1:14" s="53" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="76"/>
+      <c r="C5" s="73" t="s">
+        <v>171</v>
+      </c>
+      <c r="D5" s="74" t="s">
+        <v>133</v>
+      </c>
+      <c r="E5" s="55"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="57"/>
+    </row>
+    <row r="6" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B6" s="76"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
+    </row>
+    <row r="7" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B7" s="76"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="57"/>
+    </row>
+    <row r="8" spans="1:14" s="53" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="76"/>
+      <c r="C8" s="73" t="s">
+        <v>173</v>
+      </c>
+      <c r="D8" s="74" t="s">
+        <v>180</v>
+      </c>
+      <c r="E8" s="57"/>
+    </row>
+    <row r="9" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B9" s="76"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="57"/>
+    </row>
+    <row r="10" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B10" s="76"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="57"/>
+    </row>
+    <row r="11" spans="1:14" s="53" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="76"/>
+      <c r="C11" s="73" t="s">
+        <v>174</v>
+      </c>
+      <c r="D11" s="74" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B12" s="76"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="74"/>
+    </row>
+    <row r="13" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B13" s="76"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="74"/>
+    </row>
+    <row r="14" spans="1:14" s="53" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="76"/>
+      <c r="C14" s="73" t="s">
+        <v>176</v>
+      </c>
+      <c r="D14" s="74" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A15" s="56"/>
+      <c r="B15" s="76"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="74"/>
+    </row>
+    <row r="16" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B16" s="76"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="74"/>
+    </row>
+    <row r="17" spans="2:4" s="53" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="60"/>
+      <c r="C17" s="73" t="s">
+        <v>177</v>
+      </c>
+      <c r="D17" s="74" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B18" s="60"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="74"/>
+    </row>
+    <row r="19" spans="2:4" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B19" s="60"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="74"/>
+    </row>
+    <row r="20" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C20" s="73" t="s">
+        <v>178</v>
+      </c>
+      <c r="D20" s="74" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C21" s="73"/>
+      <c r="D21" s="74"/>
+    </row>
+    <row r="22" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C22" s="73"/>
+      <c r="D22" s="74"/>
+    </row>
+    <row r="23" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C23" s="73" t="s">
+        <v>179</v>
+      </c>
+      <c r="D23" s="74" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C24" s="73"/>
+      <c r="D24" s="74"/>
+    </row>
+    <row r="25" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C25" s="73"/>
+      <c r="D25" s="74"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B16"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.375" customWidth="1"/>
+    <col min="3" max="3" width="17.625" customWidth="1"/>
+    <col min="4" max="4" width="28.5" customWidth="1"/>
+    <col min="7" max="7" width="32" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="53" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="26" t="s">
         <v>91</v>
       </c>
+      <c r="J1" s="26" t="s">
+        <v>12</v>
+      </c>
       <c r="K1" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="53" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="75" t="s">
+        <v>190</v>
+      </c>
+      <c r="B2" s="76"/>
+      <c r="C2" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="79"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+    </row>
+    <row r="3" spans="1:14" s="53" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="75"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="78"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+    </row>
+    <row r="4" spans="1:14" s="53" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="75"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="55"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+    </row>
+    <row r="5" spans="1:14" s="53" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="76"/>
+      <c r="C5" s="73" t="s">
+        <v>171</v>
+      </c>
+      <c r="D5" s="74" t="s">
+        <v>133</v>
+      </c>
+      <c r="E5" s="55"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="57"/>
+    </row>
+    <row r="6" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B6" s="76"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
+    </row>
+    <row r="7" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B7" s="76"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="57"/>
+    </row>
+    <row r="8" spans="1:14" s="53" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="76"/>
+      <c r="C8" s="73" t="s">
+        <v>128</v>
+      </c>
+      <c r="D8" s="74" t="s">
+        <v>172</v>
+      </c>
+      <c r="E8" s="57"/>
+    </row>
+    <row r="9" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B9" s="76"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="57"/>
+    </row>
+    <row r="10" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B10" s="76"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="57"/>
+    </row>
+    <row r="11" spans="1:14" s="53" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="76"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="74"/>
+    </row>
+    <row r="12" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B12" s="76"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="74"/>
+    </row>
+    <row r="13" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B13" s="76"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="74"/>
+    </row>
+    <row r="14" spans="1:14" s="53" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="76"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="74"/>
+    </row>
+    <row r="15" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A15" s="56"/>
+      <c r="B15" s="76"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="74"/>
+    </row>
+    <row r="16" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B16" s="76"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="74"/>
+    </row>
+    <row r="17" spans="2:4" s="53" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="60"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="74"/>
+    </row>
+    <row r="18" spans="2:4" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B18" s="60"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="74"/>
+    </row>
+    <row r="19" spans="2:4" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B19" s="60"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="74"/>
+    </row>
+    <row r="20" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C20" s="73"/>
+      <c r="D20" s="74"/>
+    </row>
+    <row r="21" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C21" s="73"/>
+      <c r="D21" s="74"/>
+    </row>
+    <row r="22" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C22" s="73"/>
+      <c r="D22" s="74"/>
+    </row>
+    <row r="23" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C23" s="73"/>
+      <c r="D23" s="74"/>
+    </row>
+    <row r="24" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C24" s="73"/>
+      <c r="D24" s="74"/>
+    </row>
+    <row r="25" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C25" s="73"/>
+      <c r="D25" s="74"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B16"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.375" customWidth="1"/>
+    <col min="3" max="3" width="17.625" customWidth="1"/>
+    <col min="4" max="4" width="28.5" customWidth="1"/>
+    <col min="7" max="7" width="32" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="53" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="J1" s="26" t="s">
         <v>12</v>
       </c>
+      <c r="K1" s="26" t="s">
+        <v>13</v>
+      </c>
       <c r="L1" s="26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="53" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="75" t="s">
+        <v>191</v>
+      </c>
+      <c r="B2" s="76"/>
+      <c r="C2" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="79"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+    </row>
+    <row r="3" spans="1:14" s="53" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="75"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="78"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+    </row>
+    <row r="4" spans="1:14" s="53" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="75"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="55"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+    </row>
+    <row r="5" spans="1:14" s="53" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="76"/>
+      <c r="C5" s="73" t="s">
+        <v>192</v>
+      </c>
+      <c r="D5" s="74" t="s">
+        <v>133</v>
+      </c>
+      <c r="E5" s="55"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="57"/>
+    </row>
+    <row r="6" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B6" s="76"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
+    </row>
+    <row r="7" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B7" s="76"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="57"/>
+    </row>
+    <row r="8" spans="1:14" s="53" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="76"/>
+      <c r="C8" s="73" t="s">
+        <v>128</v>
+      </c>
+      <c r="D8" s="74" t="s">
+        <v>193</v>
+      </c>
+      <c r="E8" s="57"/>
+    </row>
+    <row r="9" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B9" s="76"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="57"/>
+    </row>
+    <row r="10" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B10" s="76"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="57"/>
+    </row>
+    <row r="11" spans="1:14" s="53" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="76"/>
+      <c r="C11" s="73" t="s">
+        <v>129</v>
+      </c>
+      <c r="D11" s="74" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B12" s="76"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="74"/>
+    </row>
+    <row r="13" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B13" s="76"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="74"/>
+    </row>
+    <row r="14" spans="1:14" s="53" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="76"/>
+      <c r="C14" s="73" t="s">
+        <v>130</v>
+      </c>
+      <c r="D14" s="74" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A15" s="56"/>
+      <c r="B15" s="76"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="74"/>
+    </row>
+    <row r="16" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B16" s="76"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="74"/>
+    </row>
+    <row r="17" spans="2:4" s="53" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="60"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="74"/>
+    </row>
+    <row r="18" spans="2:4" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B18" s="60"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="74"/>
+    </row>
+    <row r="19" spans="2:4" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B19" s="60"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="74"/>
+    </row>
+    <row r="20" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C20" s="73"/>
+      <c r="D20" s="74"/>
+    </row>
+    <row r="21" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C21" s="73"/>
+      <c r="D21" s="74"/>
+    </row>
+    <row r="22" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C22" s="73"/>
+      <c r="D22" s="74"/>
+    </row>
+    <row r="23" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C23" s="73"/>
+      <c r="D23" s="74"/>
+    </row>
+    <row r="24" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C24" s="73"/>
+      <c r="D24" s="74"/>
+    </row>
+    <row r="25" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C25" s="73"/>
+      <c r="D25" s="74"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B16"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.375" customWidth="1"/>
+    <col min="3" max="3" width="17.625" customWidth="1"/>
+    <col min="4" max="4" width="28.5" customWidth="1"/>
+    <col min="7" max="7" width="32" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="53" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="J1" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="26" t="s">
+      <c r="L1" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="26"/>
-    </row>
-    <row r="2" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="67" t="s">
-        <v>103</v>
-      </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="30" t="s">
+    </row>
+    <row r="2" spans="1:14" s="53" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="75" t="s">
+        <v>196</v>
+      </c>
+      <c r="B2" s="76"/>
+      <c r="C2" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="D2" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="68" t="s">
-        <v>123</v>
-      </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-    </row>
-    <row r="3" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="67"/>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="30" t="s">
+      <c r="E2" s="79"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+    </row>
+    <row r="3" spans="1:14" s="53" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="75"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="31" t="s">
+      <c r="D3" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="68"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-    </row>
-    <row r="4" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="67"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="30" t="s">
+      <c r="E3" s="78"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+    </row>
+    <row r="4" spans="1:14" s="53" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="75"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="D4" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-    </row>
-    <row r="5" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="43"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-    </row>
-    <row r="6" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="43"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-    </row>
-    <row r="7" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="43"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-    </row>
-    <row r="8" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="43"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-    </row>
-    <row r="9" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="43"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-    </row>
-    <row r="10" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="43"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-    </row>
-    <row r="11" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="43"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-    </row>
-    <row r="12" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="43"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="31"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-    </row>
-    <row r="13" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="43"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="31"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="15"/>
-    </row>
-    <row r="14" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="D14" s="36"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="41"/>
-    </row>
-    <row r="15" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="D15" s="36"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="62"/>
-      <c r="H15" s="42"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+    </row>
+    <row r="5" spans="1:14" s="53" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="76"/>
+      <c r="C5" s="73" t="s">
+        <v>192</v>
+      </c>
+      <c r="D5" s="74" t="s">
+        <v>133</v>
+      </c>
+      <c r="E5" s="55"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="57"/>
+    </row>
+    <row r="6" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B6" s="76"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
+    </row>
+    <row r="7" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B7" s="76"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="57"/>
+    </row>
+    <row r="8" spans="1:14" s="53" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="76"/>
+      <c r="C8" s="73" t="s">
+        <v>128</v>
+      </c>
+      <c r="D8" s="74" t="s">
+        <v>197</v>
+      </c>
+      <c r="E8" s="57"/>
+    </row>
+    <row r="9" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B9" s="76"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="57"/>
+    </row>
+    <row r="10" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B10" s="76"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="57"/>
+    </row>
+    <row r="11" spans="1:14" s="53" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="76"/>
+      <c r="C11" s="73" t="s">
+        <v>129</v>
+      </c>
+      <c r="D11" s="74" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B12" s="76"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="74"/>
+    </row>
+    <row r="13" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B13" s="76"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="74"/>
+    </row>
+    <row r="14" spans="1:14" s="53" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="76"/>
+      <c r="C14" s="73" t="s">
+        <v>198</v>
+      </c>
+      <c r="D14" s="74" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A15" s="56"/>
+      <c r="B15" s="76"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="74"/>
+    </row>
+    <row r="16" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B16" s="76"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="74"/>
+    </row>
+    <row r="17" spans="2:4" s="53" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="60"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="74"/>
+    </row>
+    <row r="18" spans="2:4" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B18" s="60"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="74"/>
+    </row>
+    <row r="19" spans="2:4" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B19" s="60"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="74"/>
+    </row>
+    <row r="20" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C20" s="73"/>
+      <c r="D20" s="74"/>
+    </row>
+    <row r="21" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C21" s="73"/>
+      <c r="D21" s="74"/>
+    </row>
+    <row r="22" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C22" s="73"/>
+      <c r="D22" s="74"/>
+    </row>
+    <row r="23" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C23" s="73"/>
+      <c r="D23" s="74"/>
+    </row>
+    <row r="24" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C24" s="73"/>
+      <c r="D24" s="74"/>
+    </row>
+    <row r="25" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C25" s="73"/>
+      <c r="D25" s="74"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="16">
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="D23:D25"/>
     <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="B2:B16"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="22.125" style="53" customWidth="1"/>
+    <col min="2" max="2" width="27.125" style="53" customWidth="1"/>
+    <col min="3" max="3" width="15.75" style="53" customWidth="1"/>
+    <col min="4" max="4" width="29.375" style="53" customWidth="1"/>
+    <col min="5" max="5" width="13.875" style="53" customWidth="1"/>
+    <col min="6" max="6" width="11.625" style="53" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="70.375" style="53" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.125" style="53" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="53"/>
+    <col min="10" max="10" width="14.125" style="53" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="53"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="J1" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="75" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" s="76"/>
+      <c r="C2" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="55" t="s">
+        <v>138</v>
+      </c>
+      <c r="F2" s="56" t="s">
+        <v>152</v>
+      </c>
+      <c r="G2" s="44" t="s">
+        <v>139</v>
+      </c>
+      <c r="H2" s="61"/>
+      <c r="J2" s="44" t="s">
+        <v>147</v>
+      </c>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+    </row>
+    <row r="3" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="75"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="55" t="s">
+        <v>140</v>
+      </c>
+      <c r="F3" s="56" t="s">
+        <v>141</v>
+      </c>
+      <c r="G3" s="44" t="s">
+        <v>151</v>
+      </c>
+      <c r="H3" s="61"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="44" t="s">
+        <v>148</v>
+      </c>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+    </row>
+    <row r="4" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="75"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="55" t="s">
+        <v>142</v>
+      </c>
+      <c r="F4" s="56" t="s">
+        <v>143</v>
+      </c>
+      <c r="G4" s="44" t="s">
+        <v>144</v>
+      </c>
+      <c r="H4" s="61"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="44" t="s">
+        <v>149</v>
+      </c>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+    </row>
+    <row r="5" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="76"/>
+      <c r="C5" s="73" t="s">
+        <v>127</v>
+      </c>
+      <c r="D5" s="74" t="s">
+        <v>133</v>
+      </c>
+      <c r="E5" s="55" t="s">
+        <v>145</v>
+      </c>
+      <c r="F5" s="56" t="s">
+        <v>153</v>
+      </c>
+      <c r="G5" s="44" t="s">
+        <v>146</v>
+      </c>
+      <c r="H5" s="61"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="44" t="s">
+        <v>150</v>
+      </c>
+      <c r="K5" s="57"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="57"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B6" s="76"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B7" s="76"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="57"/>
+    </row>
+    <row r="8" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="76"/>
+      <c r="C8" s="73" t="s">
+        <v>128</v>
+      </c>
+      <c r="D8" s="74" t="s">
+        <v>134</v>
+      </c>
+      <c r="E8" s="57"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B9" s="76"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="57"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B10" s="76"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="57"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B11" s="76"/>
+      <c r="C11" s="73" t="s">
+        <v>129</v>
+      </c>
+      <c r="D11" s="74" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B12" s="76"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="74"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B13" s="76"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="74"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B14" s="76"/>
+      <c r="C14" s="73" t="s">
+        <v>130</v>
+      </c>
+      <c r="D14" s="74" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A15" s="56"/>
+      <c r="B15" s="76"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="74"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B16" s="76"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="74"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B17" s="60"/>
+      <c r="C17" s="73" t="s">
+        <v>131</v>
+      </c>
+      <c r="D17" s="74" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B18" s="60"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="74"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B19" s="60"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="74"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B20" s="60"/>
+      <c r="C20" s="73"/>
+      <c r="D20" s="74"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B21" s="60"/>
+      <c r="C21" s="73"/>
+      <c r="D21" s="74"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B22" s="60"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="74"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B23" s="60"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B24" s="60"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B25" s="60"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B26" s="60"/>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B27" s="60"/>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B28" s="60"/>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B29" s="60"/>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B30" s="60"/>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B31" s="60"/>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B32" s="60"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B33" s="60"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B34" s="60"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B35" s="60"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B36" s="60"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B37" s="60"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B16"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20:C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.375" customWidth="1"/>
+    <col min="3" max="3" width="17.625" customWidth="1"/>
+    <col min="4" max="4" width="29.375" customWidth="1"/>
+    <col min="7" max="7" width="32" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="53" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="J1" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="53" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="75" t="s">
+        <v>201</v>
+      </c>
+      <c r="B2" s="76"/>
+      <c r="C2" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="79"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+    </row>
+    <row r="3" spans="1:14" s="53" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="75"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="78"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+    </row>
+    <row r="4" spans="1:14" s="53" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="75"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="55"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+    </row>
+    <row r="5" spans="1:14" s="53" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="76"/>
+      <c r="C5" s="73" t="s">
+        <v>192</v>
+      </c>
+      <c r="D5" s="74" t="s">
+        <v>133</v>
+      </c>
+      <c r="E5" s="55"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="57"/>
+    </row>
+    <row r="6" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B6" s="76"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
+    </row>
+    <row r="7" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B7" s="76"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="57"/>
+    </row>
+    <row r="8" spans="1:14" s="53" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="76"/>
+      <c r="C8" s="73" t="s">
+        <v>128</v>
+      </c>
+      <c r="D8" s="74" t="s">
+        <v>203</v>
+      </c>
+      <c r="E8" s="57"/>
+    </row>
+    <row r="9" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B9" s="76"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="57"/>
+    </row>
+    <row r="10" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B10" s="76"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="57"/>
+    </row>
+    <row r="11" spans="1:14" s="53" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="76"/>
+      <c r="C11" s="73" t="s">
+        <v>129</v>
+      </c>
+      <c r="D11" s="74" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B12" s="76"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="74"/>
+    </row>
+    <row r="13" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B13" s="76"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="74"/>
+    </row>
+    <row r="14" spans="1:14" s="53" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="76"/>
+      <c r="C14" s="73" t="s">
+        <v>202</v>
+      </c>
+      <c r="D14" s="74" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A15" s="56"/>
+      <c r="B15" s="76"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="74"/>
+    </row>
+    <row r="16" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B16" s="76"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="74"/>
+    </row>
+    <row r="17" spans="2:4" s="53" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="60"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="74"/>
+    </row>
+    <row r="18" spans="2:4" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B18" s="60"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="74"/>
+    </row>
+    <row r="19" spans="2:4" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B19" s="60"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="74"/>
+    </row>
+    <row r="20" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C20" s="73"/>
+      <c r="D20" s="74"/>
+    </row>
+    <row r="21" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C21" s="73"/>
+      <c r="D21" s="74"/>
+    </row>
+    <row r="22" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C22" s="73"/>
+      <c r="D22" s="74"/>
+    </row>
+    <row r="23" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C23" s="73"/>
+      <c r="D23" s="74"/>
+    </row>
+    <row r="24" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C24" s="73"/>
+      <c r="D24" s="74"/>
+    </row>
+    <row r="25" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C25" s="73"/>
+      <c r="D25" s="74"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B16"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.375" customWidth="1"/>
+    <col min="3" max="3" width="17.625" customWidth="1"/>
+    <col min="4" max="4" width="29.375" customWidth="1"/>
+    <col min="7" max="7" width="32" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="53" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="J1" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="53" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="75" t="s">
+        <v>204</v>
+      </c>
+      <c r="B2" s="76"/>
+      <c r="C2" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="79"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+    </row>
+    <row r="3" spans="1:14" s="53" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="75"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="78"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+    </row>
+    <row r="4" spans="1:14" s="53" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="75"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="55"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+    </row>
+    <row r="5" spans="1:14" s="53" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="76"/>
+      <c r="C5" s="73" t="s">
+        <v>192</v>
+      </c>
+      <c r="D5" s="74" t="s">
+        <v>133</v>
+      </c>
+      <c r="E5" s="55"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="57"/>
+    </row>
+    <row r="6" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B6" s="76"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
+    </row>
+    <row r="7" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B7" s="76"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="57"/>
+    </row>
+    <row r="8" spans="1:14" s="53" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="76"/>
+      <c r="C8" s="73" t="s">
+        <v>128</v>
+      </c>
+      <c r="D8" s="74" t="s">
+        <v>205</v>
+      </c>
+      <c r="E8" s="57"/>
+    </row>
+    <row r="9" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B9" s="76"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="57"/>
+    </row>
+    <row r="10" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B10" s="76"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="57"/>
+    </row>
+    <row r="11" spans="1:14" s="53" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="76"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="74"/>
+    </row>
+    <row r="12" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B12" s="76"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="74"/>
+    </row>
+    <row r="13" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B13" s="76"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="74"/>
+    </row>
+    <row r="14" spans="1:14" s="53" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="76"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="74"/>
+    </row>
+    <row r="15" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A15" s="56"/>
+      <c r="B15" s="76"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="74"/>
+    </row>
+    <row r="16" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B16" s="76"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="74"/>
+    </row>
+    <row r="17" spans="2:4" s="53" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="60"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="74"/>
+    </row>
+    <row r="18" spans="2:4" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B18" s="60"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="74"/>
+    </row>
+    <row r="19" spans="2:4" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B19" s="60"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="74"/>
+    </row>
+    <row r="20" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C20" s="73"/>
+      <c r="D20" s="74"/>
+    </row>
+    <row r="21" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C21" s="73"/>
+      <c r="D21" s="74"/>
+    </row>
+    <row r="22" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C22" s="73"/>
+      <c r="D22" s="74"/>
+    </row>
+    <row r="23" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C23" s="73"/>
+      <c r="D23" s="74"/>
+    </row>
+    <row r="24" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C24" s="73"/>
+      <c r="D24" s="74"/>
+    </row>
+    <row r="25" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C25" s="73"/>
+      <c r="D25" s="74"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B16"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.375" customWidth="1"/>
+    <col min="3" max="3" width="17.625" customWidth="1"/>
+    <col min="4" max="4" width="29.375" customWidth="1"/>
+    <col min="7" max="7" width="32" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="53" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="J1" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="53" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="75" t="s">
+        <v>206</v>
+      </c>
+      <c r="B2" s="76"/>
+      <c r="C2" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="79"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+    </row>
+    <row r="3" spans="1:14" s="53" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="75"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="78"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+    </row>
+    <row r="4" spans="1:14" s="53" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="75"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="55"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+    </row>
+    <row r="5" spans="1:14" s="53" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="76"/>
+      <c r="C5" s="73" t="s">
+        <v>192</v>
+      </c>
+      <c r="D5" s="74" t="s">
+        <v>133</v>
+      </c>
+      <c r="E5" s="55"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="57"/>
+    </row>
+    <row r="6" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B6" s="76"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
+    </row>
+    <row r="7" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B7" s="76"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="57"/>
+    </row>
+    <row r="8" spans="1:14" s="53" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="76"/>
+      <c r="C8" s="73" t="s">
+        <v>128</v>
+      </c>
+      <c r="D8" s="74" t="s">
+        <v>207</v>
+      </c>
+      <c r="E8" s="57"/>
+    </row>
+    <row r="9" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B9" s="76"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="57"/>
+    </row>
+    <row r="10" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B10" s="76"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="57"/>
+    </row>
+    <row r="11" spans="1:14" s="53" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="76"/>
+      <c r="C11" s="73" t="s">
+        <v>129</v>
+      </c>
+      <c r="D11" s="74" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B12" s="76"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="74"/>
+    </row>
+    <row r="13" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B13" s="76"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="74"/>
+    </row>
+    <row r="14" spans="1:14" s="53" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="76"/>
+      <c r="C14" s="73" t="s">
+        <v>130</v>
+      </c>
+      <c r="D14" s="74" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A15" s="56"/>
+      <c r="B15" s="76"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="74"/>
+    </row>
+    <row r="16" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B16" s="76"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="74"/>
+    </row>
+    <row r="17" spans="2:4" s="53" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="60"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="74"/>
+    </row>
+    <row r="18" spans="2:4" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B18" s="60"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="74"/>
+    </row>
+    <row r="19" spans="2:4" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B19" s="60"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="74"/>
+    </row>
+    <row r="20" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C20" s="73"/>
+      <c r="D20" s="74"/>
+    </row>
+    <row r="21" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C21" s="73"/>
+      <c r="D21" s="74"/>
+    </row>
+    <row r="22" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C22" s="73"/>
+      <c r="D22" s="74"/>
+    </row>
+    <row r="23" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C23" s="73"/>
+      <c r="D23" s="74"/>
+    </row>
+    <row r="24" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C24" s="73"/>
+      <c r="D24" s="74"/>
+    </row>
+    <row r="25" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C25" s="73"/>
+      <c r="D25" s="74"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B16"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.375" customWidth="1"/>
+    <col min="3" max="3" width="17.625" customWidth="1"/>
+    <col min="4" max="4" width="29.375" customWidth="1"/>
+    <col min="7" max="7" width="32" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="53" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="J1" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="53" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="75" t="s">
+        <v>210</v>
+      </c>
+      <c r="B2" s="76"/>
+      <c r="C2" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="79"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+    </row>
+    <row r="3" spans="1:14" s="53" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="75"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="78"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+    </row>
+    <row r="4" spans="1:14" s="53" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="75"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="55"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+    </row>
+    <row r="5" spans="1:14" s="53" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="76"/>
+      <c r="C5" s="73" t="s">
+        <v>192</v>
+      </c>
+      <c r="D5" s="74" t="s">
+        <v>133</v>
+      </c>
+      <c r="E5" s="55"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="57"/>
+    </row>
+    <row r="6" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B6" s="76"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
+    </row>
+    <row r="7" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B7" s="76"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="57"/>
+    </row>
+    <row r="8" spans="1:14" s="53" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="76"/>
+      <c r="C8" s="73" t="s">
+        <v>128</v>
+      </c>
+      <c r="D8" s="74" t="s">
+        <v>211</v>
+      </c>
+      <c r="E8" s="57"/>
+    </row>
+    <row r="9" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B9" s="76"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="57"/>
+    </row>
+    <row r="10" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B10" s="76"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="57"/>
+    </row>
+    <row r="11" spans="1:14" s="53" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="76"/>
+      <c r="C11" s="73" t="s">
+        <v>212</v>
+      </c>
+      <c r="D11" s="74" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B12" s="76"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="74"/>
+    </row>
+    <row r="13" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B13" s="76"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="74"/>
+    </row>
+    <row r="14" spans="1:14" s="53" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="76"/>
+      <c r="C14" s="73" t="s">
+        <v>130</v>
+      </c>
+      <c r="D14" s="74" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A15" s="56"/>
+      <c r="B15" s="76"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="74"/>
+    </row>
+    <row r="16" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B16" s="76"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="74"/>
+    </row>
+    <row r="17" spans="2:4" s="53" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="60"/>
+      <c r="C17" s="73" t="s">
+        <v>214</v>
+      </c>
+      <c r="D17" s="74" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B18" s="60"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="74"/>
+    </row>
+    <row r="19" spans="2:4" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B19" s="60"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="74"/>
+    </row>
+    <row r="20" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C20" s="73"/>
+      <c r="D20" s="74"/>
+    </row>
+    <row r="21" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C21" s="73"/>
+      <c r="D21" s="74"/>
+    </row>
+    <row r="22" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C22" s="73"/>
+      <c r="D22" s="74"/>
+    </row>
+    <row r="23" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C23" s="73"/>
+      <c r="D23" s="74"/>
+    </row>
+    <row r="24" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C24" s="73"/>
+      <c r="D24" s="74"/>
+    </row>
+    <row r="25" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C25" s="73"/>
+      <c r="D25" s="74"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B16"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4011,18 +9089,18 @@
       <c r="N1" s="26"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="71" t="s">
         <v>101</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
       <c r="D2" s="30" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="65" t="s">
+      <c r="F2" s="69" t="s">
         <v>17</v>
       </c>
       <c r="G2" s="50" t="s">
@@ -4041,16 +9119,16 @@
       <c r="N2" s="11"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A3" s="67"/>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
+      <c r="A3" s="71"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
       <c r="D3" s="30" t="s">
         <v>23</v>
       </c>
       <c r="E3" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="65"/>
+      <c r="F3" s="69"/>
       <c r="G3" s="50" t="s">
         <v>25</v>
       </c>
@@ -4069,16 +9147,16 @@
       <c r="N3" s="11"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A4" s="67"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
+      <c r="A4" s="71"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
       <c r="D4" s="30" t="s">
         <v>31</v>
       </c>
       <c r="E4" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="65"/>
+      <c r="F4" s="69"/>
       <c r="G4" s="50" t="s">
         <v>109</v>
       </c>
@@ -4104,7 +9182,7 @@
       <c r="C5" s="11"/>
       <c r="D5" s="47"/>
       <c r="E5" s="31"/>
-      <c r="F5" s="65"/>
+      <c r="F5" s="69"/>
       <c r="G5" s="50" t="s">
         <v>39</v>
       </c>
@@ -4128,7 +9206,7 @@
       <c r="C6" s="11"/>
       <c r="D6" s="47"/>
       <c r="E6" s="31"/>
-      <c r="F6" s="65"/>
+      <c r="F6" s="69"/>
       <c r="G6" s="50" t="s">
         <v>43</v>
       </c>
@@ -4152,7 +9230,7 @@
       <c r="C7" s="11"/>
       <c r="D7" s="47"/>
       <c r="E7" s="31"/>
-      <c r="F7" s="65"/>
+      <c r="F7" s="69"/>
       <c r="G7" s="50" t="s">
         <v>47</v>
       </c>
@@ -4174,7 +9252,7 @@
       <c r="C8" s="11"/>
       <c r="D8" s="47"/>
       <c r="E8" s="31"/>
-      <c r="F8" s="65"/>
+      <c r="F8" s="69"/>
       <c r="G8" s="50" t="s">
         <v>51</v>
       </c>
@@ -4196,7 +9274,7 @@
       <c r="C9" s="11"/>
       <c r="D9" s="47"/>
       <c r="E9" s="31"/>
-      <c r="F9" s="65"/>
+      <c r="F9" s="69"/>
       <c r="G9" s="50" t="s">
         <v>57</v>
       </c>
@@ -4220,7 +9298,7 @@
       <c r="C10" s="11"/>
       <c r="D10" s="47"/>
       <c r="E10" s="31"/>
-      <c r="F10" s="65"/>
+      <c r="F10" s="69"/>
       <c r="G10" s="50" t="s">
         <v>60</v>
       </c>
@@ -4244,7 +9322,7 @@
       <c r="C11" s="11"/>
       <c r="D11" s="39"/>
       <c r="E11" s="31"/>
-      <c r="F11" s="65"/>
+      <c r="F11" s="69"/>
       <c r="G11" s="50" t="s">
         <v>64</v>
       </c>
@@ -4268,7 +9346,7 @@
       <c r="C12" s="11"/>
       <c r="D12" s="39"/>
       <c r="E12" s="31"/>
-      <c r="F12" s="68" t="s">
+      <c r="F12" s="72" t="s">
         <v>72</v>
       </c>
       <c r="G12" s="51" t="s">
@@ -4294,7 +9372,7 @@
       <c r="C13" s="11"/>
       <c r="D13" s="39"/>
       <c r="E13" s="31"/>
-      <c r="F13" s="68"/>
+      <c r="F13" s="72"/>
       <c r="G13" s="38"/>
       <c r="H13" s="33"/>
       <c r="I13" s="15"/>
@@ -4302,14 +9380,14 @@
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="D14" s="39"/>
       <c r="E14" s="31"/>
-      <c r="F14" s="62"/>
+      <c r="F14" s="66"/>
       <c r="G14" s="40"/>
       <c r="H14" s="41"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="D15" s="39"/>
       <c r="E15" s="31"/>
-      <c r="F15" s="62"/>
+      <c r="F15" s="66"/>
       <c r="H15" s="42"/>
     </row>
     <row r="20" spans="9:13" x14ac:dyDescent="0.15">
@@ -4336,6 +9414,1744 @@
     <mergeCell ref="F12:F13"/>
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="F2:F11"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.375" customWidth="1"/>
+    <col min="3" max="3" width="17.625" customWidth="1"/>
+    <col min="4" max="4" width="29.375" customWidth="1"/>
+    <col min="7" max="7" width="32" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="53" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="J1" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="53" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="75" t="s">
+        <v>217</v>
+      </c>
+      <c r="B2" s="76"/>
+      <c r="C2" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="79"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+    </row>
+    <row r="3" spans="1:14" s="53" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="75"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="78"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+    </row>
+    <row r="4" spans="1:14" s="53" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="75"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="55"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+    </row>
+    <row r="5" spans="1:14" s="53" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="76"/>
+      <c r="C5" s="73" t="s">
+        <v>192</v>
+      </c>
+      <c r="D5" s="74" t="s">
+        <v>133</v>
+      </c>
+      <c r="E5" s="55"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="57"/>
+    </row>
+    <row r="6" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B6" s="76"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
+    </row>
+    <row r="7" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B7" s="76"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="57"/>
+    </row>
+    <row r="8" spans="1:14" s="53" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="76"/>
+      <c r="C8" s="73" t="s">
+        <v>128</v>
+      </c>
+      <c r="D8" s="74" t="s">
+        <v>218</v>
+      </c>
+      <c r="E8" s="57"/>
+    </row>
+    <row r="9" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B9" s="76"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="57"/>
+    </row>
+    <row r="10" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B10" s="76"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="57"/>
+    </row>
+    <row r="11" spans="1:14" s="53" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="76"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="74"/>
+    </row>
+    <row r="12" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B12" s="76"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="74"/>
+    </row>
+    <row r="13" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B13" s="76"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="74"/>
+    </row>
+    <row r="14" spans="1:14" s="53" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="76"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="74"/>
+    </row>
+    <row r="15" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A15" s="56"/>
+      <c r="B15" s="76"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="74"/>
+    </row>
+    <row r="16" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B16" s="76"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="74"/>
+    </row>
+    <row r="17" spans="2:4" s="53" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="60"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="74"/>
+    </row>
+    <row r="18" spans="2:4" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B18" s="60"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="74"/>
+    </row>
+    <row r="19" spans="2:4" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B19" s="60"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="74"/>
+    </row>
+    <row r="20" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C20" s="73"/>
+      <c r="D20" s="74"/>
+    </row>
+    <row r="21" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C21" s="73"/>
+      <c r="D21" s="74"/>
+    </row>
+    <row r="22" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C22" s="73"/>
+      <c r="D22" s="74"/>
+    </row>
+    <row r="23" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C23" s="73"/>
+      <c r="D23" s="74"/>
+    </row>
+    <row r="24" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C24" s="73"/>
+      <c r="D24" s="74"/>
+    </row>
+    <row r="25" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C25" s="73"/>
+      <c r="D25" s="74"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B16"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.375" customWidth="1"/>
+    <col min="3" max="3" width="17.625" customWidth="1"/>
+    <col min="4" max="4" width="29.375" customWidth="1"/>
+    <col min="7" max="7" width="32" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="53" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="J1" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="53" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="75" t="s">
+        <v>228</v>
+      </c>
+      <c r="B2" s="76"/>
+      <c r="C2" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="79"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+    </row>
+    <row r="3" spans="1:14" s="53" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="75"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="78"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+    </row>
+    <row r="4" spans="1:14" s="53" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="75"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="55"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+    </row>
+    <row r="5" spans="1:14" s="53" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="76"/>
+      <c r="C5" s="73" t="s">
+        <v>219</v>
+      </c>
+      <c r="D5" s="74" t="s">
+        <v>220</v>
+      </c>
+      <c r="E5" s="55"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="57"/>
+    </row>
+    <row r="6" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B6" s="76"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
+    </row>
+    <row r="7" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B7" s="76"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="57"/>
+    </row>
+    <row r="8" spans="1:14" s="53" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="76"/>
+      <c r="C8" s="73" t="s">
+        <v>221</v>
+      </c>
+      <c r="D8" s="74" t="s">
+        <v>222</v>
+      </c>
+      <c r="E8" s="57"/>
+    </row>
+    <row r="9" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B9" s="76"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="57"/>
+    </row>
+    <row r="10" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B10" s="76"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="57"/>
+    </row>
+    <row r="11" spans="1:14" s="53" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="76"/>
+      <c r="C11" s="73" t="s">
+        <v>223</v>
+      </c>
+      <c r="D11" s="74" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B12" s="76"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="74"/>
+    </row>
+    <row r="13" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B13" s="76"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="74"/>
+    </row>
+    <row r="14" spans="1:14" s="53" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="76"/>
+      <c r="C14" s="73" t="s">
+        <v>225</v>
+      </c>
+      <c r="D14" s="74" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A15" s="56"/>
+      <c r="B15" s="76"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="74"/>
+    </row>
+    <row r="16" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B16" s="76"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="74"/>
+    </row>
+    <row r="17" spans="2:4" s="53" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="60"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="74"/>
+    </row>
+    <row r="18" spans="2:4" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B18" s="60"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="74"/>
+    </row>
+    <row r="19" spans="2:4" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B19" s="60"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="74"/>
+    </row>
+    <row r="20" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C20" s="73"/>
+      <c r="D20" s="74"/>
+    </row>
+    <row r="21" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C21" s="73"/>
+      <c r="D21" s="74"/>
+    </row>
+    <row r="22" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C22" s="73"/>
+      <c r="D22" s="74"/>
+    </row>
+    <row r="23" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C23" s="73"/>
+      <c r="D23" s="74"/>
+    </row>
+    <row r="24" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C24" s="73"/>
+      <c r="D24" s="74"/>
+    </row>
+    <row r="25" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C25" s="73"/>
+      <c r="D25" s="74"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B16"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20:C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.375" customWidth="1"/>
+    <col min="3" max="3" width="17.625" customWidth="1"/>
+    <col min="4" max="4" width="29.375" customWidth="1"/>
+    <col min="7" max="7" width="32" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="53" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="J1" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="53" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="75" t="s">
+        <v>244</v>
+      </c>
+      <c r="B2" s="76"/>
+      <c r="C2" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="79" t="s">
+        <v>240</v>
+      </c>
+      <c r="F2" s="56" t="s">
+        <v>241</v>
+      </c>
+      <c r="G2" s="44" t="s">
+        <v>242</v>
+      </c>
+      <c r="H2" s="44"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+    </row>
+    <row r="3" spans="1:14" s="53" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="75"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="78"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+    </row>
+    <row r="4" spans="1:14" s="53" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="75"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="55"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+    </row>
+    <row r="5" spans="1:14" s="53" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="76"/>
+      <c r="C5" s="73" t="s">
+        <v>219</v>
+      </c>
+      <c r="D5" s="74" t="s">
+        <v>220</v>
+      </c>
+      <c r="E5" s="55"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="57"/>
+    </row>
+    <row r="6" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B6" s="76"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
+    </row>
+    <row r="7" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B7" s="76"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="57"/>
+    </row>
+    <row r="8" spans="1:14" s="53" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="76"/>
+      <c r="C8" s="73" t="s">
+        <v>221</v>
+      </c>
+      <c r="D8" s="74" t="s">
+        <v>227</v>
+      </c>
+      <c r="E8" s="57"/>
+    </row>
+    <row r="9" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B9" s="76"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="57"/>
+    </row>
+    <row r="10" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B10" s="76"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="57"/>
+    </row>
+    <row r="11" spans="1:14" s="53" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="76"/>
+      <c r="C11" s="73" t="s">
+        <v>223</v>
+      </c>
+      <c r="D11" s="74" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B12" s="76"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="74"/>
+    </row>
+    <row r="13" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B13" s="76"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="74"/>
+    </row>
+    <row r="14" spans="1:14" s="53" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="76"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="74"/>
+    </row>
+    <row r="15" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A15" s="56"/>
+      <c r="B15" s="76"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="74"/>
+    </row>
+    <row r="16" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B16" s="76"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="74"/>
+    </row>
+    <row r="17" spans="2:4" s="53" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="60"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="74"/>
+    </row>
+    <row r="18" spans="2:4" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B18" s="60"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="74"/>
+    </row>
+    <row r="19" spans="2:4" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B19" s="60"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="74"/>
+    </row>
+    <row r="20" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C20" s="73"/>
+      <c r="D20" s="74"/>
+    </row>
+    <row r="21" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C21" s="73"/>
+      <c r="D21" s="74"/>
+    </row>
+    <row r="22" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C22" s="73"/>
+      <c r="D22" s="74"/>
+    </row>
+    <row r="23" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C23" s="73"/>
+      <c r="D23" s="74"/>
+    </row>
+    <row r="24" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C24" s="73"/>
+      <c r="D24" s="74"/>
+    </row>
+    <row r="25" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C25" s="73"/>
+      <c r="D25" s="74"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B16"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17:D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.375" customWidth="1"/>
+    <col min="3" max="3" width="17.625" customWidth="1"/>
+    <col min="4" max="4" width="29.375" customWidth="1"/>
+    <col min="6" max="6" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="46.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="53" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="J1" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="53" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="75" t="s">
+        <v>229</v>
+      </c>
+      <c r="B2" s="76"/>
+      <c r="C2" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="79" t="s">
+        <v>237</v>
+      </c>
+      <c r="F2" s="44" t="s">
+        <v>238</v>
+      </c>
+      <c r="G2" s="44" t="s">
+        <v>239</v>
+      </c>
+      <c r="H2" s="61"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+    </row>
+    <row r="3" spans="1:14" s="53" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="75"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="78"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+    </row>
+    <row r="4" spans="1:14" s="53" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="75"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="55"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+    </row>
+    <row r="5" spans="1:14" s="53" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="76"/>
+      <c r="C5" s="73" t="s">
+        <v>230</v>
+      </c>
+      <c r="D5" s="74" t="s">
+        <v>231</v>
+      </c>
+      <c r="E5" s="55"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="57"/>
+    </row>
+    <row r="6" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B6" s="76"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
+    </row>
+    <row r="7" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B7" s="76"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="57"/>
+    </row>
+    <row r="8" spans="1:14" s="53" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="76"/>
+      <c r="C8" s="73" t="s">
+        <v>221</v>
+      </c>
+      <c r="D8" s="74" t="s">
+        <v>232</v>
+      </c>
+      <c r="E8" s="57"/>
+    </row>
+    <row r="9" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B9" s="76"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="57"/>
+    </row>
+    <row r="10" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B10" s="76"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="57"/>
+    </row>
+    <row r="11" spans="1:14" s="53" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="76"/>
+      <c r="C11" s="73" t="s">
+        <v>223</v>
+      </c>
+      <c r="D11" s="74" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B12" s="76"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="74"/>
+    </row>
+    <row r="13" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B13" s="76"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="74"/>
+    </row>
+    <row r="14" spans="1:14" s="53" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="76"/>
+      <c r="C14" s="73" t="s">
+        <v>233</v>
+      </c>
+      <c r="D14" s="74" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A15" s="56"/>
+      <c r="B15" s="76"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="74"/>
+    </row>
+    <row r="16" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B16" s="76"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="74"/>
+    </row>
+    <row r="17" spans="2:4" s="53" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="60"/>
+      <c r="C17" s="73" t="s">
+        <v>234</v>
+      </c>
+      <c r="D17" s="74" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B18" s="60"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="74"/>
+    </row>
+    <row r="19" spans="2:4" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B19" s="60"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="74"/>
+    </row>
+    <row r="20" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C20" s="73"/>
+      <c r="D20" s="74"/>
+    </row>
+    <row r="21" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C21" s="73"/>
+      <c r="D21" s="74"/>
+    </row>
+    <row r="22" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C22" s="73"/>
+      <c r="D22" s="74"/>
+    </row>
+    <row r="23" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C23" s="73"/>
+      <c r="D23" s="74"/>
+    </row>
+    <row r="24" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C24" s="73"/>
+      <c r="D24" s="74"/>
+    </row>
+    <row r="25" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C25" s="73"/>
+      <c r="D25" s="74"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B16"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="0" tint="-0.34998626667073579"/>
+  </sheetPr>
+  <dimension ref="A1:N15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="34" customWidth="1"/>
+    <col min="2" max="2" width="9" style="34"/>
+    <col min="3" max="3" width="22.375" style="34" customWidth="1"/>
+    <col min="4" max="4" width="31.125" style="34" customWidth="1"/>
+    <col min="5" max="5" width="37.25" style="34" customWidth="1"/>
+    <col min="6" max="6" width="12.875" style="34" customWidth="1"/>
+    <col min="7" max="7" width="15.375" style="34" customWidth="1"/>
+    <col min="8" max="8" width="56.875" style="34" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.25" style="34" customWidth="1"/>
+    <col min="10" max="10" width="29.875" style="34" customWidth="1"/>
+    <col min="11" max="11" width="27.875" style="34" customWidth="1"/>
+    <col min="12" max="12" width="9" style="34"/>
+    <col min="13" max="13" width="25" style="34" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="34"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="K1" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="26"/>
+    </row>
+    <row r="2" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="71" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="72" t="s">
+        <v>123</v>
+      </c>
+      <c r="G2" s="38"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+    </row>
+    <row r="3" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="71"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="72"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+    </row>
+    <row r="4" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="71"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="11"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+    </row>
+    <row r="5" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="43"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+    </row>
+    <row r="6" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="43"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+    </row>
+    <row r="7" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="43"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+    </row>
+    <row r="8" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="43"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+    </row>
+    <row r="9" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="43"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+    </row>
+    <row r="10" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="43"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+    </row>
+    <row r="11" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="43"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+    </row>
+    <row r="12" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="43"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="31"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+    </row>
+    <row r="13" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A13" s="43"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="31"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="15"/>
+    </row>
+    <row r="14" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="D14" s="36"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="41"/>
+    </row>
+    <row r="15" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="D15" s="36"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="66"/>
+      <c r="H15" s="42"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F14:F15"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="0" tint="-0.34998626667073579"/>
+  </sheetPr>
+  <dimension ref="A1:N15"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="34" customWidth="1"/>
+    <col min="2" max="2" width="9" style="34"/>
+    <col min="3" max="3" width="22.375" style="34" customWidth="1"/>
+    <col min="4" max="4" width="31.125" style="34" customWidth="1"/>
+    <col min="5" max="5" width="37.25" style="34" customWidth="1"/>
+    <col min="6" max="6" width="12.875" style="34" customWidth="1"/>
+    <col min="7" max="7" width="15.375" style="34" customWidth="1"/>
+    <col min="8" max="8" width="78.25" style="34" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.25" style="34" customWidth="1"/>
+    <col min="10" max="10" width="15.5" style="34" customWidth="1"/>
+    <col min="11" max="11" width="27.875" style="34" customWidth="1"/>
+    <col min="12" max="12" width="9" style="34"/>
+    <col min="13" max="13" width="25" style="34" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="34"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="K1" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="26"/>
+    </row>
+    <row r="2" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="71" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="72" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="H2" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+    </row>
+    <row r="3" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="71"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="72"/>
+      <c r="G3" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="H3" s="33"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+    </row>
+    <row r="4" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="71"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="11"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+    </row>
+    <row r="5" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="43"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="72" t="s">
+        <v>108</v>
+      </c>
+      <c r="G5" s="32"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+    </row>
+    <row r="6" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="43"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+    </row>
+    <row r="7" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="43"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+    </row>
+    <row r="8" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="43"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+    </row>
+    <row r="9" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="43"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+    </row>
+    <row r="10" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="43"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+    </row>
+    <row r="11" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="43"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+    </row>
+    <row r="12" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="43"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="31"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+    </row>
+    <row r="13" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A13" s="43"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="31"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="15"/>
+    </row>
+    <row r="14" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="D14" s="36"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="41"/>
+    </row>
+    <row r="15" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="D15" s="36"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="66"/>
+      <c r="H15" s="42"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4400,18 +11216,18 @@
       <c r="N1" s="26"/>
     </row>
     <row r="2" spans="1:14" s="34" customFormat="1" ht="30" x14ac:dyDescent="0.15">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="71" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
       <c r="D2" s="30" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="F2" s="68" t="s">
+      <c r="F2" s="72" t="s">
         <v>72</v>
       </c>
       <c r="G2" s="38" t="s">
@@ -4432,16 +11248,16 @@
       <c r="N2" s="11"/>
     </row>
     <row r="3" spans="1:14" s="34" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="67"/>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
+      <c r="A3" s="71"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
       <c r="D3" s="30" t="s">
         <v>23</v>
       </c>
       <c r="E3" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="68"/>
+      <c r="F3" s="72"/>
       <c r="G3" s="38"/>
       <c r="H3" s="33"/>
       <c r="I3" s="11"/>
@@ -4452,9 +11268,9 @@
       <c r="N3" s="11"/>
     </row>
     <row r="4" spans="1:14" s="34" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="67"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
+      <c r="A4" s="71"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
       <c r="D4" s="30" t="s">
         <v>31</v>
       </c>
@@ -4647,18 +11463,18 @@
       <c r="N1" s="26"/>
     </row>
     <row r="2" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="71" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
       <c r="D2" s="30" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="68" t="s">
+      <c r="F2" s="72" t="s">
         <v>72</v>
       </c>
       <c r="G2" s="38" t="s">
@@ -4679,16 +11495,16 @@
       <c r="N2" s="11"/>
     </row>
     <row r="3" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="67"/>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
+      <c r="A3" s="71"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
       <c r="D3" s="30" t="s">
         <v>23</v>
       </c>
       <c r="E3" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="68"/>
+      <c r="F3" s="72"/>
       <c r="G3" s="38" t="s">
         <v>72</v>
       </c>
@@ -4705,9 +11521,9 @@
       <c r="N3" s="11"/>
     </row>
     <row r="4" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="67"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
+      <c r="A4" s="71"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
       <c r="D4" s="30" t="s">
         <v>31</v>
       </c>
@@ -4861,14 +11677,14 @@
     <row r="14" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
       <c r="D14" s="36"/>
       <c r="E14" s="31"/>
-      <c r="F14" s="62"/>
+      <c r="F14" s="66"/>
       <c r="G14" s="40"/>
       <c r="H14" s="41"/>
     </row>
     <row r="15" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
       <c r="D15" s="36"/>
       <c r="E15" s="31"/>
-      <c r="F15" s="62"/>
+      <c r="F15" s="66"/>
       <c r="H15" s="42"/>
     </row>
   </sheetData>
@@ -4886,315 +11702,6 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N15"/>
-  <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="9" style="34" customWidth="1"/>
-    <col min="2" max="2" width="9" style="34"/>
-    <col min="3" max="3" width="22.375" style="34" customWidth="1"/>
-    <col min="4" max="4" width="31.125" style="34" customWidth="1"/>
-    <col min="5" max="5" width="37.25" style="34" customWidth="1"/>
-    <col min="6" max="6" width="12.875" style="34" customWidth="1"/>
-    <col min="7" max="7" width="15.375" style="34" customWidth="1"/>
-    <col min="8" max="8" width="78.25" style="34" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.25" style="34" customWidth="1"/>
-    <col min="10" max="10" width="15.5" style="34" customWidth="1"/>
-    <col min="11" max="11" width="27.875" style="34" customWidth="1"/>
-    <col min="12" max="12" width="9" style="34"/>
-    <col min="13" max="13" width="25" style="34" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="34"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="K1" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" s="26"/>
-    </row>
-    <row r="2" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="67" t="s">
-        <v>93</v>
-      </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="68" t="s">
-        <v>72</v>
-      </c>
-      <c r="G2" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="H2" s="44" t="s">
-        <v>124</v>
-      </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-    </row>
-    <row r="3" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="67"/>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="68"/>
-      <c r="G3" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="H3" s="33"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-    </row>
-    <row r="4" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="67"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-    </row>
-    <row r="5" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="43"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="68" t="s">
-        <v>108</v>
-      </c>
-      <c r="G5" s="32"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-    </row>
-    <row r="6" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="43"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-    </row>
-    <row r="7" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="43"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-    </row>
-    <row r="8" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="43"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-    </row>
-    <row r="9" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="43"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-    </row>
-    <row r="10" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="43"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-    </row>
-    <row r="11" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="43"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-    </row>
-    <row r="12" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="43"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="31"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-    </row>
-    <row r="13" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="43"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="31"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="15"/>
-    </row>
-    <row r="14" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="D14" s="36"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="41"/>
-    </row>
-    <row r="15" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="D15" s="36"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="62"/>
-      <c r="H15" s="42"/>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="F2:F3"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N15"/>
   <sheetViews>
@@ -5261,18 +11768,18 @@
       <c r="N1" s="26"/>
     </row>
     <row r="2" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="71" t="s">
         <v>103</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
       <c r="D2" s="30" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="68" t="s">
+      <c r="F2" s="72" t="s">
         <v>122</v>
       </c>
       <c r="G2" s="38" t="s">
@@ -5293,16 +11800,16 @@
       <c r="N2" s="11"/>
     </row>
     <row r="3" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="67"/>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
+      <c r="A3" s="71"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
       <c r="D3" s="30" t="s">
         <v>23</v>
       </c>
       <c r="E3" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="68"/>
+      <c r="F3" s="72"/>
       <c r="G3" s="38" t="s">
         <v>72</v>
       </c>
@@ -5319,9 +11826,9 @@
       <c r="N3" s="11"/>
     </row>
     <row r="4" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="67"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
+      <c r="A4" s="71"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
       <c r="D4" s="30" t="s">
         <v>31</v>
       </c>
@@ -5476,14 +11983,14 @@
     <row r="14" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
       <c r="D14" s="36"/>
       <c r="E14" s="31"/>
-      <c r="F14" s="62"/>
+      <c r="F14" s="66"/>
       <c r="G14" s="40"/>
       <c r="H14" s="41"/>
     </row>
     <row r="15" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
       <c r="D15" s="36"/>
       <c r="E15" s="31"/>
-      <c r="F15" s="62"/>
+      <c r="F15" s="66"/>
       <c r="H15" s="42"/>
     </row>
   </sheetData>
@@ -5500,7 +12007,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N15"/>
   <sheetViews>
@@ -5567,18 +12074,18 @@
       <c r="N1" s="26"/>
     </row>
     <row r="2" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="71" t="s">
         <v>99</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
       <c r="D2" s="30" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="68" t="s">
+      <c r="F2" s="72" t="s">
         <v>120</v>
       </c>
       <c r="G2" s="38"/>
@@ -5591,16 +12098,16 @@
       <c r="N2" s="11"/>
     </row>
     <row r="3" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="67"/>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
+      <c r="A3" s="71"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
       <c r="D3" s="30" t="s">
         <v>23</v>
       </c>
       <c r="E3" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="68"/>
+      <c r="F3" s="72"/>
       <c r="G3" s="38"/>
       <c r="H3" s="33"/>
       <c r="I3" s="11"/>
@@ -5611,9 +12118,9 @@
       <c r="N3" s="11"/>
     </row>
     <row r="4" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="67"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
+      <c r="A4" s="71"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
       <c r="D4" s="30" t="s">
         <v>31</v>
       </c>
@@ -5768,14 +12275,14 @@
     <row r="14" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
       <c r="D14" s="36"/>
       <c r="E14" s="31"/>
-      <c r="F14" s="62"/>
+      <c r="F14" s="66"/>
       <c r="G14" s="40"/>
       <c r="H14" s="41"/>
     </row>
     <row r="15" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
       <c r="D15" s="36"/>
       <c r="E15" s="31"/>
-      <c r="F15" s="62"/>
+      <c r="F15" s="66"/>
       <c r="H15" s="42"/>
     </row>
   </sheetData>
@@ -5792,12 +12299,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="C10:K16"/>
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5859,18 +12366,18 @@
       <c r="N1" s="26"/>
     </row>
     <row r="2" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="71" t="s">
         <v>100</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
       <c r="D2" s="30" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="68" t="s">
+      <c r="F2" s="72" t="s">
         <v>121</v>
       </c>
       <c r="G2" s="38"/>
@@ -5883,16 +12390,16 @@
       <c r="N2" s="11"/>
     </row>
     <row r="3" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="67"/>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
+      <c r="A3" s="71"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
       <c r="D3" s="30" t="s">
         <v>23</v>
       </c>
       <c r="E3" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="68"/>
+      <c r="F3" s="72"/>
       <c r="G3" s="38"/>
       <c r="H3" s="33"/>
       <c r="I3" s="11"/>
@@ -5903,9 +12410,9 @@
       <c r="N3" s="11"/>
     </row>
     <row r="4" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="67"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
+      <c r="A4" s="71"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
       <c r="D4" s="30" t="s">
         <v>31</v>
       </c>
@@ -6060,14 +12567,14 @@
     <row r="14" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
       <c r="D14" s="36"/>
       <c r="E14" s="31"/>
-      <c r="F14" s="62"/>
+      <c r="F14" s="66"/>
       <c r="G14" s="40"/>
       <c r="H14" s="41"/>
     </row>
     <row r="15" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
       <c r="D15" s="36"/>
       <c r="E15" s="31"/>
-      <c r="F15" s="62"/>
+      <c r="F15" s="66"/>
       <c r="H15" s="42"/>
     </row>
   </sheetData>
@@ -6084,30 +12591,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N37"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="22.125" style="53" customWidth="1"/>
-    <col min="2" max="2" width="27.125" style="53" customWidth="1"/>
-    <col min="3" max="3" width="15.75" style="53" customWidth="1"/>
-    <col min="4" max="4" width="29.375" style="53" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="53" customWidth="1"/>
-    <col min="6" max="6" width="11.625" style="53" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="70.375" style="53" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.125" style="53" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" style="53"/>
-    <col min="10" max="10" width="14.125" style="53" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="53"/>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.375" customWidth="1"/>
+    <col min="3" max="3" width="18.375" customWidth="1"/>
+    <col min="4" max="4" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="53" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -6143,122 +12643,90 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="71" t="s">
-        <v>132</v>
-      </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="52" t="s">
+    <row r="2" spans="1:14" s="53" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="75" t="s">
+        <v>154</v>
+      </c>
+      <c r="B2" s="76"/>
+      <c r="C2" s="62" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="55" t="s">
-        <v>138</v>
-      </c>
-      <c r="F2" s="56" t="s">
-        <v>152</v>
-      </c>
-      <c r="G2" s="44" t="s">
-        <v>139</v>
-      </c>
+      <c r="E2" s="55"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="44"/>
       <c r="H2" s="61"/>
-      <c r="J2" s="44" t="s">
-        <v>147</v>
-      </c>
+      <c r="J2" s="44"/>
       <c r="K2" s="57"/>
       <c r="L2" s="57"/>
       <c r="M2" s="57"/>
       <c r="N2" s="57"/>
     </row>
-    <row r="3" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="71"/>
-      <c r="B3" s="72"/>
-      <c r="C3" s="52" t="s">
+    <row r="3" spans="1:14" s="53" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="75"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="62" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="55" t="s">
-        <v>140</v>
-      </c>
-      <c r="F3" s="56" t="s">
-        <v>141</v>
-      </c>
-      <c r="G3" s="44" t="s">
-        <v>151</v>
-      </c>
+      <c r="E3" s="55"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="44"/>
       <c r="H3" s="61"/>
       <c r="I3" s="57"/>
-      <c r="J3" s="44" t="s">
-        <v>148</v>
-      </c>
+      <c r="J3" s="44"/>
       <c r="K3" s="57"/>
       <c r="L3" s="57"/>
       <c r="M3" s="57"/>
       <c r="N3" s="57"/>
     </row>
-    <row r="4" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="71"/>
-      <c r="B4" s="72"/>
-      <c r="C4" s="58" t="s">
+    <row r="4" spans="1:14" s="53" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="75"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="63" t="s">
         <v>31</v>
       </c>
       <c r="D4" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="55" t="s">
-        <v>142</v>
-      </c>
-      <c r="F4" s="56" t="s">
-        <v>143</v>
-      </c>
-      <c r="G4" s="44" t="s">
-        <v>144</v>
-      </c>
+      <c r="E4" s="55"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="44"/>
       <c r="H4" s="61"/>
       <c r="I4" s="57"/>
-      <c r="J4" s="44" t="s">
-        <v>149</v>
-      </c>
+      <c r="J4" s="44"/>
       <c r="K4" s="57"/>
       <c r="L4" s="57"/>
       <c r="M4" s="57"/>
       <c r="N4" s="57"/>
     </row>
-    <row r="5" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="72"/>
-      <c r="C5" s="69" t="s">
-        <v>127</v>
-      </c>
-      <c r="D5" s="70" t="s">
-        <v>133</v>
-      </c>
-      <c r="E5" s="55" t="s">
-        <v>145</v>
-      </c>
-      <c r="F5" s="56" t="s">
-        <v>153</v>
-      </c>
-      <c r="G5" s="44" t="s">
-        <v>146</v>
-      </c>
+    <row r="5" spans="1:14" s="53" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="76"/>
+      <c r="C5" s="73" t="s">
+        <v>155</v>
+      </c>
+      <c r="D5" s="74" t="s">
+        <v>156</v>
+      </c>
+      <c r="E5" s="55"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="44"/>
       <c r="H5" s="61"/>
       <c r="I5" s="57"/>
-      <c r="J5" s="44" t="s">
-        <v>150</v>
-      </c>
+      <c r="J5" s="44"/>
       <c r="K5" s="57"/>
       <c r="L5" s="57"/>
       <c r="M5" s="57"/>
       <c r="N5" s="57"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B6" s="72"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="70"/>
+    <row r="6" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B6" s="76"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="74"/>
       <c r="E6" s="55"/>
       <c r="F6" s="56"/>
       <c r="G6" s="44"/>
@@ -6270,158 +12738,341 @@
       <c r="M6" s="57"/>
       <c r="N6" s="57"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B7" s="72"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="70"/>
+    <row r="7" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B7" s="76"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="74"/>
       <c r="E7" s="57"/>
     </row>
-    <row r="8" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="72"/>
-      <c r="C8" s="69" t="s">
-        <v>128</v>
-      </c>
-      <c r="D8" s="70" t="s">
-        <v>134</v>
+    <row r="8" spans="1:14" s="53" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="76"/>
+      <c r="C8" s="73" t="s">
+        <v>157</v>
+      </c>
+      <c r="D8" s="74" t="s">
+        <v>158</v>
       </c>
       <c r="E8" s="57"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B9" s="72"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="70"/>
+    <row r="9" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B9" s="76"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="74"/>
       <c r="E9" s="57"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B10" s="72"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="70"/>
+    <row r="10" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B10" s="76"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="74"/>
       <c r="E10" s="57"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B11" s="72"/>
-      <c r="C11" s="69" t="s">
-        <v>129</v>
-      </c>
-      <c r="D11" s="70" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B12" s="72"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="70"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B13" s="72"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="70"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B14" s="72"/>
-      <c r="C14" s="69" t="s">
-        <v>130</v>
-      </c>
-      <c r="D14" s="70" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" s="53" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="76"/>
+      <c r="C11" s="73" t="s">
+        <v>159</v>
+      </c>
+      <c r="D11" s="74" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B12" s="76"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="74"/>
+    </row>
+    <row r="13" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B13" s="76"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="74"/>
+    </row>
+    <row r="14" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B14" s="76"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="74"/>
+    </row>
+    <row r="15" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="56"/>
-      <c r="B15" s="72"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="70"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B16" s="72"/>
-      <c r="C16" s="69"/>
-      <c r="D16" s="70"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B15" s="76"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="74"/>
+    </row>
+    <row r="16" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B16" s="76"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="74"/>
+    </row>
+    <row r="17" spans="2:4" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B17" s="60"/>
-      <c r="C17" s="69" t="s">
-        <v>131</v>
-      </c>
-      <c r="D17" s="70" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C17" s="73"/>
+      <c r="D17" s="74"/>
+    </row>
+    <row r="18" spans="2:4" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B18" s="60"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="70"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C18" s="73"/>
+      <c r="D18" s="74"/>
+    </row>
+    <row r="19" spans="2:4" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B19" s="60"/>
-      <c r="C19" s="69"/>
-      <c r="D19" s="70"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B20" s="60"/>
-      <c r="C20" s="69"/>
-      <c r="D20" s="70"/>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B21" s="60"/>
-      <c r="C21" s="69"/>
-      <c r="D21" s="70"/>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B22" s="60"/>
-      <c r="C22" s="69"/>
-      <c r="D22" s="70"/>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B23" s="60"/>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B24" s="60"/>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B25" s="60"/>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B26" s="60"/>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B27" s="60"/>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B28" s="60"/>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B29" s="60"/>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B30" s="60"/>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B31" s="60"/>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B32" s="60"/>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B33" s="60"/>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B34" s="60"/>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B35" s="60"/>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B36" s="60"/>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B37" s="60"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="74"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="12">
     <mergeCell ref="C17:C19"/>
     <mergeCell ref="D17:D19"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B16"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.375" customWidth="1"/>
+    <col min="3" max="3" width="18.375" customWidth="1"/>
+    <col min="4" max="4" width="18.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="53" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="J1" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="53" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="75" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" s="76"/>
+      <c r="C2" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="77" t="s">
+        <v>165</v>
+      </c>
+      <c r="F2" s="56" t="s">
+        <v>166</v>
+      </c>
+      <c r="G2" s="44" t="s">
+        <v>169</v>
+      </c>
+      <c r="H2" s="61"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+    </row>
+    <row r="3" spans="1:14" s="53" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="75"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="77"/>
+      <c r="F3" s="56" t="s">
+        <v>167</v>
+      </c>
+      <c r="G3" s="44" t="s">
+        <v>168</v>
+      </c>
+      <c r="H3" s="61"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+    </row>
+    <row r="4" spans="1:14" s="53" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="75"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="55"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+    </row>
+    <row r="5" spans="1:14" s="53" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="76"/>
+      <c r="C5" s="73" t="s">
+        <v>162</v>
+      </c>
+      <c r="D5" s="74" t="s">
+        <v>133</v>
+      </c>
+      <c r="E5" s="55"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="57"/>
+    </row>
+    <row r="6" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B6" s="76"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
+    </row>
+    <row r="7" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B7" s="76"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="57"/>
+    </row>
+    <row r="8" spans="1:14" s="53" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="76"/>
+      <c r="C8" s="73" t="s">
+        <v>163</v>
+      </c>
+      <c r="D8" s="74" t="s">
+        <v>164</v>
+      </c>
+      <c r="E8" s="57"/>
+    </row>
+    <row r="9" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B9" s="76"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="57"/>
+    </row>
+    <row r="10" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B10" s="76"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="57"/>
+    </row>
+    <row r="11" spans="1:14" s="53" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="76"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="74"/>
+    </row>
+    <row r="12" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B12" s="76"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="74"/>
+    </row>
+    <row r="13" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B13" s="76"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="74"/>
+    </row>
+    <row r="14" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B14" s="76"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="74"/>
+    </row>
+    <row r="15" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A15" s="56"/>
+      <c r="B15" s="76"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="74"/>
+    </row>
+    <row r="16" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B16" s="76"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="74"/>
+    </row>
+    <row r="17" spans="2:4" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B17" s="60"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="74"/>
+    </row>
+    <row r="18" spans="2:4" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B18" s="60"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="74"/>
+    </row>
+    <row r="19" spans="2:4" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B19" s="60"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="74"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="E2:E3"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:B16"/>
     <mergeCell ref="C5:C7"/>

--- a/gd/副本内容设计/第五、六章美术需求.xlsx
+++ b/gd/副本内容设计/第五、六章美术需求.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24075" windowHeight="12450" firstSheet="11" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24075" windowHeight="12450" firstSheet="7" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="规范" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,6 @@
     <sheet name="xgDatiangou3——补充大招" sheetId="2" r:id="rId25"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -49,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="247">
   <si>
     <t>id</t>
   </si>
@@ -1049,39 +1048,91 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>大招</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dazhaoxuanyao</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dazhao</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未找到</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不是很像物理点点点大招炫耀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bosschaoxue53Xiaochou3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>弱点1（挂接点）+mesh</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>武器，挂接点名：wp_weapon，mesh名称：mesh_weapon</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>弱点2（挂接点）</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>灵魂之源，挂接点名：wp_soul</t>
+    <t>弱点3（挂接点）</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>大招</t>
+    <t>bosschaoxue54Bingyan3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>dazhaoxuanyao</t>
+    <t>弱点4（挂接点）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱点5（挂接点）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱点6（挂接点）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱点7（挂接点）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>头，挂接点名：wp_head2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossbianxing</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>dazhao</t>
+    <t>变形</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>未找到</t>
+    <t>表示怪物在切换状态时，重塑身体</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>不是很像物理点点点大招炫耀</t>
+    <t>boss技能4</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>bosschaoxue53Xiaochou3</t>
+    <t>bosschaoxue55Sheshou3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bosschaoxue56Huoniao3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1089,35 +1140,232 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>武器，挂接点名：wp_weapon，mesh名称：mesh_weapon</t>
+    <t>右羽毛，挂接点名：wp_rfeather，mesh名称：mesh_rfeather</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中羽毛，挂接点名：wp_mfeather，mesh名称：mesh_mfeather</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>左羽毛，挂接点名：wp_lfeather，mesh名称：mesh_lfeather</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bosschaoxue57Wendige3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>右角，挂接点名：wp_rhorn，mesh名称：mesh_rhorn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱点4（挂接点）</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>弱点2（挂接点）</t>
+    <t>左角，挂接点名：wp_lhorn，mesh名称：mesh_lhorn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>心脏，挂接点名：wp_heart</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossminghe61Dujiaoshou5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱点4（挂接点）</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>角，挂接点名：wp_horn，mesh名称：mesh_horn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossminghe62Anpusha5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>心，挂接点名：wp_heart，mesh名称：mesh_heart</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossminghe63Ifrit5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器，挂接点名：wp_stone，mesh名称：mesh_stone</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>右裤脚，挂接点名：wp_rleg，mesh名称：mesh_rleg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>左裤脚，挂接点名：wp_lleg，mesh名称：mesh_lleg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossminghe64Nvyao5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>面具，挂接点名：wp_mask，mesh名称：mesh_mask</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>弱点3（挂接点）</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>bosschaoxue54Bingyan3</t>
+    <t>头，挂接点名：wp_head</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>弱点4（挂接点）</t>
+    <t>弱点5（挂接点）+mesh</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>弱点5（挂接点）</t>
+    <t>右魂器，挂接点名：wp_rhorcrux，mesh名称：mesh_rhorcrux</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>左魂器，挂接点名：wp_lhorcrux，mesh名称：mesh_lhorcrux</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossminghe65Weitianshi5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>光环，挂接点名：wp_aura，mesh名称：mesh_aura</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱点1（挂接点）+mesh</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>弱点6（挂接点）</t>
+    <t>身体，挂接点名：wp_body，mesh名称：mesh_body</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>弱点7（挂接点）</t>
+    <t>弱点2（挂接点）+mesh</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>中头，挂接点名：wp_mhead，mesh名称：mesh_mhead</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱点3（挂接点）+mesh</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>右头，挂接点名：wp_rhead，mesh名称：mesh_rhead</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱点4（挂接点）+mesh</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>左头，挂接点名：wp_lhead，mesh名称：mesh_lhead</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>兔子，挂接点名：wp_rabbit，mesh名称：mesh_rabbit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossminghe66Saibulesi5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossminghe68Karong5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱点1（挂接点）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>女孩，挂接点名：wp_girl，mesh名称：mesh_girl</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝石，挂接点名：wp_gem，mesh名称：mesh_gem</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱点4（挂接点）+mesh</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱点5（挂接点）+mesh</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>右爪，挂接点名：wp_rpaw，mesh名称：mesh_rpaw</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>左爪，挂接点名：wp_lpaw，mesh名称：mesh_lpaw</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>表现</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_shuijingqiusi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>改为和2_daiji一样，女孩不是倒下而是瘫坐在地上（用作状态机1,2之间的转换）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss技能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>愤怒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升自身XX%智力，持续999回合</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossfennu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossminghe67Change5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>吊坠，挂接点名：wp_pendant，mesh名称：mesh_pendant</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>身体，挂接点名：wp_body，mesh名称：mesh_body</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵魂之源，挂接点名：wp_soul，mesh名称：mesh_soul</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱点1（挂接点）+mesh</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱点2（挂接点）
++mesh</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -1125,264 +1373,16 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>右臂，挂接点名：wp_rleg1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>左臂，挂接点名：wp_lleg1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>头，挂接点名：wp_head2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>右臂，挂接点名：wp_rleg2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>左臂，挂接点名：wp_lleg2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>bossbianxing</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>变形</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>表示怪物在切换状态时，重塑身体</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>boss技能4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bosschaoxue55Sheshou3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bosschaoxue56Huoniao3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>弱点1（挂接点）+mesh</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>右羽毛，挂接点名：wp_rfeather，mesh名称：mesh_rfeather</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>中羽毛，挂接点名：wp_mfeather，mesh名称：mesh_mfeather</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>左羽毛，挂接点名：wp_lfeather，mesh名称：mesh_lfeather</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bosschaoxue57Wendige3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>右角，挂接点名：wp_rhorn，mesh名称：mesh_rhorn</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>弱点4（挂接点）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>左角，挂接点名：wp_lhorn，mesh名称：mesh_lhorn</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>心脏，挂接点名：wp_heart</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bossminghe61Dujiaoshou5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>弱点4（挂接点）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>角，挂接点名：wp_horn，mesh名称：mesh_horn</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bossminghe62Anpusha5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>心，挂接点名：wp_heart，mesh名称：mesh_heart</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bossminghe63Ifrit5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>武器，挂接点名：wp_stone，mesh名称：mesh_stone</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>右裤脚，挂接点名：wp_rleg，mesh名称：mesh_rleg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>左裤脚，挂接点名：wp_lleg，mesh名称：mesh_lleg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bossminghe64Nvyao5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>面具，挂接点名：wp_mask，mesh名称：mesh_mask</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>弱点3（挂接点）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>头，挂接点名：wp_head</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>弱点5（挂接点）+mesh</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>右魂器，挂接点名：wp_rhorcrux，mesh名称：mesh_rhorcrux</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>左魂器，挂接点名：wp_lhorcrux，mesh名称：mesh_lhorcrux</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bossminghe65Weitianshi5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>光环，挂接点名：wp_aura，mesh名称：mesh_aura</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>弱点1（挂接点）+mesh</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>身体，挂接点名：wp_body，mesh名称：mesh_body</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>弱点2（挂接点）+mesh</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>中头，挂接点名：wp_mhead，mesh名称：mesh_mhead</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>弱点3（挂接点）+mesh</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>右头，挂接点名：wp_rhead，mesh名称：mesh_rhead</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>弱点4（挂接点）+mesh</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>左头，挂接点名：wp_lhead，mesh名称：mesh_lhead</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>兔子，挂接点名：wp_rabbit，mesh名称：mesh_rabbit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bossminghe66Saibulesi5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bossminghe68Karong5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>弱点1（挂接点）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>女孩，挂接点名：wp_girl，mesh名称：mesh_girl</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>宝石，挂接点名：wp_gem，mesh名称：mesh_gem</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>弱点4（挂接点）+mesh</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>弱点5（挂接点）+mesh</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>右爪，挂接点名：wp_rpaw，mesh名称：mesh_rpaw</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>左爪，挂接点名：wp_lpaw，mesh名称：mesh_lpaw</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>表现</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_shuijingqiusi</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>改为和2_daiji一样，女孩不是倒下而是瘫坐在地上（用作状态机1,2之间的转换）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>boss技能</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>愤怒</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>提升自身XX%智力，持续999回合</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bossfennu</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bossminghe67Change5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>吊坠，挂接点名：wp_pendant，mesh名称：mesh_pendant</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>右臂，挂接点名：wp_rarm1</t>
+  </si>
+  <si>
+    <t>左臂，挂接点名：wp_larm1</t>
+  </si>
+  <si>
+    <t>右臂，挂接点名：wp_rarm2</t>
+  </si>
+  <si>
+    <t>左臂，挂接点名：wp_larm2</t>
   </si>
 </sst>
 </file>
@@ -1844,6 +1844,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1879,12 +1885,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -5377,20 +5377,20 @@
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A2" s="66"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="68"/>
+      <c r="A2" s="68"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="70"/>
       <c r="H2" s="7" t="s">
         <v>15</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="67" t="s">
+      <c r="J2" s="69" t="s">
         <v>17</v>
       </c>
       <c r="K2" s="9" t="s">
@@ -5410,20 +5410,20 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A3" s="66"/>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="68"/>
+      <c r="A3" s="68"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="70"/>
       <c r="H3" s="7" t="s">
         <v>23</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="67"/>
+      <c r="J3" s="69"/>
       <c r="K3" s="9" t="s">
         <v>25</v>
       </c>
@@ -5444,20 +5444,20 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A4" s="66"/>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="68"/>
+      <c r="A4" s="68"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="70"/>
       <c r="H4" s="7" t="s">
         <v>31</v>
       </c>
       <c r="I4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="67"/>
+      <c r="J4" s="69"/>
       <c r="K4" s="9" t="s">
         <v>33</v>
       </c>
@@ -5478,20 +5478,20 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A5" s="66"/>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="67" t="s">
+      <c r="A5" s="68"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="I5" s="69" t="s">
+      <c r="I5" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="J5" s="67"/>
+      <c r="J5" s="69"/>
       <c r="K5" s="9" t="s">
         <v>39</v>
       </c>
@@ -5509,16 +5509,16 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A6" s="66"/>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="68"/>
-      <c r="H6" s="67"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="67"/>
+      <c r="A6" s="68"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="69"/>
       <c r="K6" s="9" t="s">
         <v>43</v>
       </c>
@@ -5536,16 +5536,16 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A7" s="66"/>
-      <c r="B7" s="67"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="67"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="67"/>
+      <c r="A7" s="68"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="69"/>
       <c r="K7" s="9" t="s">
         <v>47</v>
       </c>
@@ -5563,16 +5563,16 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A8" s="66"/>
-      <c r="B8" s="67"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="68"/>
+      <c r="A8" s="68"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="70"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
-      <c r="J8" s="67"/>
+      <c r="J8" s="69"/>
       <c r="K8" s="9" t="s">
         <v>51</v>
       </c>
@@ -5590,20 +5590,20 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A9" s="66"/>
-      <c r="B9" s="67"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="68"/>
-      <c r="H9" s="67" t="s">
+      <c r="A9" s="68"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="69" t="s">
         <v>55</v>
       </c>
-      <c r="I9" s="69" t="s">
+      <c r="I9" s="71" t="s">
         <v>56</v>
       </c>
-      <c r="J9" s="67"/>
+      <c r="J9" s="69"/>
       <c r="K9" s="9" t="s">
         <v>57</v>
       </c>
@@ -5621,16 +5621,16 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A10" s="66"/>
-      <c r="B10" s="67"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="68"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="67"/>
+      <c r="A10" s="68"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="69"/>
       <c r="K10" s="9" t="s">
         <v>60</v>
       </c>
@@ -5648,16 +5648,16 @@
       </c>
     </row>
     <row r="11" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="66"/>
-      <c r="B11" s="67"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="68"/>
+      <c r="A11" s="68"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="70"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
-      <c r="J11" s="67"/>
+      <c r="J11" s="69"/>
       <c r="K11" s="9" t="s">
         <v>64</v>
       </c>
@@ -5675,16 +5675,16 @@
       </c>
     </row>
     <row r="12" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="66"/>
-      <c r="B12" s="67"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="68"/>
+      <c r="A12" s="68"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="70"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
-      <c r="J12" s="67"/>
+      <c r="J12" s="69"/>
       <c r="K12" s="12" t="s">
         <v>68</v>
       </c>
@@ -5702,13 +5702,13 @@
       </c>
     </row>
     <row r="13" spans="1:17" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="66"/>
-      <c r="B13" s="67"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="68"/>
+      <c r="A13" s="68"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="70"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
@@ -5760,13 +5760,13 @@
     </row>
     <row r="19" spans="1:16" s="21" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="20" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="66"/>
-      <c r="B20" s="67"/>
-      <c r="C20" s="67"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="70" t="s">
+      <c r="A20" s="68"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="72" t="s">
         <v>80</v>
       </c>
       <c r="H20" s="7" t="s">
@@ -5775,7 +5775,7 @@
       <c r="I20" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J20" s="67" t="s">
+      <c r="J20" s="69" t="s">
         <v>17</v>
       </c>
       <c r="K20" s="9" t="s">
@@ -5795,20 +5795,20 @@
       </c>
     </row>
     <row r="21" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="66"/>
-      <c r="B21" s="67"/>
-      <c r="C21" s="67"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="70"/>
+      <c r="A21" s="68"/>
+      <c r="B21" s="69"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="68"/>
+      <c r="G21" s="72"/>
       <c r="H21" s="7" t="s">
         <v>23</v>
       </c>
       <c r="I21" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J21" s="67"/>
+      <c r="J21" s="69"/>
       <c r="K21" s="9" t="s">
         <v>25</v>
       </c>
@@ -5829,20 +5829,20 @@
       </c>
     </row>
     <row r="22" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="66"/>
-      <c r="B22" s="67"/>
-      <c r="C22" s="67"/>
-      <c r="D22" s="67"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="70"/>
+      <c r="A22" s="68"/>
+      <c r="B22" s="69"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="68"/>
+      <c r="G22" s="72"/>
       <c r="H22" s="7" t="s">
         <v>31</v>
       </c>
       <c r="I22" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="J22" s="67"/>
+      <c r="J22" s="69"/>
       <c r="K22" s="9" t="s">
         <v>33</v>
       </c>
@@ -5863,20 +5863,20 @@
       </c>
     </row>
     <row r="23" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="66"/>
-      <c r="B23" s="67"/>
-      <c r="C23" s="67"/>
-      <c r="D23" s="67"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="67" t="s">
+      <c r="A23" s="68"/>
+      <c r="B23" s="69"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="I23" s="69" t="s">
+      <c r="I23" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="J23" s="67"/>
+      <c r="J23" s="69"/>
       <c r="K23" s="9" t="s">
         <v>39</v>
       </c>
@@ -5894,16 +5894,16 @@
       </c>
     </row>
     <row r="24" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="66"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="67"/>
-      <c r="D24" s="67"/>
-      <c r="E24" s="67"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="67"/>
+      <c r="A24" s="68"/>
+      <c r="B24" s="69"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="68"/>
+      <c r="G24" s="72"/>
+      <c r="H24" s="69"/>
+      <c r="I24" s="71"/>
+      <c r="J24" s="69"/>
       <c r="K24" s="9" t="s">
         <v>43</v>
       </c>
@@ -5921,16 +5921,16 @@
       </c>
     </row>
     <row r="25" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="66"/>
-      <c r="B25" s="67"/>
-      <c r="C25" s="67"/>
-      <c r="D25" s="67"/>
-      <c r="E25" s="67"/>
-      <c r="F25" s="66"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="67"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="67"/>
+      <c r="A25" s="68"/>
+      <c r="B25" s="69"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="68"/>
+      <c r="G25" s="72"/>
+      <c r="H25" s="69"/>
+      <c r="I25" s="71"/>
+      <c r="J25" s="69"/>
       <c r="K25" s="9" t="s">
         <v>47</v>
       </c>
@@ -5948,16 +5948,16 @@
       </c>
     </row>
     <row r="26" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="66"/>
-      <c r="B26" s="67"/>
-      <c r="C26" s="67"/>
-      <c r="D26" s="67"/>
-      <c r="E26" s="67"/>
-      <c r="F26" s="66"/>
-      <c r="G26" s="70"/>
+      <c r="A26" s="68"/>
+      <c r="B26" s="69"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="72"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
-      <c r="J26" s="67"/>
+      <c r="J26" s="69"/>
       <c r="K26" s="9" t="s">
         <v>51</v>
       </c>
@@ -5975,20 +5975,20 @@
       </c>
     </row>
     <row r="27" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="66"/>
-      <c r="B27" s="67"/>
-      <c r="C27" s="67"/>
-      <c r="D27" s="67"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="66"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="67" t="s">
+      <c r="A27" s="68"/>
+      <c r="B27" s="69"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="68"/>
+      <c r="G27" s="72"/>
+      <c r="H27" s="69" t="s">
         <v>55</v>
       </c>
-      <c r="I27" s="69" t="s">
+      <c r="I27" s="71" t="s">
         <v>56</v>
       </c>
-      <c r="J27" s="67"/>
+      <c r="J27" s="69"/>
       <c r="K27" s="9" t="s">
         <v>57</v>
       </c>
@@ -6006,16 +6006,16 @@
       </c>
     </row>
     <row r="28" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="66"/>
-      <c r="B28" s="67"/>
-      <c r="C28" s="67"/>
-      <c r="D28" s="67"/>
-      <c r="E28" s="67"/>
-      <c r="F28" s="66"/>
-      <c r="G28" s="70"/>
-      <c r="H28" s="67"/>
-      <c r="I28" s="69"/>
-      <c r="J28" s="67"/>
+      <c r="A28" s="68"/>
+      <c r="B28" s="69"/>
+      <c r="C28" s="69"/>
+      <c r="D28" s="69"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="68"/>
+      <c r="G28" s="72"/>
+      <c r="H28" s="69"/>
+      <c r="I28" s="71"/>
+      <c r="J28" s="69"/>
       <c r="K28" s="9" t="s">
         <v>60</v>
       </c>
@@ -6033,16 +6033,16 @@
       </c>
     </row>
     <row r="29" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="66"/>
-      <c r="B29" s="67"/>
-      <c r="C29" s="67"/>
-      <c r="D29" s="67"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="66"/>
-      <c r="G29" s="70"/>
+      <c r="A29" s="68"/>
+      <c r="B29" s="69"/>
+      <c r="C29" s="69"/>
+      <c r="D29" s="69"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="68"/>
+      <c r="G29" s="72"/>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
-      <c r="J29" s="67"/>
+      <c r="J29" s="69"/>
       <c r="K29" s="9" t="s">
         <v>64</v>
       </c>
@@ -6060,16 +6060,16 @@
       </c>
     </row>
     <row r="30" spans="1:16" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="66"/>
-      <c r="B30" s="67"/>
-      <c r="C30" s="67"/>
-      <c r="D30" s="67"/>
-      <c r="E30" s="67"/>
-      <c r="F30" s="66"/>
-      <c r="G30" s="70"/>
+      <c r="A30" s="68"/>
+      <c r="B30" s="69"/>
+      <c r="C30" s="69"/>
+      <c r="D30" s="69"/>
+      <c r="E30" s="69"/>
+      <c r="F30" s="68"/>
+      <c r="G30" s="72"/>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
-      <c r="J30" s="67"/>
+      <c r="J30" s="69"/>
       <c r="K30" s="22" t="s">
         <v>83</v>
       </c>
@@ -6090,13 +6090,13 @@
       </c>
     </row>
     <row r="31" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="66"/>
-      <c r="B31" s="67"/>
-      <c r="C31" s="67"/>
-      <c r="D31" s="67"/>
-      <c r="E31" s="67"/>
-      <c r="F31" s="66"/>
-      <c r="G31" s="70"/>
+      <c r="A31" s="68"/>
+      <c r="B31" s="69"/>
+      <c r="C31" s="69"/>
+      <c r="D31" s="69"/>
+      <c r="E31" s="69"/>
+      <c r="F31" s="68"/>
+      <c r="G31" s="72"/>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
       <c r="J31" s="7" t="s">
@@ -6223,17 +6223,17 @@
       </c>
     </row>
     <row r="2" spans="1:14" s="53" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="75" t="s">
-        <v>170</v>
-      </c>
-      <c r="B2" s="76"/>
+      <c r="A2" s="77" t="s">
+        <v>167</v>
+      </c>
+      <c r="B2" s="78"/>
       <c r="C2" s="64" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="78"/>
+      <c r="E2" s="66"/>
       <c r="F2" s="56"/>
       <c r="G2" s="44"/>
       <c r="H2" s="61"/>
@@ -6244,15 +6244,15 @@
       <c r="N2" s="57"/>
     </row>
     <row r="3" spans="1:14" s="53" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="75"/>
-      <c r="B3" s="76"/>
+      <c r="A3" s="77"/>
+      <c r="B3" s="78"/>
       <c r="C3" s="64" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="78"/>
+      <c r="E3" s="66"/>
       <c r="F3" s="56"/>
       <c r="G3" s="44"/>
       <c r="H3" s="61"/>
@@ -6264,8 +6264,8 @@
       <c r="N3" s="57"/>
     </row>
     <row r="4" spans="1:14" s="53" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="75"/>
-      <c r="B4" s="76"/>
+      <c r="A4" s="77"/>
+      <c r="B4" s="78"/>
       <c r="C4" s="65" t="s">
         <v>31</v>
       </c>
@@ -6284,11 +6284,11 @@
       <c r="N4" s="57"/>
     </row>
     <row r="5" spans="1:14" s="53" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="76"/>
-      <c r="C5" s="73" t="s">
-        <v>171</v>
-      </c>
-      <c r="D5" s="74" t="s">
+      <c r="B5" s="78"/>
+      <c r="C5" s="75" t="s">
+        <v>168</v>
+      </c>
+      <c r="D5" s="76" t="s">
         <v>133</v>
       </c>
       <c r="E5" s="55"/>
@@ -6303,9 +6303,9 @@
       <c r="N5" s="57"/>
     </row>
     <row r="6" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B6" s="76"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="74"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="76"/>
       <c r="E6" s="55"/>
       <c r="F6" s="56"/>
       <c r="G6" s="44"/>
@@ -6318,78 +6318,78 @@
       <c r="N6" s="57"/>
     </row>
     <row r="7" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B7" s="76"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="74"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="76"/>
       <c r="E7" s="57"/>
     </row>
     <row r="8" spans="1:14" s="53" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="76"/>
-      <c r="C8" s="73" t="s">
+      <c r="B8" s="78"/>
+      <c r="C8" s="75" t="s">
         <v>128</v>
       </c>
-      <c r="D8" s="74" t="s">
-        <v>172</v>
+      <c r="D8" s="76" t="s">
+        <v>169</v>
       </c>
       <c r="E8" s="57"/>
     </row>
     <row r="9" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B9" s="76"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="74"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="76"/>
       <c r="E9" s="57"/>
     </row>
     <row r="10" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B10" s="76"/>
-      <c r="C10" s="73"/>
-      <c r="D10" s="74"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="76"/>
       <c r="E10" s="57"/>
     </row>
     <row r="11" spans="1:14" s="53" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="76"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="74"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="76"/>
     </row>
     <row r="12" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B12" s="76"/>
-      <c r="C12" s="73"/>
-      <c r="D12" s="74"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="76"/>
     </row>
     <row r="13" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B13" s="76"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="74"/>
+      <c r="B13" s="78"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="76"/>
     </row>
     <row r="14" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B14" s="76"/>
-      <c r="C14" s="73"/>
-      <c r="D14" s="74"/>
+      <c r="B14" s="78"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="76"/>
     </row>
     <row r="15" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="56"/>
-      <c r="B15" s="76"/>
-      <c r="C15" s="73"/>
-      <c r="D15" s="74"/>
+      <c r="B15" s="78"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="76"/>
     </row>
     <row r="16" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B16" s="76"/>
-      <c r="C16" s="73"/>
-      <c r="D16" s="74"/>
+      <c r="B16" s="78"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="76"/>
     </row>
     <row r="17" spans="2:4" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B17" s="60"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="74"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="76"/>
     </row>
     <row r="18" spans="2:4" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B18" s="60"/>
-      <c r="C18" s="73"/>
-      <c r="D18" s="74"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="76"/>
     </row>
     <row r="19" spans="2:4" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B19" s="60"/>
-      <c r="C19" s="73"/>
-      <c r="D19" s="74"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -6416,8 +6416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6467,28 +6467,28 @@
       </c>
     </row>
     <row r="2" spans="1:14" s="53" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="75" t="s">
-        <v>175</v>
-      </c>
-      <c r="B2" s="76"/>
+      <c r="A2" s="77" t="s">
+        <v>172</v>
+      </c>
+      <c r="B2" s="78"/>
       <c r="C2" s="64" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="78" t="s">
-        <v>189</v>
+      <c r="E2" s="66" t="s">
+        <v>181</v>
       </c>
       <c r="F2" s="56" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="G2" s="44" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="H2" s="61"/>
       <c r="J2" s="56" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="K2" s="57"/>
       <c r="L2" s="57"/>
@@ -6496,15 +6496,15 @@
       <c r="N2" s="57"/>
     </row>
     <row r="3" spans="1:14" s="53" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="75"/>
-      <c r="B3" s="76"/>
+      <c r="A3" s="77"/>
+      <c r="B3" s="78"/>
       <c r="C3" s="64" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="78"/>
+      <c r="E3" s="66"/>
       <c r="F3" s="56"/>
       <c r="G3" s="44"/>
       <c r="H3" s="61"/>
@@ -6516,8 +6516,8 @@
       <c r="N3" s="57"/>
     </row>
     <row r="4" spans="1:14" s="53" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="75"/>
-      <c r="B4" s="76"/>
+      <c r="A4" s="77"/>
+      <c r="B4" s="78"/>
       <c r="C4" s="65" t="s">
         <v>31</v>
       </c>
@@ -6536,11 +6536,11 @@
       <c r="N4" s="57"/>
     </row>
     <row r="5" spans="1:14" s="53" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="76"/>
-      <c r="C5" s="73" t="s">
-        <v>171</v>
-      </c>
-      <c r="D5" s="74" t="s">
+      <c r="B5" s="78"/>
+      <c r="C5" s="75" t="s">
+        <v>168</v>
+      </c>
+      <c r="D5" s="76" t="s">
         <v>133</v>
       </c>
       <c r="E5" s="55"/>
@@ -6555,9 +6555,9 @@
       <c r="N5" s="57"/>
     </row>
     <row r="6" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B6" s="76"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="74"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="76"/>
       <c r="E6" s="55"/>
       <c r="F6" s="56"/>
       <c r="G6" s="44"/>
@@ -6570,122 +6570,122 @@
       <c r="N6" s="57"/>
     </row>
     <row r="7" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B7" s="76"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="74"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="76"/>
       <c r="E7" s="57"/>
     </row>
     <row r="8" spans="1:14" s="53" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="76"/>
-      <c r="C8" s="73" t="s">
+      <c r="B8" s="78"/>
+      <c r="C8" s="75" t="s">
+        <v>170</v>
+      </c>
+      <c r="D8" s="76" t="s">
+        <v>242</v>
+      </c>
+      <c r="E8" s="57"/>
+    </row>
+    <row r="9" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B9" s="78"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="57"/>
+    </row>
+    <row r="10" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B10" s="78"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="57"/>
+    </row>
+    <row r="11" spans="1:14" s="53" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="78"/>
+      <c r="C11" s="75" t="s">
+        <v>171</v>
+      </c>
+      <c r="D11" s="76" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B12" s="78"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="76"/>
+    </row>
+    <row r="13" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B13" s="78"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="76"/>
+    </row>
+    <row r="14" spans="1:14" s="53" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="78"/>
+      <c r="C14" s="75" t="s">
         <v>173</v>
       </c>
-      <c r="D8" s="74" t="s">
-        <v>180</v>
-      </c>
-      <c r="E8" s="57"/>
-    </row>
-    <row r="9" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B9" s="76"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="74"/>
-      <c r="E9" s="57"/>
-    </row>
-    <row r="10" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B10" s="76"/>
-      <c r="C10" s="73"/>
-      <c r="D10" s="74"/>
-      <c r="E10" s="57"/>
-    </row>
-    <row r="11" spans="1:14" s="53" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="76"/>
-      <c r="C11" s="73" t="s">
-        <v>174</v>
-      </c>
-      <c r="D11" s="74" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B12" s="76"/>
-      <c r="C12" s="73"/>
-      <c r="D12" s="74"/>
-    </row>
-    <row r="13" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B13" s="76"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="74"/>
-    </row>
-    <row r="14" spans="1:14" s="53" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="76"/>
-      <c r="C14" s="73" t="s">
-        <v>176</v>
-      </c>
-      <c r="D14" s="74" t="s">
-        <v>182</v>
+      <c r="D14" s="76" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="15" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="56"/>
-      <c r="B15" s="76"/>
-      <c r="C15" s="73"/>
-      <c r="D15" s="74"/>
+      <c r="B15" s="78"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="76"/>
     </row>
     <row r="16" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B16" s="76"/>
-      <c r="C16" s="73"/>
-      <c r="D16" s="74"/>
+      <c r="B16" s="78"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="76"/>
     </row>
     <row r="17" spans="2:4" s="53" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="60"/>
-      <c r="C17" s="73" t="s">
+      <c r="C17" s="75" t="s">
+        <v>174</v>
+      </c>
+      <c r="D17" s="76" t="s">
         <v>177</v>
-      </c>
-      <c r="D17" s="74" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="18" spans="2:4" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B18" s="60"/>
-      <c r="C18" s="73"/>
-      <c r="D18" s="74"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="76"/>
     </row>
     <row r="19" spans="2:4" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B19" s="60"/>
-      <c r="C19" s="73"/>
-      <c r="D19" s="74"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="76"/>
     </row>
     <row r="20" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C20" s="73" t="s">
-        <v>178</v>
-      </c>
-      <c r="D20" s="74" t="s">
-        <v>184</v>
+      <c r="C20" s="75" t="s">
+        <v>175</v>
+      </c>
+      <c r="D20" s="76" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C21" s="73"/>
-      <c r="D21" s="74"/>
+      <c r="C21" s="75"/>
+      <c r="D21" s="76"/>
     </row>
     <row r="22" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C22" s="73"/>
-      <c r="D22" s="74"/>
+      <c r="C22" s="75"/>
+      <c r="D22" s="76"/>
     </row>
     <row r="23" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C23" s="73" t="s">
-        <v>179</v>
-      </c>
-      <c r="D23" s="74" t="s">
-        <v>185</v>
+      <c r="C23" s="75" t="s">
+        <v>176</v>
+      </c>
+      <c r="D23" s="76" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="24" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C24" s="73"/>
-      <c r="D24" s="74"/>
+      <c r="C24" s="75"/>
+      <c r="D24" s="76"/>
     </row>
     <row r="25" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C25" s="73"/>
-      <c r="D25" s="74"/>
+      <c r="C25" s="75"/>
+      <c r="D25" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -6716,8 +6716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6767,17 +6767,17 @@
       </c>
     </row>
     <row r="2" spans="1:14" s="53" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="75" t="s">
-        <v>190</v>
-      </c>
-      <c r="B2" s="76"/>
+      <c r="A2" s="77" t="s">
+        <v>182</v>
+      </c>
+      <c r="B2" s="78"/>
       <c r="C2" s="64" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="79"/>
+      <c r="E2" s="67"/>
       <c r="F2" s="44"/>
       <c r="G2" s="44"/>
       <c r="H2" s="61"/>
@@ -6789,15 +6789,15 @@
       <c r="N2" s="57"/>
     </row>
     <row r="3" spans="1:14" s="53" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="75"/>
-      <c r="B3" s="76"/>
+      <c r="A3" s="77"/>
+      <c r="B3" s="78"/>
       <c r="C3" s="64" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="78"/>
+      <c r="E3" s="66"/>
       <c r="F3" s="56"/>
       <c r="G3" s="44"/>
       <c r="H3" s="61"/>
@@ -6809,8 +6809,8 @@
       <c r="N3" s="57"/>
     </row>
     <row r="4" spans="1:14" s="53" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="75"/>
-      <c r="B4" s="76"/>
+      <c r="A4" s="77"/>
+      <c r="B4" s="78"/>
       <c r="C4" s="65" t="s">
         <v>31</v>
       </c>
@@ -6829,11 +6829,11 @@
       <c r="N4" s="57"/>
     </row>
     <row r="5" spans="1:14" s="53" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="76"/>
-      <c r="C5" s="73" t="s">
-        <v>171</v>
-      </c>
-      <c r="D5" s="74" t="s">
+      <c r="B5" s="78"/>
+      <c r="C5" s="75" t="s">
+        <v>168</v>
+      </c>
+      <c r="D5" s="76" t="s">
         <v>133</v>
       </c>
       <c r="E5" s="55"/>
@@ -6848,9 +6848,9 @@
       <c r="N5" s="57"/>
     </row>
     <row r="6" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B6" s="76"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="74"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="76"/>
       <c r="E6" s="55"/>
       <c r="F6" s="56"/>
       <c r="G6" s="44"/>
@@ -6863,102 +6863,102 @@
       <c r="N6" s="57"/>
     </row>
     <row r="7" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B7" s="76"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="74"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="76"/>
       <c r="E7" s="57"/>
     </row>
     <row r="8" spans="1:14" s="53" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="76"/>
-      <c r="C8" s="73" t="s">
+      <c r="B8" s="78"/>
+      <c r="C8" s="75" t="s">
         <v>128</v>
       </c>
-      <c r="D8" s="74" t="s">
-        <v>172</v>
+      <c r="D8" s="76" t="s">
+        <v>169</v>
       </c>
       <c r="E8" s="57"/>
     </row>
     <row r="9" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B9" s="76"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="74"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="76"/>
       <c r="E9" s="57"/>
     </row>
     <row r="10" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B10" s="76"/>
-      <c r="C10" s="73"/>
-      <c r="D10" s="74"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="76"/>
       <c r="E10" s="57"/>
     </row>
     <row r="11" spans="1:14" s="53" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="76"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="74"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="76"/>
     </row>
     <row r="12" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B12" s="76"/>
-      <c r="C12" s="73"/>
-      <c r="D12" s="74"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="76"/>
     </row>
     <row r="13" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B13" s="76"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="74"/>
+      <c r="B13" s="78"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="76"/>
     </row>
     <row r="14" spans="1:14" s="53" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="76"/>
-      <c r="C14" s="73"/>
-      <c r="D14" s="74"/>
+      <c r="B14" s="78"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="76"/>
     </row>
     <row r="15" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="56"/>
-      <c r="B15" s="76"/>
-      <c r="C15" s="73"/>
-      <c r="D15" s="74"/>
+      <c r="B15" s="78"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="76"/>
     </row>
     <row r="16" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B16" s="76"/>
-      <c r="C16" s="73"/>
-      <c r="D16" s="74"/>
+      <c r="B16" s="78"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="76"/>
     </row>
     <row r="17" spans="2:4" s="53" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="60"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="74"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="76"/>
     </row>
     <row r="18" spans="2:4" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B18" s="60"/>
-      <c r="C18" s="73"/>
-      <c r="D18" s="74"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="76"/>
     </row>
     <row r="19" spans="2:4" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B19" s="60"/>
-      <c r="C19" s="73"/>
-      <c r="D19" s="74"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="76"/>
     </row>
     <row r="20" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C20" s="73"/>
-      <c r="D20" s="74"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="76"/>
     </row>
     <row r="21" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C21" s="73"/>
-      <c r="D21" s="74"/>
+      <c r="C21" s="75"/>
+      <c r="D21" s="76"/>
     </row>
     <row r="22" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C22" s="73"/>
-      <c r="D22" s="74"/>
+      <c r="C22" s="75"/>
+      <c r="D22" s="76"/>
     </row>
     <row r="23" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C23" s="73"/>
-      <c r="D23" s="74"/>
+      <c r="C23" s="75"/>
+      <c r="D23" s="76"/>
     </row>
     <row r="24" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C24" s="73"/>
-      <c r="D24" s="74"/>
+      <c r="C24" s="75"/>
+      <c r="D24" s="76"/>
     </row>
     <row r="25" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C25" s="73"/>
-      <c r="D25" s="74"/>
+      <c r="C25" s="75"/>
+      <c r="D25" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -7040,17 +7040,17 @@
       </c>
     </row>
     <row r="2" spans="1:14" s="53" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="75" t="s">
-        <v>191</v>
-      </c>
-      <c r="B2" s="76"/>
+      <c r="A2" s="77" t="s">
+        <v>183</v>
+      </c>
+      <c r="B2" s="78"/>
       <c r="C2" s="64" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="79"/>
+      <c r="E2" s="67"/>
       <c r="F2" s="44"/>
       <c r="G2" s="44"/>
       <c r="H2" s="61"/>
@@ -7062,15 +7062,15 @@
       <c r="N2" s="57"/>
     </row>
     <row r="3" spans="1:14" s="53" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="75"/>
-      <c r="B3" s="76"/>
+      <c r="A3" s="77"/>
+      <c r="B3" s="78"/>
       <c r="C3" s="64" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="78"/>
+      <c r="E3" s="66"/>
       <c r="F3" s="56"/>
       <c r="G3" s="44"/>
       <c r="H3" s="61"/>
@@ -7082,8 +7082,8 @@
       <c r="N3" s="57"/>
     </row>
     <row r="4" spans="1:14" s="53" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="75"/>
-      <c r="B4" s="76"/>
+      <c r="A4" s="77"/>
+      <c r="B4" s="78"/>
       <c r="C4" s="65" t="s">
         <v>31</v>
       </c>
@@ -7102,11 +7102,11 @@
       <c r="N4" s="57"/>
     </row>
     <row r="5" spans="1:14" s="53" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="76"/>
-      <c r="C5" s="73" t="s">
-        <v>192</v>
-      </c>
-      <c r="D5" s="74" t="s">
+      <c r="B5" s="78"/>
+      <c r="C5" s="75" t="s">
+        <v>184</v>
+      </c>
+      <c r="D5" s="76" t="s">
         <v>133</v>
       </c>
       <c r="E5" s="55"/>
@@ -7121,9 +7121,9 @@
       <c r="N5" s="57"/>
     </row>
     <row r="6" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B6" s="76"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="74"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="76"/>
       <c r="E6" s="55"/>
       <c r="F6" s="56"/>
       <c r="G6" s="44"/>
@@ -7136,110 +7136,110 @@
       <c r="N6" s="57"/>
     </row>
     <row r="7" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B7" s="76"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="74"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="76"/>
       <c r="E7" s="57"/>
     </row>
     <row r="8" spans="1:14" s="53" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="76"/>
-      <c r="C8" s="73" t="s">
+      <c r="B8" s="78"/>
+      <c r="C8" s="75" t="s">
         <v>128</v>
       </c>
-      <c r="D8" s="74" t="s">
-        <v>193</v>
+      <c r="D8" s="76" t="s">
+        <v>185</v>
       </c>
       <c r="E8" s="57"/>
     </row>
     <row r="9" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B9" s="76"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="74"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="76"/>
       <c r="E9" s="57"/>
     </row>
     <row r="10" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B10" s="76"/>
-      <c r="C10" s="73"/>
-      <c r="D10" s="74"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="76"/>
       <c r="E10" s="57"/>
     </row>
     <row r="11" spans="1:14" s="53" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="76"/>
-      <c r="C11" s="73" t="s">
+      <c r="B11" s="78"/>
+      <c r="C11" s="75" t="s">
         <v>129</v>
       </c>
-      <c r="D11" s="74" t="s">
-        <v>194</v>
+      <c r="D11" s="76" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="12" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B12" s="76"/>
-      <c r="C12" s="73"/>
-      <c r="D12" s="74"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="76"/>
     </row>
     <row r="13" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B13" s="76"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="74"/>
+      <c r="B13" s="78"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="76"/>
     </row>
     <row r="14" spans="1:14" s="53" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="76"/>
-      <c r="C14" s="73" t="s">
+      <c r="B14" s="78"/>
+      <c r="C14" s="75" t="s">
         <v>130</v>
       </c>
-      <c r="D14" s="74" t="s">
-        <v>195</v>
+      <c r="D14" s="76" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="15" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="56"/>
-      <c r="B15" s="76"/>
-      <c r="C15" s="73"/>
-      <c r="D15" s="74"/>
+      <c r="B15" s="78"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="76"/>
     </row>
     <row r="16" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B16" s="76"/>
-      <c r="C16" s="73"/>
-      <c r="D16" s="74"/>
+      <c r="B16" s="78"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="76"/>
     </row>
     <row r="17" spans="2:4" s="53" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="60"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="74"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="76"/>
     </row>
     <row r="18" spans="2:4" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B18" s="60"/>
-      <c r="C18" s="73"/>
-      <c r="D18" s="74"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="76"/>
     </row>
     <row r="19" spans="2:4" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B19" s="60"/>
-      <c r="C19" s="73"/>
-      <c r="D19" s="74"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="76"/>
     </row>
     <row r="20" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C20" s="73"/>
-      <c r="D20" s="74"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="76"/>
     </row>
     <row r="21" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C21" s="73"/>
-      <c r="D21" s="74"/>
+      <c r="C21" s="75"/>
+      <c r="D21" s="76"/>
     </row>
     <row r="22" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C22" s="73"/>
-      <c r="D22" s="74"/>
+      <c r="C22" s="75"/>
+      <c r="D22" s="76"/>
     </row>
     <row r="23" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C23" s="73"/>
-      <c r="D23" s="74"/>
+      <c r="C23" s="75"/>
+      <c r="D23" s="76"/>
     </row>
     <row r="24" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C24" s="73"/>
-      <c r="D24" s="74"/>
+      <c r="C24" s="75"/>
+      <c r="D24" s="76"/>
     </row>
     <row r="25" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C25" s="73"/>
-      <c r="D25" s="74"/>
+      <c r="C25" s="75"/>
+      <c r="D25" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -7321,17 +7321,17 @@
       </c>
     </row>
     <row r="2" spans="1:14" s="53" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="75" t="s">
-        <v>196</v>
-      </c>
-      <c r="B2" s="76"/>
+      <c r="A2" s="77" t="s">
+        <v>188</v>
+      </c>
+      <c r="B2" s="78"/>
       <c r="C2" s="64" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="79"/>
+      <c r="E2" s="67"/>
       <c r="F2" s="44"/>
       <c r="G2" s="44"/>
       <c r="H2" s="61"/>
@@ -7343,15 +7343,15 @@
       <c r="N2" s="57"/>
     </row>
     <row r="3" spans="1:14" s="53" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="75"/>
-      <c r="B3" s="76"/>
+      <c r="A3" s="77"/>
+      <c r="B3" s="78"/>
       <c r="C3" s="64" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="78"/>
+      <c r="E3" s="66"/>
       <c r="F3" s="56"/>
       <c r="G3" s="44"/>
       <c r="H3" s="61"/>
@@ -7363,8 +7363,8 @@
       <c r="N3" s="57"/>
     </row>
     <row r="4" spans="1:14" s="53" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="75"/>
-      <c r="B4" s="76"/>
+      <c r="A4" s="77"/>
+      <c r="B4" s="78"/>
       <c r="C4" s="65" t="s">
         <v>31</v>
       </c>
@@ -7383,11 +7383,11 @@
       <c r="N4" s="57"/>
     </row>
     <row r="5" spans="1:14" s="53" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="76"/>
-      <c r="C5" s="73" t="s">
-        <v>192</v>
-      </c>
-      <c r="D5" s="74" t="s">
+      <c r="B5" s="78"/>
+      <c r="C5" s="75" t="s">
+        <v>184</v>
+      </c>
+      <c r="D5" s="76" t="s">
         <v>133</v>
       </c>
       <c r="E5" s="55"/>
@@ -7402,9 +7402,9 @@
       <c r="N5" s="57"/>
     </row>
     <row r="6" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B6" s="76"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="74"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="76"/>
       <c r="E6" s="55"/>
       <c r="F6" s="56"/>
       <c r="G6" s="44"/>
@@ -7417,110 +7417,110 @@
       <c r="N6" s="57"/>
     </row>
     <row r="7" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B7" s="76"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="74"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="76"/>
       <c r="E7" s="57"/>
     </row>
     <row r="8" spans="1:14" s="53" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="76"/>
-      <c r="C8" s="73" t="s">
+      <c r="B8" s="78"/>
+      <c r="C8" s="75" t="s">
         <v>128</v>
       </c>
-      <c r="D8" s="74" t="s">
-        <v>197</v>
+      <c r="D8" s="76" t="s">
+        <v>189</v>
       </c>
       <c r="E8" s="57"/>
     </row>
     <row r="9" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B9" s="76"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="74"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="76"/>
       <c r="E9" s="57"/>
     </row>
     <row r="10" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B10" s="76"/>
-      <c r="C10" s="73"/>
-      <c r="D10" s="74"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="76"/>
       <c r="E10" s="57"/>
     </row>
     <row r="11" spans="1:14" s="53" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="76"/>
-      <c r="C11" s="73" t="s">
+      <c r="B11" s="78"/>
+      <c r="C11" s="75" t="s">
         <v>129</v>
       </c>
-      <c r="D11" s="74" t="s">
-        <v>199</v>
+      <c r="D11" s="76" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B12" s="76"/>
-      <c r="C12" s="73"/>
-      <c r="D12" s="74"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="76"/>
     </row>
     <row r="13" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B13" s="76"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="74"/>
+      <c r="B13" s="78"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="76"/>
     </row>
     <row r="14" spans="1:14" s="53" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="76"/>
-      <c r="C14" s="73" t="s">
-        <v>198</v>
-      </c>
-      <c r="D14" s="74" t="s">
-        <v>200</v>
+      <c r="B14" s="78"/>
+      <c r="C14" s="75" t="s">
+        <v>190</v>
+      </c>
+      <c r="D14" s="76" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="56"/>
-      <c r="B15" s="76"/>
-      <c r="C15" s="73"/>
-      <c r="D15" s="74"/>
+      <c r="B15" s="78"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="76"/>
     </row>
     <row r="16" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B16" s="76"/>
-      <c r="C16" s="73"/>
-      <c r="D16" s="74"/>
+      <c r="B16" s="78"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="76"/>
     </row>
     <row r="17" spans="2:4" s="53" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="60"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="74"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="76"/>
     </row>
     <row r="18" spans="2:4" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B18" s="60"/>
-      <c r="C18" s="73"/>
-      <c r="D18" s="74"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="76"/>
     </row>
     <row r="19" spans="2:4" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B19" s="60"/>
-      <c r="C19" s="73"/>
-      <c r="D19" s="74"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="76"/>
     </row>
     <row r="20" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C20" s="73"/>
-      <c r="D20" s="74"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="76"/>
     </row>
     <row r="21" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C21" s="73"/>
-      <c r="D21" s="74"/>
+      <c r="C21" s="75"/>
+      <c r="D21" s="76"/>
     </row>
     <row r="22" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C22" s="73"/>
-      <c r="D22" s="74"/>
+      <c r="C22" s="75"/>
+      <c r="D22" s="76"/>
     </row>
     <row r="23" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C23" s="73"/>
-      <c r="D23" s="74"/>
+      <c r="C23" s="75"/>
+      <c r="D23" s="76"/>
     </row>
     <row r="24" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C24" s="73"/>
-      <c r="D24" s="74"/>
+      <c r="C24" s="75"/>
+      <c r="D24" s="76"/>
     </row>
     <row r="25" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C25" s="73"/>
-      <c r="D25" s="74"/>
+      <c r="C25" s="75"/>
+      <c r="D25" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -7607,10 +7607,10 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="77" t="s">
         <v>132</v>
       </c>
-      <c r="B2" s="76"/>
+      <c r="B2" s="78"/>
       <c r="C2" s="52" t="s">
         <v>15</v>
       </c>
@@ -7636,8 +7636,8 @@
       <c r="N2" s="57"/>
     </row>
     <row r="3" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="75"/>
-      <c r="B3" s="76"/>
+      <c r="A3" s="77"/>
+      <c r="B3" s="78"/>
       <c r="C3" s="52" t="s">
         <v>23</v>
       </c>
@@ -7664,8 +7664,8 @@
       <c r="N3" s="57"/>
     </row>
     <row r="4" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="75"/>
-      <c r="B4" s="76"/>
+      <c r="A4" s="77"/>
+      <c r="B4" s="78"/>
       <c r="C4" s="58" t="s">
         <v>31</v>
       </c>
@@ -7692,11 +7692,11 @@
       <c r="N4" s="57"/>
     </row>
     <row r="5" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="76"/>
-      <c r="C5" s="73" t="s">
+      <c r="B5" s="78"/>
+      <c r="C5" s="75" t="s">
         <v>127</v>
       </c>
-      <c r="D5" s="74" t="s">
+      <c r="D5" s="76" t="s">
         <v>133</v>
       </c>
       <c r="E5" s="55" t="s">
@@ -7719,9 +7719,9 @@
       <c r="N5" s="57"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B6" s="76"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="74"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="76"/>
       <c r="E6" s="55"/>
       <c r="F6" s="56"/>
       <c r="G6" s="44"/>
@@ -7734,105 +7734,105 @@
       <c r="N6" s="57"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B7" s="76"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="74"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="76"/>
       <c r="E7" s="57"/>
     </row>
     <row r="8" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="76"/>
-      <c r="C8" s="73" t="s">
+      <c r="B8" s="78"/>
+      <c r="C8" s="75" t="s">
         <v>128</v>
       </c>
-      <c r="D8" s="74" t="s">
+      <c r="D8" s="76" t="s">
         <v>134</v>
       </c>
       <c r="E8" s="57"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B9" s="76"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="74"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="76"/>
       <c r="E9" s="57"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B10" s="76"/>
-      <c r="C10" s="73"/>
-      <c r="D10" s="74"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="76"/>
       <c r="E10" s="57"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B11" s="76"/>
-      <c r="C11" s="73" t="s">
+      <c r="B11" s="78"/>
+      <c r="C11" s="75" t="s">
         <v>129</v>
       </c>
-      <c r="D11" s="74" t="s">
+      <c r="D11" s="76" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B12" s="76"/>
-      <c r="C12" s="73"/>
-      <c r="D12" s="74"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="76"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B13" s="76"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="74"/>
+      <c r="B13" s="78"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="76"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B14" s="76"/>
-      <c r="C14" s="73" t="s">
+      <c r="B14" s="78"/>
+      <c r="C14" s="75" t="s">
         <v>130</v>
       </c>
-      <c r="D14" s="74" t="s">
+      <c r="D14" s="76" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15" s="56"/>
-      <c r="B15" s="76"/>
-      <c r="C15" s="73"/>
-      <c r="D15" s="74"/>
+      <c r="B15" s="78"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="76"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B16" s="76"/>
-      <c r="C16" s="73"/>
-      <c r="D16" s="74"/>
+      <c r="B16" s="78"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="76"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B17" s="60"/>
-      <c r="C17" s="73" t="s">
+      <c r="C17" s="75" t="s">
         <v>131</v>
       </c>
-      <c r="D17" s="74" t="s">
+      <c r="D17" s="76" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B18" s="60"/>
-      <c r="C18" s="73"/>
-      <c r="D18" s="74"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="76"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B19" s="60"/>
-      <c r="C19" s="73"/>
-      <c r="D19" s="74"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="76"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B20" s="60"/>
-      <c r="C20" s="73"/>
-      <c r="D20" s="74"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="76"/>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B21" s="60"/>
-      <c r="C21" s="73"/>
-      <c r="D21" s="74"/>
+      <c r="C21" s="75"/>
+      <c r="D21" s="76"/>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B22" s="60"/>
-      <c r="C22" s="73"/>
-      <c r="D22" s="74"/>
+      <c r="C22" s="75"/>
+      <c r="D22" s="76"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B23" s="60"/>
@@ -7957,17 +7957,17 @@
       </c>
     </row>
     <row r="2" spans="1:14" s="53" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="75" t="s">
-        <v>201</v>
-      </c>
-      <c r="B2" s="76"/>
+      <c r="A2" s="77" t="s">
+        <v>193</v>
+      </c>
+      <c r="B2" s="78"/>
       <c r="C2" s="64" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="79"/>
+      <c r="E2" s="67"/>
       <c r="F2" s="44"/>
       <c r="G2" s="44"/>
       <c r="H2" s="61"/>
@@ -7979,15 +7979,15 @@
       <c r="N2" s="57"/>
     </row>
     <row r="3" spans="1:14" s="53" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="75"/>
-      <c r="B3" s="76"/>
+      <c r="A3" s="77"/>
+      <c r="B3" s="78"/>
       <c r="C3" s="64" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="78"/>
+      <c r="E3" s="66"/>
       <c r="F3" s="56"/>
       <c r="G3" s="44"/>
       <c r="H3" s="61"/>
@@ -7999,8 +7999,8 @@
       <c r="N3" s="57"/>
     </row>
     <row r="4" spans="1:14" s="53" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="75"/>
-      <c r="B4" s="76"/>
+      <c r="A4" s="77"/>
+      <c r="B4" s="78"/>
       <c r="C4" s="65" t="s">
         <v>31</v>
       </c>
@@ -8019,11 +8019,11 @@
       <c r="N4" s="57"/>
     </row>
     <row r="5" spans="1:14" s="53" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="76"/>
-      <c r="C5" s="73" t="s">
-        <v>192</v>
-      </c>
-      <c r="D5" s="74" t="s">
+      <c r="B5" s="78"/>
+      <c r="C5" s="75" t="s">
+        <v>184</v>
+      </c>
+      <c r="D5" s="76" t="s">
         <v>133</v>
       </c>
       <c r="E5" s="55"/>
@@ -8038,9 +8038,9 @@
       <c r="N5" s="57"/>
     </row>
     <row r="6" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B6" s="76"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="74"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="76"/>
       <c r="E6" s="55"/>
       <c r="F6" s="56"/>
       <c r="G6" s="44"/>
@@ -8053,110 +8053,110 @@
       <c r="N6" s="57"/>
     </row>
     <row r="7" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B7" s="76"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="74"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="76"/>
       <c r="E7" s="57"/>
     </row>
     <row r="8" spans="1:14" s="53" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="76"/>
-      <c r="C8" s="73" t="s">
+      <c r="B8" s="78"/>
+      <c r="C8" s="75" t="s">
         <v>128</v>
       </c>
-      <c r="D8" s="74" t="s">
-        <v>203</v>
+      <c r="D8" s="76" t="s">
+        <v>195</v>
       </c>
       <c r="E8" s="57"/>
     </row>
     <row r="9" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B9" s="76"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="74"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="76"/>
       <c r="E9" s="57"/>
     </row>
     <row r="10" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B10" s="76"/>
-      <c r="C10" s="73"/>
-      <c r="D10" s="74"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="76"/>
       <c r="E10" s="57"/>
     </row>
     <row r="11" spans="1:14" s="53" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="76"/>
-      <c r="C11" s="73" t="s">
+      <c r="B11" s="78"/>
+      <c r="C11" s="75" t="s">
         <v>129</v>
       </c>
-      <c r="D11" s="74" t="s">
+      <c r="D11" s="76" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B12" s="76"/>
-      <c r="C12" s="73"/>
-      <c r="D12" s="74"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="76"/>
     </row>
     <row r="13" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B13" s="76"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="74"/>
+      <c r="B13" s="78"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="76"/>
     </row>
     <row r="14" spans="1:14" s="53" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="76"/>
-      <c r="C14" s="73" t="s">
-        <v>202</v>
-      </c>
-      <c r="D14" s="74" t="s">
+      <c r="B14" s="78"/>
+      <c r="C14" s="75" t="s">
+        <v>194</v>
+      </c>
+      <c r="D14" s="76" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="56"/>
-      <c r="B15" s="76"/>
-      <c r="C15" s="73"/>
-      <c r="D15" s="74"/>
+      <c r="B15" s="78"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="76"/>
     </row>
     <row r="16" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B16" s="76"/>
-      <c r="C16" s="73"/>
-      <c r="D16" s="74"/>
+      <c r="B16" s="78"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="76"/>
     </row>
     <row r="17" spans="2:4" s="53" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="60"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="74"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="76"/>
     </row>
     <row r="18" spans="2:4" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B18" s="60"/>
-      <c r="C18" s="73"/>
-      <c r="D18" s="74"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="76"/>
     </row>
     <row r="19" spans="2:4" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B19" s="60"/>
-      <c r="C19" s="73"/>
-      <c r="D19" s="74"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="76"/>
     </row>
     <row r="20" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C20" s="73"/>
-      <c r="D20" s="74"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="76"/>
     </row>
     <row r="21" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C21" s="73"/>
-      <c r="D21" s="74"/>
+      <c r="C21" s="75"/>
+      <c r="D21" s="76"/>
     </row>
     <row r="22" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C22" s="73"/>
-      <c r="D22" s="74"/>
+      <c r="C22" s="75"/>
+      <c r="D22" s="76"/>
     </row>
     <row r="23" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C23" s="73"/>
-      <c r="D23" s="74"/>
+      <c r="C23" s="75"/>
+      <c r="D23" s="76"/>
     </row>
     <row r="24" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C24" s="73"/>
-      <c r="D24" s="74"/>
+      <c r="C24" s="75"/>
+      <c r="D24" s="76"/>
     </row>
     <row r="25" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C25" s="73"/>
-      <c r="D25" s="74"/>
+      <c r="C25" s="75"/>
+      <c r="D25" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -8238,17 +8238,17 @@
       </c>
     </row>
     <row r="2" spans="1:14" s="53" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="75" t="s">
-        <v>204</v>
-      </c>
-      <c r="B2" s="76"/>
+      <c r="A2" s="77" t="s">
+        <v>196</v>
+      </c>
+      <c r="B2" s="78"/>
       <c r="C2" s="64" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="79"/>
+      <c r="E2" s="67"/>
       <c r="F2" s="44"/>
       <c r="G2" s="44"/>
       <c r="H2" s="61"/>
@@ -8260,15 +8260,15 @@
       <c r="N2" s="57"/>
     </row>
     <row r="3" spans="1:14" s="53" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="75"/>
-      <c r="B3" s="76"/>
+      <c r="A3" s="77"/>
+      <c r="B3" s="78"/>
       <c r="C3" s="64" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="78"/>
+      <c r="E3" s="66"/>
       <c r="F3" s="56"/>
       <c r="G3" s="44"/>
       <c r="H3" s="61"/>
@@ -8280,8 +8280,8 @@
       <c r="N3" s="57"/>
     </row>
     <row r="4" spans="1:14" s="53" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="75"/>
-      <c r="B4" s="76"/>
+      <c r="A4" s="77"/>
+      <c r="B4" s="78"/>
       <c r="C4" s="65" t="s">
         <v>31</v>
       </c>
@@ -8300,11 +8300,11 @@
       <c r="N4" s="57"/>
     </row>
     <row r="5" spans="1:14" s="53" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="76"/>
-      <c r="C5" s="73" t="s">
-        <v>192</v>
-      </c>
-      <c r="D5" s="74" t="s">
+      <c r="B5" s="78"/>
+      <c r="C5" s="75" t="s">
+        <v>184</v>
+      </c>
+      <c r="D5" s="76" t="s">
         <v>133</v>
       </c>
       <c r="E5" s="55"/>
@@ -8319,9 +8319,9 @@
       <c r="N5" s="57"/>
     </row>
     <row r="6" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B6" s="76"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="74"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="76"/>
       <c r="E6" s="55"/>
       <c r="F6" s="56"/>
       <c r="G6" s="44"/>
@@ -8334,102 +8334,102 @@
       <c r="N6" s="57"/>
     </row>
     <row r="7" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B7" s="76"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="74"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="76"/>
       <c r="E7" s="57"/>
     </row>
     <row r="8" spans="1:14" s="53" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="76"/>
-      <c r="C8" s="73" t="s">
+      <c r="B8" s="78"/>
+      <c r="C8" s="75" t="s">
         <v>128</v>
       </c>
-      <c r="D8" s="74" t="s">
-        <v>205</v>
+      <c r="D8" s="76" t="s">
+        <v>197</v>
       </c>
       <c r="E8" s="57"/>
     </row>
     <row r="9" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B9" s="76"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="74"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="76"/>
       <c r="E9" s="57"/>
     </row>
     <row r="10" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B10" s="76"/>
-      <c r="C10" s="73"/>
-      <c r="D10" s="74"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="76"/>
       <c r="E10" s="57"/>
     </row>
     <row r="11" spans="1:14" s="53" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="76"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="74"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="76"/>
     </row>
     <row r="12" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B12" s="76"/>
-      <c r="C12" s="73"/>
-      <c r="D12" s="74"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="76"/>
     </row>
     <row r="13" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B13" s="76"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="74"/>
+      <c r="B13" s="78"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="76"/>
     </row>
     <row r="14" spans="1:14" s="53" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="76"/>
-      <c r="C14" s="73"/>
-      <c r="D14" s="74"/>
+      <c r="B14" s="78"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="76"/>
     </row>
     <row r="15" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="56"/>
-      <c r="B15" s="76"/>
-      <c r="C15" s="73"/>
-      <c r="D15" s="74"/>
+      <c r="B15" s="78"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="76"/>
     </row>
     <row r="16" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B16" s="76"/>
-      <c r="C16" s="73"/>
-      <c r="D16" s="74"/>
+      <c r="B16" s="78"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="76"/>
     </row>
     <row r="17" spans="2:4" s="53" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="60"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="74"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="76"/>
     </row>
     <row r="18" spans="2:4" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B18" s="60"/>
-      <c r="C18" s="73"/>
-      <c r="D18" s="74"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="76"/>
     </row>
     <row r="19" spans="2:4" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B19" s="60"/>
-      <c r="C19" s="73"/>
-      <c r="D19" s="74"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="76"/>
     </row>
     <row r="20" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C20" s="73"/>
-      <c r="D20" s="74"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="76"/>
     </row>
     <row r="21" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C21" s="73"/>
-      <c r="D21" s="74"/>
+      <c r="C21" s="75"/>
+      <c r="D21" s="76"/>
     </row>
     <row r="22" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C22" s="73"/>
-      <c r="D22" s="74"/>
+      <c r="C22" s="75"/>
+      <c r="D22" s="76"/>
     </row>
     <row r="23" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C23" s="73"/>
-      <c r="D23" s="74"/>
+      <c r="C23" s="75"/>
+      <c r="D23" s="76"/>
     </row>
     <row r="24" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C24" s="73"/>
-      <c r="D24" s="74"/>
+      <c r="C24" s="75"/>
+      <c r="D24" s="76"/>
     </row>
     <row r="25" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C25" s="73"/>
-      <c r="D25" s="74"/>
+      <c r="C25" s="75"/>
+      <c r="D25" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -8511,17 +8511,17 @@
       </c>
     </row>
     <row r="2" spans="1:14" s="53" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="75" t="s">
-        <v>206</v>
-      </c>
-      <c r="B2" s="76"/>
+      <c r="A2" s="77" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" s="78"/>
       <c r="C2" s="64" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="79"/>
+      <c r="E2" s="67"/>
       <c r="F2" s="44"/>
       <c r="G2" s="44"/>
       <c r="H2" s="61"/>
@@ -8533,15 +8533,15 @@
       <c r="N2" s="57"/>
     </row>
     <row r="3" spans="1:14" s="53" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="75"/>
-      <c r="B3" s="76"/>
+      <c r="A3" s="77"/>
+      <c r="B3" s="78"/>
       <c r="C3" s="64" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="78"/>
+      <c r="E3" s="66"/>
       <c r="F3" s="56"/>
       <c r="G3" s="44"/>
       <c r="H3" s="61"/>
@@ -8553,8 +8553,8 @@
       <c r="N3" s="57"/>
     </row>
     <row r="4" spans="1:14" s="53" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="75"/>
-      <c r="B4" s="76"/>
+      <c r="A4" s="77"/>
+      <c r="B4" s="78"/>
       <c r="C4" s="65" t="s">
         <v>31</v>
       </c>
@@ -8573,11 +8573,11 @@
       <c r="N4" s="57"/>
     </row>
     <row r="5" spans="1:14" s="53" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="76"/>
-      <c r="C5" s="73" t="s">
-        <v>192</v>
-      </c>
-      <c r="D5" s="74" t="s">
+      <c r="B5" s="78"/>
+      <c r="C5" s="75" t="s">
+        <v>184</v>
+      </c>
+      <c r="D5" s="76" t="s">
         <v>133</v>
       </c>
       <c r="E5" s="55"/>
@@ -8592,9 +8592,9 @@
       <c r="N5" s="57"/>
     </row>
     <row r="6" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B6" s="76"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="74"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="76"/>
       <c r="E6" s="55"/>
       <c r="F6" s="56"/>
       <c r="G6" s="44"/>
@@ -8607,110 +8607,110 @@
       <c r="N6" s="57"/>
     </row>
     <row r="7" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B7" s="76"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="74"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="76"/>
       <c r="E7" s="57"/>
     </row>
     <row r="8" spans="1:14" s="53" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="76"/>
-      <c r="C8" s="73" t="s">
+      <c r="B8" s="78"/>
+      <c r="C8" s="75" t="s">
         <v>128</v>
       </c>
-      <c r="D8" s="74" t="s">
-        <v>207</v>
+      <c r="D8" s="76" t="s">
+        <v>199</v>
       </c>
       <c r="E8" s="57"/>
     </row>
     <row r="9" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B9" s="76"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="74"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="76"/>
       <c r="E9" s="57"/>
     </row>
     <row r="10" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B10" s="76"/>
-      <c r="C10" s="73"/>
-      <c r="D10" s="74"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="76"/>
       <c r="E10" s="57"/>
     </row>
     <row r="11" spans="1:14" s="53" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="76"/>
-      <c r="C11" s="73" t="s">
+      <c r="B11" s="78"/>
+      <c r="C11" s="75" t="s">
         <v>129</v>
       </c>
-      <c r="D11" s="74" t="s">
-        <v>208</v>
+      <c r="D11" s="76" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B12" s="76"/>
-      <c r="C12" s="73"/>
-      <c r="D12" s="74"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="76"/>
     </row>
     <row r="13" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B13" s="76"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="74"/>
+      <c r="B13" s="78"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="76"/>
     </row>
     <row r="14" spans="1:14" s="53" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="76"/>
-      <c r="C14" s="73" t="s">
+      <c r="B14" s="78"/>
+      <c r="C14" s="75" t="s">
         <v>130</v>
       </c>
-      <c r="D14" s="74" t="s">
-        <v>209</v>
+      <c r="D14" s="76" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="15" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="56"/>
-      <c r="B15" s="76"/>
-      <c r="C15" s="73"/>
-      <c r="D15" s="74"/>
+      <c r="B15" s="78"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="76"/>
     </row>
     <row r="16" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B16" s="76"/>
-      <c r="C16" s="73"/>
-      <c r="D16" s="74"/>
+      <c r="B16" s="78"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="76"/>
     </row>
     <row r="17" spans="2:4" s="53" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="60"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="74"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="76"/>
     </row>
     <row r="18" spans="2:4" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B18" s="60"/>
-      <c r="C18" s="73"/>
-      <c r="D18" s="74"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="76"/>
     </row>
     <row r="19" spans="2:4" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B19" s="60"/>
-      <c r="C19" s="73"/>
-      <c r="D19" s="74"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="76"/>
     </row>
     <row r="20" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C20" s="73"/>
-      <c r="D20" s="74"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="76"/>
     </row>
     <row r="21" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C21" s="73"/>
-      <c r="D21" s="74"/>
+      <c r="C21" s="75"/>
+      <c r="D21" s="76"/>
     </row>
     <row r="22" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C22" s="73"/>
-      <c r="D22" s="74"/>
+      <c r="C22" s="75"/>
+      <c r="D22" s="76"/>
     </row>
     <row r="23" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C23" s="73"/>
-      <c r="D23" s="74"/>
+      <c r="C23" s="75"/>
+      <c r="D23" s="76"/>
     </row>
     <row r="24" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C24" s="73"/>
-      <c r="D24" s="74"/>
+      <c r="C24" s="75"/>
+      <c r="D24" s="76"/>
     </row>
     <row r="25" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C25" s="73"/>
-      <c r="D25" s="74"/>
+      <c r="C25" s="75"/>
+      <c r="D25" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -8792,17 +8792,17 @@
       </c>
     </row>
     <row r="2" spans="1:14" s="53" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="75" t="s">
-        <v>210</v>
-      </c>
-      <c r="B2" s="76"/>
+      <c r="A2" s="77" t="s">
+        <v>202</v>
+      </c>
+      <c r="B2" s="78"/>
       <c r="C2" s="64" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="79"/>
+      <c r="E2" s="67"/>
       <c r="F2" s="44"/>
       <c r="G2" s="44"/>
       <c r="H2" s="61"/>
@@ -8814,15 +8814,15 @@
       <c r="N2" s="57"/>
     </row>
     <row r="3" spans="1:14" s="53" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="75"/>
-      <c r="B3" s="76"/>
+      <c r="A3" s="77"/>
+      <c r="B3" s="78"/>
       <c r="C3" s="64" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="78"/>
+      <c r="E3" s="66"/>
       <c r="F3" s="56"/>
       <c r="G3" s="44"/>
       <c r="H3" s="61"/>
@@ -8834,8 +8834,8 @@
       <c r="N3" s="57"/>
     </row>
     <row r="4" spans="1:14" s="53" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="75"/>
-      <c r="B4" s="76"/>
+      <c r="A4" s="77"/>
+      <c r="B4" s="78"/>
       <c r="C4" s="65" t="s">
         <v>31</v>
       </c>
@@ -8854,11 +8854,11 @@
       <c r="N4" s="57"/>
     </row>
     <row r="5" spans="1:14" s="53" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="76"/>
-      <c r="C5" s="73" t="s">
-        <v>192</v>
-      </c>
-      <c r="D5" s="74" t="s">
+      <c r="B5" s="78"/>
+      <c r="C5" s="75" t="s">
+        <v>184</v>
+      </c>
+      <c r="D5" s="76" t="s">
         <v>133</v>
       </c>
       <c r="E5" s="55"/>
@@ -8873,9 +8873,9 @@
       <c r="N5" s="57"/>
     </row>
     <row r="6" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B6" s="76"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="74"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="76"/>
       <c r="E6" s="55"/>
       <c r="F6" s="56"/>
       <c r="G6" s="44"/>
@@ -8888,114 +8888,114 @@
       <c r="N6" s="57"/>
     </row>
     <row r="7" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B7" s="76"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="74"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="76"/>
       <c r="E7" s="57"/>
     </row>
     <row r="8" spans="1:14" s="53" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="76"/>
-      <c r="C8" s="73" t="s">
+      <c r="B8" s="78"/>
+      <c r="C8" s="75" t="s">
         <v>128</v>
       </c>
-      <c r="D8" s="74" t="s">
-        <v>211</v>
+      <c r="D8" s="76" t="s">
+        <v>203</v>
       </c>
       <c r="E8" s="57"/>
     </row>
     <row r="9" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B9" s="76"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="74"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="76"/>
       <c r="E9" s="57"/>
     </row>
     <row r="10" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B10" s="76"/>
-      <c r="C10" s="73"/>
-      <c r="D10" s="74"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="76"/>
       <c r="E10" s="57"/>
     </row>
     <row r="11" spans="1:14" s="53" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="76"/>
-      <c r="C11" s="73" t="s">
-        <v>212</v>
-      </c>
-      <c r="D11" s="74" t="s">
-        <v>213</v>
+      <c r="B11" s="78"/>
+      <c r="C11" s="75" t="s">
+        <v>204</v>
+      </c>
+      <c r="D11" s="76" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B12" s="76"/>
-      <c r="C12" s="73"/>
-      <c r="D12" s="74"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="76"/>
     </row>
     <row r="13" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B13" s="76"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="74"/>
+      <c r="B13" s="78"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="76"/>
     </row>
     <row r="14" spans="1:14" s="53" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="76"/>
-      <c r="C14" s="73" t="s">
+      <c r="B14" s="78"/>
+      <c r="C14" s="75" t="s">
         <v>130</v>
       </c>
-      <c r="D14" s="74" t="s">
-        <v>215</v>
+      <c r="D14" s="76" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="56"/>
-      <c r="B15" s="76"/>
-      <c r="C15" s="73"/>
-      <c r="D15" s="74"/>
+      <c r="B15" s="78"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="76"/>
     </row>
     <row r="16" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B16" s="76"/>
-      <c r="C16" s="73"/>
-      <c r="D16" s="74"/>
+      <c r="B16" s="78"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="76"/>
     </row>
     <row r="17" spans="2:4" s="53" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="60"/>
-      <c r="C17" s="73" t="s">
-        <v>214</v>
-      </c>
-      <c r="D17" s="74" t="s">
-        <v>216</v>
+      <c r="C17" s="75" t="s">
+        <v>206</v>
+      </c>
+      <c r="D17" s="76" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="2:4" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B18" s="60"/>
-      <c r="C18" s="73"/>
-      <c r="D18" s="74"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="76"/>
     </row>
     <row r="19" spans="2:4" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B19" s="60"/>
-      <c r="C19" s="73"/>
-      <c r="D19" s="74"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="76"/>
     </row>
     <row r="20" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C20" s="73"/>
-      <c r="D20" s="74"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="76"/>
     </row>
     <row r="21" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C21" s="73"/>
-      <c r="D21" s="74"/>
+      <c r="C21" s="75"/>
+      <c r="D21" s="76"/>
     </row>
     <row r="22" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C22" s="73"/>
-      <c r="D22" s="74"/>
+      <c r="C22" s="75"/>
+      <c r="D22" s="76"/>
     </row>
     <row r="23" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C23" s="73"/>
-      <c r="D23" s="74"/>
+      <c r="C23" s="75"/>
+      <c r="D23" s="76"/>
     </row>
     <row r="24" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C24" s="73"/>
-      <c r="D24" s="74"/>
+      <c r="C24" s="75"/>
+      <c r="D24" s="76"/>
     </row>
     <row r="25" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C25" s="73"/>
-      <c r="D25" s="74"/>
+      <c r="C25" s="75"/>
+      <c r="D25" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -9089,18 +9089,18 @@
       <c r="N1" s="26"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="73" t="s">
         <v>101</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
       <c r="D2" s="30" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="69" t="s">
+      <c r="F2" s="71" t="s">
         <v>17</v>
       </c>
       <c r="G2" s="50" t="s">
@@ -9119,16 +9119,16 @@
       <c r="N2" s="11"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A3" s="71"/>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
+      <c r="A3" s="73"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
       <c r="D3" s="30" t="s">
         <v>23</v>
       </c>
       <c r="E3" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="69"/>
+      <c r="F3" s="71"/>
       <c r="G3" s="50" t="s">
         <v>25</v>
       </c>
@@ -9147,16 +9147,16 @@
       <c r="N3" s="11"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A4" s="71"/>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
+      <c r="A4" s="73"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
       <c r="D4" s="30" t="s">
         <v>31</v>
       </c>
       <c r="E4" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="69"/>
+      <c r="F4" s="71"/>
       <c r="G4" s="50" t="s">
         <v>109</v>
       </c>
@@ -9182,7 +9182,7 @@
       <c r="C5" s="11"/>
       <c r="D5" s="47"/>
       <c r="E5" s="31"/>
-      <c r="F5" s="69"/>
+      <c r="F5" s="71"/>
       <c r="G5" s="50" t="s">
         <v>39</v>
       </c>
@@ -9206,7 +9206,7 @@
       <c r="C6" s="11"/>
       <c r="D6" s="47"/>
       <c r="E6" s="31"/>
-      <c r="F6" s="69"/>
+      <c r="F6" s="71"/>
       <c r="G6" s="50" t="s">
         <v>43</v>
       </c>
@@ -9230,7 +9230,7 @@
       <c r="C7" s="11"/>
       <c r="D7" s="47"/>
       <c r="E7" s="31"/>
-      <c r="F7" s="69"/>
+      <c r="F7" s="71"/>
       <c r="G7" s="50" t="s">
         <v>47</v>
       </c>
@@ -9252,7 +9252,7 @@
       <c r="C8" s="11"/>
       <c r="D8" s="47"/>
       <c r="E8" s="31"/>
-      <c r="F8" s="69"/>
+      <c r="F8" s="71"/>
       <c r="G8" s="50" t="s">
         <v>51</v>
       </c>
@@ -9274,7 +9274,7 @@
       <c r="C9" s="11"/>
       <c r="D9" s="47"/>
       <c r="E9" s="31"/>
-      <c r="F9" s="69"/>
+      <c r="F9" s="71"/>
       <c r="G9" s="50" t="s">
         <v>57</v>
       </c>
@@ -9298,7 +9298,7 @@
       <c r="C10" s="11"/>
       <c r="D10" s="47"/>
       <c r="E10" s="31"/>
-      <c r="F10" s="69"/>
+      <c r="F10" s="71"/>
       <c r="G10" s="50" t="s">
         <v>60</v>
       </c>
@@ -9322,7 +9322,7 @@
       <c r="C11" s="11"/>
       <c r="D11" s="39"/>
       <c r="E11" s="31"/>
-      <c r="F11" s="69"/>
+      <c r="F11" s="71"/>
       <c r="G11" s="50" t="s">
         <v>64</v>
       </c>
@@ -9346,7 +9346,7 @@
       <c r="C12" s="11"/>
       <c r="D12" s="39"/>
       <c r="E12" s="31"/>
-      <c r="F12" s="72" t="s">
+      <c r="F12" s="74" t="s">
         <v>72</v>
       </c>
       <c r="G12" s="51" t="s">
@@ -9372,7 +9372,7 @@
       <c r="C13" s="11"/>
       <c r="D13" s="39"/>
       <c r="E13" s="31"/>
-      <c r="F13" s="72"/>
+      <c r="F13" s="74"/>
       <c r="G13" s="38"/>
       <c r="H13" s="33"/>
       <c r="I13" s="15"/>
@@ -9380,14 +9380,14 @@
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="D14" s="39"/>
       <c r="E14" s="31"/>
-      <c r="F14" s="66"/>
+      <c r="F14" s="68"/>
       <c r="G14" s="40"/>
       <c r="H14" s="41"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="D15" s="39"/>
       <c r="E15" s="31"/>
-      <c r="F15" s="66"/>
+      <c r="F15" s="68"/>
       <c r="H15" s="42"/>
     </row>
     <row r="20" spans="9:13" x14ac:dyDescent="0.15">
@@ -9476,17 +9476,17 @@
       </c>
     </row>
     <row r="2" spans="1:14" s="53" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="75" t="s">
-        <v>217</v>
-      </c>
-      <c r="B2" s="76"/>
+      <c r="A2" s="77" t="s">
+        <v>209</v>
+      </c>
+      <c r="B2" s="78"/>
       <c r="C2" s="64" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="79"/>
+      <c r="E2" s="67"/>
       <c r="F2" s="44"/>
       <c r="G2" s="44"/>
       <c r="H2" s="61"/>
@@ -9498,15 +9498,15 @@
       <c r="N2" s="57"/>
     </row>
     <row r="3" spans="1:14" s="53" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="75"/>
-      <c r="B3" s="76"/>
+      <c r="A3" s="77"/>
+      <c r="B3" s="78"/>
       <c r="C3" s="64" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="78"/>
+      <c r="E3" s="66"/>
       <c r="F3" s="56"/>
       <c r="G3" s="44"/>
       <c r="H3" s="61"/>
@@ -9518,8 +9518,8 @@
       <c r="N3" s="57"/>
     </row>
     <row r="4" spans="1:14" s="53" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="75"/>
-      <c r="B4" s="76"/>
+      <c r="A4" s="77"/>
+      <c r="B4" s="78"/>
       <c r="C4" s="65" t="s">
         <v>31</v>
       </c>
@@ -9538,11 +9538,11 @@
       <c r="N4" s="57"/>
     </row>
     <row r="5" spans="1:14" s="53" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="76"/>
-      <c r="C5" s="73" t="s">
-        <v>192</v>
-      </c>
-      <c r="D5" s="74" t="s">
+      <c r="B5" s="78"/>
+      <c r="C5" s="75" t="s">
+        <v>184</v>
+      </c>
+      <c r="D5" s="76" t="s">
         <v>133</v>
       </c>
       <c r="E5" s="55"/>
@@ -9557,9 +9557,9 @@
       <c r="N5" s="57"/>
     </row>
     <row r="6" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B6" s="76"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="74"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="76"/>
       <c r="E6" s="55"/>
       <c r="F6" s="56"/>
       <c r="G6" s="44"/>
@@ -9572,102 +9572,102 @@
       <c r="N6" s="57"/>
     </row>
     <row r="7" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B7" s="76"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="74"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="76"/>
       <c r="E7" s="57"/>
     </row>
     <row r="8" spans="1:14" s="53" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="76"/>
-      <c r="C8" s="73" t="s">
+      <c r="B8" s="78"/>
+      <c r="C8" s="75" t="s">
         <v>128</v>
       </c>
-      <c r="D8" s="74" t="s">
-        <v>218</v>
+      <c r="D8" s="76" t="s">
+        <v>210</v>
       </c>
       <c r="E8" s="57"/>
     </row>
     <row r="9" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B9" s="76"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="74"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="76"/>
       <c r="E9" s="57"/>
     </row>
     <row r="10" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B10" s="76"/>
-      <c r="C10" s="73"/>
-      <c r="D10" s="74"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="76"/>
       <c r="E10" s="57"/>
     </row>
     <row r="11" spans="1:14" s="53" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="76"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="74"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="76"/>
     </row>
     <row r="12" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B12" s="76"/>
-      <c r="C12" s="73"/>
-      <c r="D12" s="74"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="76"/>
     </row>
     <row r="13" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B13" s="76"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="74"/>
+      <c r="B13" s="78"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="76"/>
     </row>
     <row r="14" spans="1:14" s="53" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="76"/>
-      <c r="C14" s="73"/>
-      <c r="D14" s="74"/>
+      <c r="B14" s="78"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="76"/>
     </row>
     <row r="15" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="56"/>
-      <c r="B15" s="76"/>
-      <c r="C15" s="73"/>
-      <c r="D15" s="74"/>
+      <c r="B15" s="78"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="76"/>
     </row>
     <row r="16" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B16" s="76"/>
-      <c r="C16" s="73"/>
-      <c r="D16" s="74"/>
+      <c r="B16" s="78"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="76"/>
     </row>
     <row r="17" spans="2:4" s="53" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="60"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="74"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="76"/>
     </row>
     <row r="18" spans="2:4" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B18" s="60"/>
-      <c r="C18" s="73"/>
-      <c r="D18" s="74"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="76"/>
     </row>
     <row r="19" spans="2:4" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B19" s="60"/>
-      <c r="C19" s="73"/>
-      <c r="D19" s="74"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="76"/>
     </row>
     <row r="20" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C20" s="73"/>
-      <c r="D20" s="74"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="76"/>
     </row>
     <row r="21" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C21" s="73"/>
-      <c r="D21" s="74"/>
+      <c r="C21" s="75"/>
+      <c r="D21" s="76"/>
     </row>
     <row r="22" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C22" s="73"/>
-      <c r="D22" s="74"/>
+      <c r="C22" s="75"/>
+      <c r="D22" s="76"/>
     </row>
     <row r="23" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C23" s="73"/>
-      <c r="D23" s="74"/>
+      <c r="C23" s="75"/>
+      <c r="D23" s="76"/>
     </row>
     <row r="24" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C24" s="73"/>
-      <c r="D24" s="74"/>
+      <c r="C24" s="75"/>
+      <c r="D24" s="76"/>
     </row>
     <row r="25" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C25" s="73"/>
-      <c r="D25" s="74"/>
+      <c r="C25" s="75"/>
+      <c r="D25" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -9749,17 +9749,17 @@
       </c>
     </row>
     <row r="2" spans="1:14" s="53" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="75" t="s">
-        <v>228</v>
-      </c>
-      <c r="B2" s="76"/>
+      <c r="A2" s="77" t="s">
+        <v>220</v>
+      </c>
+      <c r="B2" s="78"/>
       <c r="C2" s="64" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="79"/>
+      <c r="E2" s="67"/>
       <c r="F2" s="44"/>
       <c r="G2" s="44"/>
       <c r="H2" s="61"/>
@@ -9771,15 +9771,15 @@
       <c r="N2" s="57"/>
     </row>
     <row r="3" spans="1:14" s="53" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="75"/>
-      <c r="B3" s="76"/>
+      <c r="A3" s="77"/>
+      <c r="B3" s="78"/>
       <c r="C3" s="64" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="78"/>
+      <c r="E3" s="66"/>
       <c r="F3" s="56"/>
       <c r="G3" s="44"/>
       <c r="H3" s="61"/>
@@ -9791,8 +9791,8 @@
       <c r="N3" s="57"/>
     </row>
     <row r="4" spans="1:14" s="53" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="75"/>
-      <c r="B4" s="76"/>
+      <c r="A4" s="77"/>
+      <c r="B4" s="78"/>
       <c r="C4" s="65" t="s">
         <v>31</v>
       </c>
@@ -9811,12 +9811,12 @@
       <c r="N4" s="57"/>
     </row>
     <row r="5" spans="1:14" s="53" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="76"/>
-      <c r="C5" s="73" t="s">
-        <v>219</v>
-      </c>
-      <c r="D5" s="74" t="s">
-        <v>220</v>
+      <c r="B5" s="78"/>
+      <c r="C5" s="75" t="s">
+        <v>211</v>
+      </c>
+      <c r="D5" s="76" t="s">
+        <v>212</v>
       </c>
       <c r="E5" s="55"/>
       <c r="F5" s="56"/>
@@ -9830,9 +9830,9 @@
       <c r="N5" s="57"/>
     </row>
     <row r="6" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B6" s="76"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="74"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="76"/>
       <c r="E6" s="55"/>
       <c r="F6" s="56"/>
       <c r="G6" s="44"/>
@@ -9845,110 +9845,110 @@
       <c r="N6" s="57"/>
     </row>
     <row r="7" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B7" s="76"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="74"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="76"/>
       <c r="E7" s="57"/>
     </row>
     <row r="8" spans="1:14" s="53" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="76"/>
-      <c r="C8" s="73" t="s">
-        <v>221</v>
-      </c>
-      <c r="D8" s="74" t="s">
-        <v>222</v>
+      <c r="B8" s="78"/>
+      <c r="C8" s="75" t="s">
+        <v>213</v>
+      </c>
+      <c r="D8" s="76" t="s">
+        <v>214</v>
       </c>
       <c r="E8" s="57"/>
     </row>
     <row r="9" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B9" s="76"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="74"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="76"/>
       <c r="E9" s="57"/>
     </row>
     <row r="10" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B10" s="76"/>
-      <c r="C10" s="73"/>
-      <c r="D10" s="74"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="76"/>
       <c r="E10" s="57"/>
     </row>
     <row r="11" spans="1:14" s="53" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="76"/>
-      <c r="C11" s="73" t="s">
-        <v>223</v>
-      </c>
-      <c r="D11" s="74" t="s">
-        <v>224</v>
+      <c r="B11" s="78"/>
+      <c r="C11" s="75" t="s">
+        <v>215</v>
+      </c>
+      <c r="D11" s="76" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B12" s="76"/>
-      <c r="C12" s="73"/>
-      <c r="D12" s="74"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="76"/>
     </row>
     <row r="13" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B13" s="76"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="74"/>
+      <c r="B13" s="78"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="76"/>
     </row>
     <row r="14" spans="1:14" s="53" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="76"/>
-      <c r="C14" s="73" t="s">
-        <v>225</v>
-      </c>
-      <c r="D14" s="74" t="s">
-        <v>226</v>
+      <c r="B14" s="78"/>
+      <c r="C14" s="75" t="s">
+        <v>217</v>
+      </c>
+      <c r="D14" s="76" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="15" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="56"/>
-      <c r="B15" s="76"/>
-      <c r="C15" s="73"/>
-      <c r="D15" s="74"/>
+      <c r="B15" s="78"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="76"/>
     </row>
     <row r="16" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B16" s="76"/>
-      <c r="C16" s="73"/>
-      <c r="D16" s="74"/>
+      <c r="B16" s="78"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="76"/>
     </row>
     <row r="17" spans="2:4" s="53" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="60"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="74"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="76"/>
     </row>
     <row r="18" spans="2:4" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B18" s="60"/>
-      <c r="C18" s="73"/>
-      <c r="D18" s="74"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="76"/>
     </row>
     <row r="19" spans="2:4" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B19" s="60"/>
-      <c r="C19" s="73"/>
-      <c r="D19" s="74"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="76"/>
     </row>
     <row r="20" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C20" s="73"/>
-      <c r="D20" s="74"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="76"/>
     </row>
     <row r="21" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C21" s="73"/>
-      <c r="D21" s="74"/>
+      <c r="C21" s="75"/>
+      <c r="D21" s="76"/>
     </row>
     <row r="22" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C22" s="73"/>
-      <c r="D22" s="74"/>
+      <c r="C22" s="75"/>
+      <c r="D22" s="76"/>
     </row>
     <row r="23" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C23" s="73"/>
-      <c r="D23" s="74"/>
+      <c r="C23" s="75"/>
+      <c r="D23" s="76"/>
     </row>
     <row r="24" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C24" s="73"/>
-      <c r="D24" s="74"/>
+      <c r="C24" s="75"/>
+      <c r="D24" s="76"/>
     </row>
     <row r="25" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C25" s="73"/>
-      <c r="D25" s="74"/>
+      <c r="C25" s="75"/>
+      <c r="D25" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -10030,29 +10030,29 @@
       </c>
     </row>
     <row r="2" spans="1:14" s="53" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="75" t="s">
-        <v>244</v>
-      </c>
-      <c r="B2" s="76"/>
+      <c r="A2" s="77" t="s">
+        <v>236</v>
+      </c>
+      <c r="B2" s="78"/>
       <c r="C2" s="64" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="79" t="s">
-        <v>240</v>
+      <c r="E2" s="67" t="s">
+        <v>232</v>
       </c>
       <c r="F2" s="56" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="G2" s="44" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="H2" s="44"/>
       <c r="I2" s="57"/>
       <c r="J2" s="44" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="K2" s="57"/>
       <c r="L2" s="57"/>
@@ -10060,15 +10060,15 @@
       <c r="N2" s="57"/>
     </row>
     <row r="3" spans="1:14" s="53" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="75"/>
-      <c r="B3" s="76"/>
+      <c r="A3" s="77"/>
+      <c r="B3" s="78"/>
       <c r="C3" s="64" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="78"/>
+      <c r="E3" s="66"/>
       <c r="F3" s="56"/>
       <c r="G3" s="44"/>
       <c r="H3" s="61"/>
@@ -10080,8 +10080,8 @@
       <c r="N3" s="57"/>
     </row>
     <row r="4" spans="1:14" s="53" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="75"/>
-      <c r="B4" s="76"/>
+      <c r="A4" s="77"/>
+      <c r="B4" s="78"/>
       <c r="C4" s="65" t="s">
         <v>31</v>
       </c>
@@ -10100,12 +10100,12 @@
       <c r="N4" s="57"/>
     </row>
     <row r="5" spans="1:14" s="53" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="76"/>
-      <c r="C5" s="73" t="s">
-        <v>219</v>
-      </c>
-      <c r="D5" s="74" t="s">
-        <v>220</v>
+      <c r="B5" s="78"/>
+      <c r="C5" s="75" t="s">
+        <v>211</v>
+      </c>
+      <c r="D5" s="76" t="s">
+        <v>212</v>
       </c>
       <c r="E5" s="55"/>
       <c r="F5" s="56"/>
@@ -10119,9 +10119,9 @@
       <c r="N5" s="57"/>
     </row>
     <row r="6" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B6" s="76"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="74"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="76"/>
       <c r="E6" s="55"/>
       <c r="F6" s="56"/>
       <c r="G6" s="44"/>
@@ -10134,106 +10134,106 @@
       <c r="N6" s="57"/>
     </row>
     <row r="7" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B7" s="76"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="74"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="76"/>
       <c r="E7" s="57"/>
     </row>
     <row r="8" spans="1:14" s="53" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="76"/>
-      <c r="C8" s="73" t="s">
-        <v>221</v>
-      </c>
-      <c r="D8" s="74" t="s">
-        <v>227</v>
+      <c r="B8" s="78"/>
+      <c r="C8" s="75" t="s">
+        <v>213</v>
+      </c>
+      <c r="D8" s="76" t="s">
+        <v>219</v>
       </c>
       <c r="E8" s="57"/>
     </row>
     <row r="9" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B9" s="76"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="74"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="76"/>
       <c r="E9" s="57"/>
     </row>
     <row r="10" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B10" s="76"/>
-      <c r="C10" s="73"/>
-      <c r="D10" s="74"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="76"/>
       <c r="E10" s="57"/>
     </row>
     <row r="11" spans="1:14" s="53" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="76"/>
-      <c r="C11" s="73" t="s">
-        <v>223</v>
-      </c>
-      <c r="D11" s="74" t="s">
-        <v>245</v>
+      <c r="B11" s="78"/>
+      <c r="C11" s="75" t="s">
+        <v>215</v>
+      </c>
+      <c r="D11" s="76" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="12" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B12" s="76"/>
-      <c r="C12" s="73"/>
-      <c r="D12" s="74"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="76"/>
     </row>
     <row r="13" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B13" s="76"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="74"/>
+      <c r="B13" s="78"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="76"/>
     </row>
     <row r="14" spans="1:14" s="53" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="76"/>
-      <c r="C14" s="73"/>
-      <c r="D14" s="74"/>
+      <c r="B14" s="78"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="76"/>
     </row>
     <row r="15" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="56"/>
-      <c r="B15" s="76"/>
-      <c r="C15" s="73"/>
-      <c r="D15" s="74"/>
+      <c r="B15" s="78"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="76"/>
     </row>
     <row r="16" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B16" s="76"/>
-      <c r="C16" s="73"/>
-      <c r="D16" s="74"/>
+      <c r="B16" s="78"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="76"/>
     </row>
     <row r="17" spans="2:4" s="53" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="60"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="74"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="76"/>
     </row>
     <row r="18" spans="2:4" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B18" s="60"/>
-      <c r="C18" s="73"/>
-      <c r="D18" s="74"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="76"/>
     </row>
     <row r="19" spans="2:4" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B19" s="60"/>
-      <c r="C19" s="73"/>
-      <c r="D19" s="74"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="76"/>
     </row>
     <row r="20" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C20" s="73"/>
-      <c r="D20" s="74"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="76"/>
     </row>
     <row r="21" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C21" s="73"/>
-      <c r="D21" s="74"/>
+      <c r="C21" s="75"/>
+      <c r="D21" s="76"/>
     </row>
     <row r="22" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C22" s="73"/>
-      <c r="D22" s="74"/>
+      <c r="C22" s="75"/>
+      <c r="D22" s="76"/>
     </row>
     <row r="23" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C23" s="73"/>
-      <c r="D23" s="74"/>
+      <c r="C23" s="75"/>
+      <c r="D23" s="76"/>
     </row>
     <row r="24" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C24" s="73"/>
-      <c r="D24" s="74"/>
+      <c r="C24" s="75"/>
+      <c r="D24" s="76"/>
     </row>
     <row r="25" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C25" s="73"/>
-      <c r="D25" s="74"/>
+      <c r="C25" s="75"/>
+      <c r="D25" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -10316,24 +10316,24 @@
       </c>
     </row>
     <row r="2" spans="1:14" s="53" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="75" t="s">
-        <v>229</v>
-      </c>
-      <c r="B2" s="76"/>
+      <c r="A2" s="77" t="s">
+        <v>221</v>
+      </c>
+      <c r="B2" s="78"/>
       <c r="C2" s="64" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="79" t="s">
-        <v>237</v>
+      <c r="E2" s="67" t="s">
+        <v>229</v>
       </c>
       <c r="F2" s="44" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="G2" s="44" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="H2" s="61"/>
       <c r="I2" s="57"/>
@@ -10344,15 +10344,15 @@
       <c r="N2" s="57"/>
     </row>
     <row r="3" spans="1:14" s="53" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="75"/>
-      <c r="B3" s="76"/>
+      <c r="A3" s="77"/>
+      <c r="B3" s="78"/>
       <c r="C3" s="64" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="78"/>
+      <c r="E3" s="66"/>
       <c r="F3" s="56"/>
       <c r="G3" s="44"/>
       <c r="H3" s="61"/>
@@ -10364,8 +10364,8 @@
       <c r="N3" s="57"/>
     </row>
     <row r="4" spans="1:14" s="53" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="75"/>
-      <c r="B4" s="76"/>
+      <c r="A4" s="77"/>
+      <c r="B4" s="78"/>
       <c r="C4" s="65" t="s">
         <v>31</v>
       </c>
@@ -10384,12 +10384,12 @@
       <c r="N4" s="57"/>
     </row>
     <row r="5" spans="1:14" s="53" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="76"/>
-      <c r="C5" s="73" t="s">
-        <v>230</v>
-      </c>
-      <c r="D5" s="74" t="s">
-        <v>231</v>
+      <c r="B5" s="78"/>
+      <c r="C5" s="75" t="s">
+        <v>222</v>
+      </c>
+      <c r="D5" s="76" t="s">
+        <v>223</v>
       </c>
       <c r="E5" s="55"/>
       <c r="F5" s="56"/>
@@ -10403,9 +10403,9 @@
       <c r="N5" s="57"/>
     </row>
     <row r="6" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B6" s="76"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="74"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="76"/>
       <c r="E6" s="55"/>
       <c r="F6" s="56"/>
       <c r="G6" s="44"/>
@@ -10418,114 +10418,114 @@
       <c r="N6" s="57"/>
     </row>
     <row r="7" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B7" s="76"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="74"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="76"/>
       <c r="E7" s="57"/>
     </row>
     <row r="8" spans="1:14" s="53" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="76"/>
-      <c r="C8" s="73" t="s">
-        <v>221</v>
-      </c>
-      <c r="D8" s="74" t="s">
-        <v>232</v>
+      <c r="B8" s="78"/>
+      <c r="C8" s="75" t="s">
+        <v>213</v>
+      </c>
+      <c r="D8" s="76" t="s">
+        <v>224</v>
       </c>
       <c r="E8" s="57"/>
     </row>
     <row r="9" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B9" s="76"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="74"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="76"/>
       <c r="E9" s="57"/>
     </row>
     <row r="10" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B10" s="76"/>
-      <c r="C10" s="73"/>
-      <c r="D10" s="74"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="76"/>
       <c r="E10" s="57"/>
     </row>
     <row r="11" spans="1:14" s="53" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="76"/>
-      <c r="C11" s="73" t="s">
-        <v>223</v>
-      </c>
-      <c r="D11" s="74" t="s">
-        <v>220</v>
+      <c r="B11" s="78"/>
+      <c r="C11" s="75" t="s">
+        <v>215</v>
+      </c>
+      <c r="D11" s="76" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B12" s="76"/>
-      <c r="C12" s="73"/>
-      <c r="D12" s="74"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="76"/>
     </row>
     <row r="13" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B13" s="76"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="74"/>
+      <c r="B13" s="78"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="76"/>
     </row>
     <row r="14" spans="1:14" s="53" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="76"/>
-      <c r="C14" s="73" t="s">
-        <v>233</v>
-      </c>
-      <c r="D14" s="74" t="s">
-        <v>235</v>
+      <c r="B14" s="78"/>
+      <c r="C14" s="75" t="s">
+        <v>225</v>
+      </c>
+      <c r="D14" s="76" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="56"/>
-      <c r="B15" s="76"/>
-      <c r="C15" s="73"/>
-      <c r="D15" s="74"/>
+      <c r="B15" s="78"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="76"/>
     </row>
     <row r="16" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B16" s="76"/>
-      <c r="C16" s="73"/>
-      <c r="D16" s="74"/>
+      <c r="B16" s="78"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="76"/>
     </row>
     <row r="17" spans="2:4" s="53" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="60"/>
-      <c r="C17" s="73" t="s">
-        <v>234</v>
-      </c>
-      <c r="D17" s="74" t="s">
-        <v>236</v>
+      <c r="C17" s="75" t="s">
+        <v>226</v>
+      </c>
+      <c r="D17" s="76" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="18" spans="2:4" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B18" s="60"/>
-      <c r="C18" s="73"/>
-      <c r="D18" s="74"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="76"/>
     </row>
     <row r="19" spans="2:4" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B19" s="60"/>
-      <c r="C19" s="73"/>
-      <c r="D19" s="74"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="76"/>
     </row>
     <row r="20" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C20" s="73"/>
-      <c r="D20" s="74"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="76"/>
     </row>
     <row r="21" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C21" s="73"/>
-      <c r="D21" s="74"/>
+      <c r="C21" s="75"/>
+      <c r="D21" s="76"/>
     </row>
     <row r="22" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C22" s="73"/>
-      <c r="D22" s="74"/>
+      <c r="C22" s="75"/>
+      <c r="D22" s="76"/>
     </row>
     <row r="23" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C23" s="73"/>
-      <c r="D23" s="74"/>
+      <c r="C23" s="75"/>
+      <c r="D23" s="76"/>
     </row>
     <row r="24" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C24" s="73"/>
-      <c r="D24" s="74"/>
+      <c r="C24" s="75"/>
+      <c r="D24" s="76"/>
     </row>
     <row r="25" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C25" s="73"/>
-      <c r="D25" s="74"/>
+      <c r="C25" s="75"/>
+      <c r="D25" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -10622,18 +10622,18 @@
       <c r="N1" s="26"/>
     </row>
     <row r="2" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="73" t="s">
         <v>103</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
       <c r="D2" s="30" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="72" t="s">
+      <c r="F2" s="74" t="s">
         <v>123</v>
       </c>
       <c r="G2" s="38"/>
@@ -10646,16 +10646,16 @@
       <c r="N2" s="11"/>
     </row>
     <row r="3" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="71"/>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
+      <c r="A3" s="73"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
       <c r="D3" s="30" t="s">
         <v>23</v>
       </c>
       <c r="E3" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="72"/>
+      <c r="F3" s="74"/>
       <c r="G3" s="38"/>
       <c r="H3" s="33"/>
       <c r="I3" s="11"/>
@@ -10666,9 +10666,9 @@
       <c r="N3" s="11"/>
     </row>
     <row r="4" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="71"/>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
+      <c r="A4" s="73"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
       <c r="D4" s="30" t="s">
         <v>31</v>
       </c>
@@ -10823,14 +10823,14 @@
     <row r="14" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
       <c r="D14" s="36"/>
       <c r="E14" s="31"/>
-      <c r="F14" s="66"/>
+      <c r="F14" s="68"/>
       <c r="G14" s="40"/>
       <c r="H14" s="41"/>
     </row>
     <row r="15" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
       <c r="D15" s="36"/>
       <c r="E15" s="31"/>
-      <c r="F15" s="66"/>
+      <c r="F15" s="68"/>
       <c r="H15" s="42"/>
     </row>
   </sheetData>
@@ -10917,18 +10917,18 @@
       <c r="N1" s="26"/>
     </row>
     <row r="2" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="73" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
       <c r="D2" s="30" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="72" t="s">
+      <c r="F2" s="74" t="s">
         <v>72</v>
       </c>
       <c r="G2" s="38" t="s">
@@ -10949,16 +10949,16 @@
       <c r="N2" s="11"/>
     </row>
     <row r="3" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="71"/>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
+      <c r="A3" s="73"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
       <c r="D3" s="30" t="s">
         <v>23</v>
       </c>
       <c r="E3" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="72"/>
+      <c r="F3" s="74"/>
       <c r="G3" s="38" t="s">
         <v>72</v>
       </c>
@@ -10975,9 +10975,9 @@
       <c r="N3" s="11"/>
     </row>
     <row r="4" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="71"/>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
+      <c r="A4" s="73"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
       <c r="D4" s="30" t="s">
         <v>31</v>
       </c>
@@ -11000,7 +11000,7 @@
       <c r="C5" s="11"/>
       <c r="D5" s="35"/>
       <c r="E5" s="31"/>
-      <c r="F5" s="72" t="s">
+      <c r="F5" s="74" t="s">
         <v>108</v>
       </c>
       <c r="G5" s="32"/>
@@ -11018,7 +11018,7 @@
       <c r="C6" s="11"/>
       <c r="D6" s="35"/>
       <c r="E6" s="31"/>
-      <c r="F6" s="72"/>
+      <c r="F6" s="74"/>
       <c r="G6" s="32"/>
       <c r="H6" s="33"/>
       <c r="I6" s="11"/>
@@ -11134,14 +11134,14 @@
     <row r="14" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
       <c r="D14" s="36"/>
       <c r="E14" s="31"/>
-      <c r="F14" s="66"/>
+      <c r="F14" s="68"/>
       <c r="G14" s="40"/>
       <c r="H14" s="41"/>
     </row>
     <row r="15" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
       <c r="D15" s="36"/>
       <c r="E15" s="31"/>
-      <c r="F15" s="66"/>
+      <c r="F15" s="68"/>
       <c r="H15" s="42"/>
     </row>
   </sheetData>
@@ -11216,18 +11216,18 @@
       <c r="N1" s="26"/>
     </row>
     <row r="2" spans="1:14" s="34" customFormat="1" ht="30" x14ac:dyDescent="0.15">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="73" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
       <c r="D2" s="30" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="F2" s="72" t="s">
+      <c r="F2" s="74" t="s">
         <v>72</v>
       </c>
       <c r="G2" s="38" t="s">
@@ -11248,16 +11248,16 @@
       <c r="N2" s="11"/>
     </row>
     <row r="3" spans="1:14" s="34" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="71"/>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
+      <c r="A3" s="73"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
       <c r="D3" s="30" t="s">
         <v>23</v>
       </c>
       <c r="E3" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="72"/>
+      <c r="F3" s="74"/>
       <c r="G3" s="38"/>
       <c r="H3" s="33"/>
       <c r="I3" s="11"/>
@@ -11268,9 +11268,9 @@
       <c r="N3" s="11"/>
     </row>
     <row r="4" spans="1:14" s="34" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="71"/>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
+      <c r="A4" s="73"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
       <c r="D4" s="30" t="s">
         <v>31</v>
       </c>
@@ -11463,18 +11463,18 @@
       <c r="N1" s="26"/>
     </row>
     <row r="2" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="73" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
       <c r="D2" s="30" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="72" t="s">
+      <c r="F2" s="74" t="s">
         <v>72</v>
       </c>
       <c r="G2" s="38" t="s">
@@ -11495,16 +11495,16 @@
       <c r="N2" s="11"/>
     </row>
     <row r="3" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="71"/>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
+      <c r="A3" s="73"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
       <c r="D3" s="30" t="s">
         <v>23</v>
       </c>
       <c r="E3" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="72"/>
+      <c r="F3" s="74"/>
       <c r="G3" s="38" t="s">
         <v>72</v>
       </c>
@@ -11521,9 +11521,9 @@
       <c r="N3" s="11"/>
     </row>
     <row r="4" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="71"/>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
+      <c r="A4" s="73"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
       <c r="D4" s="30" t="s">
         <v>31</v>
       </c>
@@ -11677,14 +11677,14 @@
     <row r="14" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
       <c r="D14" s="36"/>
       <c r="E14" s="31"/>
-      <c r="F14" s="66"/>
+      <c r="F14" s="68"/>
       <c r="G14" s="40"/>
       <c r="H14" s="41"/>
     </row>
     <row r="15" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
       <c r="D15" s="36"/>
       <c r="E15" s="31"/>
-      <c r="F15" s="66"/>
+      <c r="F15" s="68"/>
       <c r="H15" s="42"/>
     </row>
   </sheetData>
@@ -11768,18 +11768,18 @@
       <c r="N1" s="26"/>
     </row>
     <row r="2" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="73" t="s">
         <v>103</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
       <c r="D2" s="30" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="72" t="s">
+      <c r="F2" s="74" t="s">
         <v>122</v>
       </c>
       <c r="G2" s="38" t="s">
@@ -11800,16 +11800,16 @@
       <c r="N2" s="11"/>
     </row>
     <row r="3" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="71"/>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
+      <c r="A3" s="73"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
       <c r="D3" s="30" t="s">
         <v>23</v>
       </c>
       <c r="E3" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="72"/>
+      <c r="F3" s="74"/>
       <c r="G3" s="38" t="s">
         <v>72</v>
       </c>
@@ -11826,9 +11826,9 @@
       <c r="N3" s="11"/>
     </row>
     <row r="4" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="71"/>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
+      <c r="A4" s="73"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
       <c r="D4" s="30" t="s">
         <v>31</v>
       </c>
@@ -11983,14 +11983,14 @@
     <row r="14" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
       <c r="D14" s="36"/>
       <c r="E14" s="31"/>
-      <c r="F14" s="66"/>
+      <c r="F14" s="68"/>
       <c r="G14" s="40"/>
       <c r="H14" s="41"/>
     </row>
     <row r="15" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
       <c r="D15" s="36"/>
       <c r="E15" s="31"/>
-      <c r="F15" s="66"/>
+      <c r="F15" s="68"/>
       <c r="H15" s="42"/>
     </row>
   </sheetData>
@@ -12074,18 +12074,18 @@
       <c r="N1" s="26"/>
     </row>
     <row r="2" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="73" t="s">
         <v>99</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
       <c r="D2" s="30" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="72" t="s">
+      <c r="F2" s="74" t="s">
         <v>120</v>
       </c>
       <c r="G2" s="38"/>
@@ -12098,16 +12098,16 @@
       <c r="N2" s="11"/>
     </row>
     <row r="3" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="71"/>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
+      <c r="A3" s="73"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
       <c r="D3" s="30" t="s">
         <v>23</v>
       </c>
       <c r="E3" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="72"/>
+      <c r="F3" s="74"/>
       <c r="G3" s="38"/>
       <c r="H3" s="33"/>
       <c r="I3" s="11"/>
@@ -12118,9 +12118,9 @@
       <c r="N3" s="11"/>
     </row>
     <row r="4" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="71"/>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
+      <c r="A4" s="73"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
       <c r="D4" s="30" t="s">
         <v>31</v>
       </c>
@@ -12275,14 +12275,14 @@
     <row r="14" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
       <c r="D14" s="36"/>
       <c r="E14" s="31"/>
-      <c r="F14" s="66"/>
+      <c r="F14" s="68"/>
       <c r="G14" s="40"/>
       <c r="H14" s="41"/>
     </row>
     <row r="15" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
       <c r="D15" s="36"/>
       <c r="E15" s="31"/>
-      <c r="F15" s="66"/>
+      <c r="F15" s="68"/>
       <c r="H15" s="42"/>
     </row>
   </sheetData>
@@ -12366,18 +12366,18 @@
       <c r="N1" s="26"/>
     </row>
     <row r="2" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="73" t="s">
         <v>100</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
       <c r="D2" s="30" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="72" t="s">
+      <c r="F2" s="74" t="s">
         <v>121</v>
       </c>
       <c r="G2" s="38"/>
@@ -12390,16 +12390,16 @@
       <c r="N2" s="11"/>
     </row>
     <row r="3" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="71"/>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
+      <c r="A3" s="73"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
       <c r="D3" s="30" t="s">
         <v>23</v>
       </c>
       <c r="E3" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="72"/>
+      <c r="F3" s="74"/>
       <c r="G3" s="38"/>
       <c r="H3" s="33"/>
       <c r="I3" s="11"/>
@@ -12410,9 +12410,9 @@
       <c r="N3" s="11"/>
     </row>
     <row r="4" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="71"/>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
+      <c r="A4" s="73"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
       <c r="D4" s="30" t="s">
         <v>31</v>
       </c>
@@ -12567,14 +12567,14 @@
     <row r="14" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
       <c r="D14" s="36"/>
       <c r="E14" s="31"/>
-      <c r="F14" s="66"/>
+      <c r="F14" s="68"/>
       <c r="G14" s="40"/>
       <c r="H14" s="41"/>
     </row>
     <row r="15" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
       <c r="D15" s="36"/>
       <c r="E15" s="31"/>
-      <c r="F15" s="66"/>
+      <c r="F15" s="68"/>
       <c r="H15" s="42"/>
     </row>
   </sheetData>
@@ -12644,10 +12644,10 @@
       </c>
     </row>
     <row r="2" spans="1:14" s="53" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="77" t="s">
         <v>154</v>
       </c>
-      <c r="B2" s="76"/>
+      <c r="B2" s="78"/>
       <c r="C2" s="62" t="s">
         <v>15</v>
       </c>
@@ -12665,8 +12665,8 @@
       <c r="N2" s="57"/>
     </row>
     <row r="3" spans="1:14" s="53" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="75"/>
-      <c r="B3" s="76"/>
+      <c r="A3" s="77"/>
+      <c r="B3" s="78"/>
       <c r="C3" s="62" t="s">
         <v>23</v>
       </c>
@@ -12685,8 +12685,8 @@
       <c r="N3" s="57"/>
     </row>
     <row r="4" spans="1:14" s="53" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="75"/>
-      <c r="B4" s="76"/>
+      <c r="A4" s="77"/>
+      <c r="B4" s="78"/>
       <c r="C4" s="63" t="s">
         <v>31</v>
       </c>
@@ -12705,11 +12705,11 @@
       <c r="N4" s="57"/>
     </row>
     <row r="5" spans="1:14" s="53" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="76"/>
-      <c r="C5" s="73" t="s">
+      <c r="B5" s="78"/>
+      <c r="C5" s="75" t="s">
         <v>155</v>
       </c>
-      <c r="D5" s="74" t="s">
+      <c r="D5" s="76" t="s">
         <v>156</v>
       </c>
       <c r="E5" s="55"/>
@@ -12724,9 +12724,9 @@
       <c r="N5" s="57"/>
     </row>
     <row r="6" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B6" s="76"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="74"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="76"/>
       <c r="E6" s="55"/>
       <c r="F6" s="56"/>
       <c r="G6" s="44"/>
@@ -12739,82 +12739,82 @@
       <c r="N6" s="57"/>
     </row>
     <row r="7" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B7" s="76"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="74"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="76"/>
       <c r="E7" s="57"/>
     </row>
     <row r="8" spans="1:14" s="53" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="76"/>
-      <c r="C8" s="73" t="s">
+      <c r="B8" s="78"/>
+      <c r="C8" s="75" t="s">
         <v>157</v>
       </c>
-      <c r="D8" s="74" t="s">
+      <c r="D8" s="76" t="s">
         <v>158</v>
       </c>
       <c r="E8" s="57"/>
     </row>
     <row r="9" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B9" s="76"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="74"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="76"/>
       <c r="E9" s="57"/>
     </row>
     <row r="10" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B10" s="76"/>
-      <c r="C10" s="73"/>
-      <c r="D10" s="74"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="76"/>
       <c r="E10" s="57"/>
     </row>
     <row r="11" spans="1:14" s="53" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="76"/>
-      <c r="C11" s="73" t="s">
+      <c r="B11" s="78"/>
+      <c r="C11" s="75" t="s">
         <v>159</v>
       </c>
-      <c r="D11" s="74" t="s">
+      <c r="D11" s="76" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B12" s="76"/>
-      <c r="C12" s="73"/>
-      <c r="D12" s="74"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="76"/>
     </row>
     <row r="13" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B13" s="76"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="74"/>
+      <c r="B13" s="78"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="76"/>
     </row>
     <row r="14" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B14" s="76"/>
-      <c r="C14" s="73"/>
-      <c r="D14" s="74"/>
+      <c r="B14" s="78"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="76"/>
     </row>
     <row r="15" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="56"/>
-      <c r="B15" s="76"/>
-      <c r="C15" s="73"/>
-      <c r="D15" s="74"/>
+      <c r="B15" s="78"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="76"/>
     </row>
     <row r="16" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B16" s="76"/>
-      <c r="C16" s="73"/>
-      <c r="D16" s="74"/>
+      <c r="B16" s="78"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="76"/>
     </row>
     <row r="17" spans="2:4" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B17" s="60"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="74"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="76"/>
     </row>
     <row r="18" spans="2:4" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B18" s="60"/>
-      <c r="C18" s="73"/>
-      <c r="D18" s="74"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="76"/>
     </row>
     <row r="19" spans="2:4" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B19" s="60"/>
-      <c r="C19" s="73"/>
-      <c r="D19" s="74"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -12842,7 +12842,7 @@
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12850,7 +12850,7 @@
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="41.375" customWidth="1"/>
     <col min="3" max="3" width="18.375" customWidth="1"/>
-    <col min="4" max="4" width="18.5" customWidth="1"/>
+    <col min="4" max="4" width="22.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="53" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -12890,24 +12890,24 @@
       </c>
     </row>
     <row r="2" spans="1:14" s="53" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="77" t="s">
         <v>161</v>
       </c>
-      <c r="B2" s="76"/>
+      <c r="B2" s="78"/>
       <c r="C2" s="64" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="77" t="s">
-        <v>165</v>
+      <c r="E2" s="79" t="s">
+        <v>162</v>
       </c>
       <c r="F2" s="56" t="s">
+        <v>163</v>
+      </c>
+      <c r="G2" s="44" t="s">
         <v>166</v>
-      </c>
-      <c r="G2" s="44" t="s">
-        <v>169</v>
       </c>
       <c r="H2" s="61"/>
       <c r="J2" s="44"/>
@@ -12917,20 +12917,20 @@
       <c r="N2" s="57"/>
     </row>
     <row r="3" spans="1:14" s="53" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="75"/>
-      <c r="B3" s="76"/>
+      <c r="A3" s="77"/>
+      <c r="B3" s="78"/>
       <c r="C3" s="64" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="77"/>
+      <c r="E3" s="79"/>
       <c r="F3" s="56" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G3" s="44" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H3" s="61"/>
       <c r="I3" s="57"/>
@@ -12941,8 +12941,8 @@
       <c r="N3" s="57"/>
     </row>
     <row r="4" spans="1:14" s="53" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="75"/>
-      <c r="B4" s="76"/>
+      <c r="A4" s="77"/>
+      <c r="B4" s="78"/>
       <c r="C4" s="65" t="s">
         <v>31</v>
       </c>
@@ -12961,12 +12961,12 @@
       <c r="N4" s="57"/>
     </row>
     <row r="5" spans="1:14" s="53" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="76"/>
-      <c r="C5" s="73" t="s">
-        <v>162</v>
-      </c>
-      <c r="D5" s="74" t="s">
-        <v>133</v>
+      <c r="B5" s="78"/>
+      <c r="C5" s="75" t="s">
+        <v>240</v>
+      </c>
+      <c r="D5" s="76" t="s">
+        <v>238</v>
       </c>
       <c r="E5" s="55"/>
       <c r="F5" s="56"/>
@@ -12980,9 +12980,9 @@
       <c r="N5" s="57"/>
     </row>
     <row r="6" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B6" s="76"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="74"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="76"/>
       <c r="E6" s="55"/>
       <c r="F6" s="56"/>
       <c r="G6" s="44"/>
@@ -12995,78 +12995,78 @@
       <c r="N6" s="57"/>
     </row>
     <row r="7" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B7" s="76"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="74"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="76"/>
       <c r="E7" s="57"/>
     </row>
     <row r="8" spans="1:14" s="53" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="76"/>
-      <c r="C8" s="73" t="s">
-        <v>163</v>
-      </c>
-      <c r="D8" s="74" t="s">
-        <v>164</v>
+      <c r="B8" s="78"/>
+      <c r="C8" s="75" t="s">
+        <v>241</v>
+      </c>
+      <c r="D8" s="76" t="s">
+        <v>239</v>
       </c>
       <c r="E8" s="57"/>
     </row>
     <row r="9" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B9" s="76"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="74"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="76"/>
       <c r="E9" s="57"/>
     </row>
     <row r="10" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B10" s="76"/>
-      <c r="C10" s="73"/>
-      <c r="D10" s="74"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="76"/>
       <c r="E10" s="57"/>
     </row>
     <row r="11" spans="1:14" s="53" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="76"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="74"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="76"/>
     </row>
     <row r="12" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B12" s="76"/>
-      <c r="C12" s="73"/>
-      <c r="D12" s="74"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="76"/>
     </row>
     <row r="13" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B13" s="76"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="74"/>
+      <c r="B13" s="78"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="76"/>
     </row>
     <row r="14" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B14" s="76"/>
-      <c r="C14" s="73"/>
-      <c r="D14" s="74"/>
+      <c r="B14" s="78"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="76"/>
     </row>
     <row r="15" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="56"/>
-      <c r="B15" s="76"/>
-      <c r="C15" s="73"/>
-      <c r="D15" s="74"/>
+      <c r="B15" s="78"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="76"/>
     </row>
     <row r="16" spans="1:14" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B16" s="76"/>
-      <c r="C16" s="73"/>
-      <c r="D16" s="74"/>
+      <c r="B16" s="78"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="76"/>
     </row>
     <row r="17" spans="2:4" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B17" s="60"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="74"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="76"/>
     </row>
     <row r="18" spans="2:4" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B18" s="60"/>
-      <c r="C18" s="73"/>
-      <c r="D18" s="74"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="76"/>
     </row>
     <row r="19" spans="2:4" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B19" s="60"/>
-      <c r="C19" s="73"/>
-      <c r="D19" s="74"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="13">
